--- a/BackTest/2019-10-26 BackTest HC.xlsx
+++ b/BackTest/2019-10-26 BackTest HC.xlsx
@@ -451,20 +451,14 @@
         <v>1642.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1643</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>1644.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1647</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>1646.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1651</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>1652.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1650</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>1654</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1652</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>1658.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1666</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>1655.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1639</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>1656.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1655</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>1653.8</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1657</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>1651.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1645</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>1649.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1655</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>1653</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1656</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>1653.2</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1656</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>1653</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1656</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>1653.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1645</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>1654</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1657</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>1657.2</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1672</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>1658</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1660</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1196,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1235,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1274,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1313,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1352,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1387,15 +1259,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1426,15 +1294,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1469,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1508,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1547,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1586,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1625,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1660,15 +1504,11 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1699,15 +1539,11 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1738,15 +1574,11 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1781,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1816,16 +1644,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1888,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1958,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2028,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2098,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2133,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2168,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2203,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2238,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2273,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2308,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2413,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2448,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2588,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -5070,13 +4896,17 @@
         <v>1681.6</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1714</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1714</v>
+      </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
@@ -5105,14 +4935,22 @@
         <v>1686.2</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1676</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5140,14 +4978,22 @@
         <v>1685.6</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1684</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5175,14 +5021,22 @@
         <v>1693.8</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1684</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5210,14 +5064,22 @@
         <v>1693.6</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1711</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5245,14 +5107,22 @@
         <v>1697.8</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1713</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5286,8 +5156,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5321,8 +5197,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5356,8 +5238,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5391,8 +5279,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5426,8 +5320,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5461,8 +5361,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5496,8 +5402,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5531,8 +5443,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5566,8 +5484,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5601,8 +5525,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5636,8 +5566,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5671,8 +5607,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5706,8 +5648,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5741,8 +5689,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5776,8 +5730,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5811,8 +5771,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5846,8 +5812,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5881,8 +5853,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5916,8 +5894,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5951,8 +5935,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5986,8 +5976,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6021,8 +6017,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6056,8 +6058,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6091,8 +6099,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6126,8 +6140,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6161,8 +6181,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6222,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6231,8 +6263,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6266,8 +6304,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6301,8 +6345,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6336,8 +6386,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6371,8 +6427,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6406,8 +6468,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6441,8 +6509,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6476,8 +6550,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6511,8 +6591,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6546,8 +6632,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6581,8 +6673,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6616,8 +6714,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6651,8 +6755,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6686,8 +6796,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6721,8 +6837,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6756,8 +6878,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6791,8 +6919,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6826,8 +6960,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6861,8 +7001,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6896,8 +7042,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6931,8 +7083,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6966,8 +7124,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7001,8 +7165,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7036,8 +7206,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7071,8 +7247,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7106,8 +7288,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7141,8 +7329,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7176,8 +7370,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7211,8 +7411,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7246,8 +7452,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7281,8 +7493,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7316,8 +7534,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7575,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7386,8 +7616,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7421,8 +7657,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7456,8 +7698,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7491,8 +7739,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7526,8 +7780,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7561,8 +7821,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7596,8 +7862,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7631,8 +7903,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7666,8 +7944,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7701,8 +7985,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7736,8 +8026,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7771,8 +8067,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7806,8 +8108,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7841,8 +8149,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7876,8 +8190,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7911,8 +8231,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7946,8 +8272,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7981,8 +8313,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8016,8 +8354,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8051,8 +8395,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8086,8 +8436,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8121,8 +8477,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8156,8 +8518,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8191,8 +8559,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8226,8 +8600,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8261,8 +8641,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8296,8 +8682,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8331,8 +8723,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8366,8 +8764,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8395,14 +8799,22 @@
         <v>1696.6</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1694</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8436,8 +8848,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8471,8 +8889,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8930,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8541,8 +8971,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8576,8 +9012,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8611,8 +9053,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8646,8 +9094,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8681,8 +9135,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8710,14 +9170,22 @@
         <v>1699.8</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1694</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8751,8 +9219,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8786,8 +9260,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8821,8 +9301,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8856,8 +9342,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8891,8 +9383,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8926,8 +9424,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8961,8 +9465,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8996,8 +9506,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9031,8 +9547,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1714</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest HC.xlsx
+++ b/BackTest/2019-10-26 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M242"/>
+  <dimension ref="A1:M243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>1643</v>
       </c>
       <c r="C2" t="n">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D2" t="n">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="E2" t="n">
         <v>1643</v>
       </c>
       <c r="F2" t="n">
-        <v>63.5203</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>1642.2</v>
+        <v>1628.75</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="C3" t="n">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="D3" t="n">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="E3" t="n">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="F3" t="n">
-        <v>4.6</v>
+        <v>63.5203</v>
       </c>
       <c r="G3" t="n">
-        <v>1644.6</v>
+        <v>1628.85</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="C4" t="n">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="D4" t="n">
-        <v>1698</v>
+        <v>1653</v>
       </c>
       <c r="E4" t="n">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="F4" t="n">
-        <v>3373.4672</v>
+        <v>4.6</v>
       </c>
       <c r="G4" t="n">
-        <v>1646.4</v>
+        <v>1629.566666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>1651</v>
+      </c>
+      <c r="C5" t="n">
         <v>1650</v>
       </c>
-      <c r="C5" t="n">
-        <v>1670</v>
-      </c>
       <c r="D5" t="n">
-        <v>1670</v>
+        <v>1698</v>
       </c>
       <c r="E5" t="n">
         <v>1650</v>
       </c>
       <c r="F5" t="n">
-        <v>20.1</v>
+        <v>3373.4672</v>
       </c>
       <c r="G5" t="n">
-        <v>1652.2</v>
+        <v>1630.233333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C6" t="n">
-        <v>1652</v>
+        <v>1670</v>
       </c>
       <c r="D6" t="n">
-        <v>1652</v>
+        <v>1670</v>
       </c>
       <c r="E6" t="n">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="F6" t="n">
-        <v>17.3367</v>
+        <v>20.1</v>
       </c>
       <c r="G6" t="n">
-        <v>1654</v>
+        <v>1631.233333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1666</v>
+        <v>1652</v>
       </c>
       <c r="C7" t="n">
-        <v>1666</v>
+        <v>1652</v>
       </c>
       <c r="D7" t="n">
-        <v>1666</v>
+        <v>1652</v>
       </c>
       <c r="E7" t="n">
-        <v>1666</v>
+        <v>1652</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1</v>
+        <v>17.3367</v>
       </c>
       <c r="G7" t="n">
-        <v>1658.2</v>
+        <v>1631.933333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1639</v>
+        <v>1666</v>
       </c>
       <c r="C8" t="n">
-        <v>1639</v>
+        <v>1666</v>
       </c>
       <c r="D8" t="n">
-        <v>1639</v>
+        <v>1666</v>
       </c>
       <c r="E8" t="n">
-        <v>1639</v>
+        <v>1666</v>
       </c>
       <c r="F8" t="n">
-        <v>17.246</v>
+        <v>0.1</v>
       </c>
       <c r="G8" t="n">
-        <v>1655.4</v>
+        <v>1632.866666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1655</v>
+        <v>1639</v>
       </c>
       <c r="C9" t="n">
-        <v>1655</v>
+        <v>1639</v>
       </c>
       <c r="D9" t="n">
-        <v>1655</v>
+        <v>1639</v>
       </c>
       <c r="E9" t="n">
-        <v>1655</v>
+        <v>1639</v>
       </c>
       <c r="F9" t="n">
-        <v>0.18</v>
+        <v>17.246</v>
       </c>
       <c r="G9" t="n">
-        <v>1656.4</v>
+        <v>1633.35</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="C10" t="n">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="D10" t="n">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="E10" t="n">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="F10" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="G10" t="n">
-        <v>1653.8</v>
+        <v>1634.066666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1645</v>
+        <v>1657</v>
       </c>
       <c r="C11" t="n">
-        <v>1642</v>
+        <v>1657</v>
       </c>
       <c r="D11" t="n">
-        <v>1645</v>
+        <v>1657</v>
       </c>
       <c r="E11" t="n">
-        <v>1642</v>
+        <v>1657</v>
       </c>
       <c r="F11" t="n">
-        <v>500</v>
+        <v>0.11</v>
       </c>
       <c r="G11" t="n">
-        <v>1651.8</v>
+        <v>1634.783333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1655</v>
+        <v>1645</v>
       </c>
       <c r="C12" t="n">
-        <v>1655</v>
+        <v>1642</v>
       </c>
       <c r="D12" t="n">
-        <v>1655</v>
+        <v>1645</v>
       </c>
       <c r="E12" t="n">
-        <v>1655</v>
+        <v>1642</v>
       </c>
       <c r="F12" t="n">
-        <v>0.18</v>
+        <v>500</v>
       </c>
       <c r="G12" t="n">
-        <v>1649.6</v>
+        <v>1635.183333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C13" t="n">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D13" t="n">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E13" t="n">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="F13" t="n">
-        <v>11.3806</v>
+        <v>0.18</v>
       </c>
       <c r="G13" t="n">
-        <v>1653</v>
+        <v>1636.033333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>1656</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6194</v>
+        <v>11.3806</v>
       </c>
       <c r="G14" t="n">
-        <v>1653.2</v>
+        <v>1636.383333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>1656</v>
       </c>
       <c r="F15" t="n">
-        <v>22.5071</v>
+        <v>0.6194</v>
       </c>
       <c r="G15" t="n">
-        <v>1653</v>
+        <v>1636.683333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1645</v>
+        <v>1656</v>
       </c>
       <c r="C16" t="n">
-        <v>1645</v>
+        <v>1656</v>
       </c>
       <c r="D16" t="n">
-        <v>1645</v>
+        <v>1656</v>
       </c>
       <c r="E16" t="n">
-        <v>1645</v>
+        <v>1656</v>
       </c>
       <c r="F16" t="n">
-        <v>24.0349</v>
+        <v>22.5071</v>
       </c>
       <c r="G16" t="n">
-        <v>1653.6</v>
+        <v>1636.983333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="C17" t="n">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="D17" t="n">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="E17" t="n">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="F17" t="n">
-        <v>113.8458</v>
+        <v>24.0349</v>
       </c>
       <c r="G17" t="n">
-        <v>1654</v>
+        <v>1637.016666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1672</v>
+        <v>1657</v>
       </c>
       <c r="C18" t="n">
-        <v>1672</v>
+        <v>1657</v>
       </c>
       <c r="D18" t="n">
-        <v>1672</v>
+        <v>1657</v>
       </c>
       <c r="E18" t="n">
-        <v>1672</v>
+        <v>1657</v>
       </c>
       <c r="F18" t="n">
-        <v>0.11</v>
+        <v>113.8458</v>
       </c>
       <c r="G18" t="n">
-        <v>1657.2</v>
+        <v>1637.35</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1660</v>
+        <v>1672</v>
       </c>
       <c r="C19" t="n">
-        <v>1660</v>
+        <v>1672</v>
       </c>
       <c r="D19" t="n">
-        <v>1660</v>
+        <v>1672</v>
       </c>
       <c r="E19" t="n">
-        <v>1660</v>
+        <v>1672</v>
       </c>
       <c r="F19" t="n">
-        <v>21.5323</v>
+        <v>0.11</v>
       </c>
       <c r="G19" t="n">
-        <v>1658</v>
+        <v>1637.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1674</v>
+        <v>1660</v>
       </c>
       <c r="C20" t="n">
-        <v>1674</v>
+        <v>1660</v>
       </c>
       <c r="D20" t="n">
-        <v>1674</v>
+        <v>1660</v>
       </c>
       <c r="E20" t="n">
-        <v>1674</v>
+        <v>1660</v>
       </c>
       <c r="F20" t="n">
-        <v>0.118</v>
+        <v>21.5323</v>
       </c>
       <c r="G20" t="n">
-        <v>1661.6</v>
+        <v>1638.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="C21" t="n">
-        <v>1697</v>
+        <v>1674</v>
       </c>
       <c r="D21" t="n">
-        <v>1697</v>
+        <v>1674</v>
       </c>
       <c r="E21" t="n">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>0.118</v>
       </c>
       <c r="G21" t="n">
-        <v>1672</v>
+        <v>1639.766666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C22" t="n">
         <v>1697</v>
       </c>
-      <c r="C22" t="n">
-        <v>1702</v>
-      </c>
       <c r="D22" t="n">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="E22" t="n">
-        <v>1697</v>
+        <v>1680</v>
       </c>
       <c r="F22" t="n">
-        <v>1082.5127</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>1681</v>
+        <v>1641.083333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="C23" t="n">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="D23" t="n">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="E23" t="n">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="F23" t="n">
-        <v>3521.3478</v>
+        <v>1082.5127</v>
       </c>
       <c r="G23" t="n">
-        <v>1688.8</v>
+        <v>1642.35</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1717</v>
+        <v>1691</v>
       </c>
       <c r="C24" t="n">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="D24" t="n">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="E24" t="n">
-        <v>1717</v>
+        <v>1691</v>
       </c>
       <c r="F24" t="n">
-        <v>33.0991</v>
+        <v>3521.3478</v>
       </c>
       <c r="G24" t="n">
-        <v>1700.2</v>
+        <v>1643.683333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C25" t="n">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="D25" t="n">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="E25" t="n">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="F25" t="n">
-        <v>119.8599</v>
+        <v>33.0991</v>
       </c>
       <c r="G25" t="n">
-        <v>1709.4</v>
+        <v>1645.35</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C26" t="n">
         <v>1720</v>
@@ -1282,13 +1282,13 @@
         <v>1720</v>
       </c>
       <c r="E26" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F26" t="n">
-        <v>125.4557</v>
+        <v>119.8599</v>
       </c>
       <c r="G26" t="n">
-        <v>1714</v>
+        <v>1646.983333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,25 +1311,25 @@
         <v>1720</v>
       </c>
       <c r="C27" t="n">
-        <v>1745</v>
+        <v>1720</v>
       </c>
       <c r="D27" t="n">
-        <v>1745</v>
+        <v>1720</v>
       </c>
       <c r="E27" t="n">
         <v>1720</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1</v>
+        <v>125.4557</v>
       </c>
       <c r="G27" t="n">
-        <v>1722.6</v>
+        <v>1648.283333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1343,28 +1343,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="C28" t="n">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="D28" t="n">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="E28" t="n">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="F28" t="n">
-        <v>265.2989</v>
+        <v>0.1</v>
       </c>
       <c r="G28" t="n">
-        <v>1730.2</v>
+        <v>1649.983333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>1722</v>
+      </c>
+      <c r="C29" t="n">
         <v>1749</v>
       </c>
-      <c r="C29" t="n">
-        <v>1753</v>
-      </c>
       <c r="D29" t="n">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="E29" t="n">
-        <v>1749</v>
+        <v>1722</v>
       </c>
       <c r="F29" t="n">
-        <v>925.6249</v>
+        <v>265.2989</v>
       </c>
       <c r="G29" t="n">
-        <v>1737.4</v>
+        <v>1652.216666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="C30" t="n">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="D30" t="n">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="E30" t="n">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="F30" t="n">
-        <v>118.1728</v>
+        <v>925.6249</v>
       </c>
       <c r="G30" t="n">
-        <v>1743.8</v>
+        <v>1654.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C31" t="n">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D31" t="n">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E31" t="n">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1</v>
+        <v>118.1728</v>
       </c>
       <c r="G31" t="n">
-        <v>1750.4</v>
+        <v>1656.716666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="C32" t="n">
         <v>1753</v>
@@ -1492,13 +1492,13 @@
         <v>1753</v>
       </c>
       <c r="E32" t="n">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="F32" t="n">
-        <v>341.2227</v>
+        <v>0.1</v>
       </c>
       <c r="G32" t="n">
-        <v>1752</v>
+        <v>1658.733333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,28 +1518,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C33" t="n">
+        <v>1753</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1753</v>
+      </c>
+      <c r="E33" t="n">
         <v>1752</v>
       </c>
-      <c r="D33" t="n">
-        <v>1752</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1751</v>
-      </c>
       <c r="F33" t="n">
-        <v>421.4596</v>
+        <v>341.2227</v>
       </c>
       <c r="G33" t="n">
-        <v>1752.6</v>
+        <v>1660.716666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1553,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C34" t="n">
         <v>1752</v>
@@ -1562,13 +1562,13 @@
         <v>1752</v>
       </c>
       <c r="E34" t="n">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="F34" t="n">
-        <v>443.0247</v>
+        <v>421.4596</v>
       </c>
       <c r="G34" t="n">
-        <v>1752.4</v>
+        <v>1662.716666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>1752</v>
       </c>
       <c r="F35" t="n">
-        <v>413.1396</v>
+        <v>443.0247</v>
       </c>
       <c r="G35" t="n">
-        <v>1752.4</v>
+        <v>1664.55</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1725</v>
+        <v>1752</v>
       </c>
       <c r="C36" t="n">
-        <v>1725</v>
+        <v>1752</v>
       </c>
       <c r="D36" t="n">
-        <v>1725</v>
+        <v>1752</v>
       </c>
       <c r="E36" t="n">
-        <v>1725</v>
+        <v>1752</v>
       </c>
       <c r="F36" t="n">
-        <v>5.5382</v>
+        <v>413.1396</v>
       </c>
       <c r="G36" t="n">
-        <v>1746.8</v>
+        <v>1666.766666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,25 +1661,25 @@
         <v>1725</v>
       </c>
       <c r="C37" t="n">
-        <v>1753</v>
+        <v>1725</v>
       </c>
       <c r="D37" t="n">
-        <v>1753</v>
+        <v>1725</v>
       </c>
       <c r="E37" t="n">
         <v>1725</v>
       </c>
       <c r="F37" t="n">
-        <v>557.9104</v>
+        <v>5.5382</v>
       </c>
       <c r="G37" t="n">
-        <v>1746.8</v>
+        <v>1668.266666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1752</v>
+        <v>1725</v>
       </c>
       <c r="C38" t="n">
         <v>1753</v>
@@ -1702,13 +1702,13 @@
         <v>1753</v>
       </c>
       <c r="E38" t="n">
-        <v>1752</v>
+        <v>1725</v>
       </c>
       <c r="F38" t="n">
-        <v>455</v>
+        <v>557.9104</v>
       </c>
       <c r="G38" t="n">
-        <v>1747</v>
+        <v>1670.166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="C39" t="n">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="D39" t="n">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="E39" t="n">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="F39" t="n">
-        <v>131.9638</v>
+        <v>455</v>
       </c>
       <c r="G39" t="n">
-        <v>1745.6</v>
+        <v>1672.366666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,28 +1763,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="C40" t="n">
-        <v>1727</v>
+        <v>1745</v>
       </c>
       <c r="D40" t="n">
-        <v>1755</v>
+        <v>1745</v>
       </c>
       <c r="E40" t="n">
-        <v>1726</v>
+        <v>1744</v>
       </c>
       <c r="F40" t="n">
-        <v>528.1994</v>
+        <v>131.9638</v>
       </c>
       <c r="G40" t="n">
-        <v>1740.6</v>
+        <v>1674.15</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1798,28 +1798,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1729</v>
+        <v>1753</v>
       </c>
       <c r="C41" t="n">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="D41" t="n">
-        <v>1729</v>
+        <v>1755</v>
       </c>
       <c r="E41" t="n">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="F41" t="n">
-        <v>30.69</v>
+        <v>528.1994</v>
       </c>
       <c r="G41" t="n">
-        <v>1741.4</v>
+        <v>1675.633333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1753</v>
+        <v>1729</v>
       </c>
       <c r="C42" t="n">
-        <v>1778</v>
+        <v>1729</v>
       </c>
       <c r="D42" t="n">
-        <v>1778</v>
+        <v>1729</v>
       </c>
       <c r="E42" t="n">
-        <v>1753</v>
+        <v>1729</v>
       </c>
       <c r="F42" t="n">
-        <v>260</v>
+        <v>30.69</v>
       </c>
       <c r="G42" t="n">
-        <v>1746.4</v>
+        <v>1677.516666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C43" t="n">
-        <v>1755</v>
+        <v>1778</v>
       </c>
       <c r="D43" t="n">
-        <v>1755</v>
+        <v>1778</v>
       </c>
       <c r="E43" t="n">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="G43" t="n">
-        <v>1746.8</v>
+        <v>1679.866666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,28 +1903,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1750</v>
+        <v>1755</v>
       </c>
       <c r="C44" t="n">
-        <v>1748</v>
+        <v>1755</v>
       </c>
       <c r="D44" t="n">
-        <v>1750</v>
+        <v>1755</v>
       </c>
       <c r="E44" t="n">
-        <v>1748</v>
+        <v>1755</v>
       </c>
       <c r="F44" t="n">
-        <v>91.1999</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>1747.4</v>
+        <v>1682.15</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1768</v>
+        <v>1750</v>
       </c>
       <c r="C45" t="n">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="D45" t="n">
-        <v>1768</v>
+        <v>1750</v>
       </c>
       <c r="E45" t="n">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="F45" t="n">
-        <v>253.8615</v>
+        <v>91.1999</v>
       </c>
       <c r="G45" t="n">
-        <v>1752.2</v>
+        <v>1684.016666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="C46" t="n">
-        <v>1777</v>
+        <v>1751</v>
       </c>
       <c r="D46" t="n">
-        <v>1778</v>
+        <v>1768</v>
       </c>
       <c r="E46" t="n">
-        <v>1777</v>
+        <v>1751</v>
       </c>
       <c r="F46" t="n">
-        <v>578.3806</v>
+        <v>253.8615</v>
       </c>
       <c r="G46" t="n">
-        <v>1761.8</v>
+        <v>1685.85</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>1777</v>
       </c>
       <c r="C47" t="n">
-        <v>1763</v>
+        <v>1777</v>
       </c>
       <c r="D47" t="n">
+        <v>1778</v>
+      </c>
+      <c r="E47" t="n">
         <v>1777</v>
       </c>
-      <c r="E47" t="n">
-        <v>1762</v>
-      </c>
       <c r="F47" t="n">
-        <v>76.6806</v>
+        <v>578.3806</v>
       </c>
       <c r="G47" t="n">
-        <v>1758.8</v>
+        <v>1688.216666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1764</v>
+        <v>1777</v>
       </c>
       <c r="C48" t="n">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D48" t="n">
-        <v>1764</v>
+        <v>1777</v>
       </c>
       <c r="E48" t="n">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="F48" t="n">
-        <v>16.8583</v>
+        <v>76.6806</v>
       </c>
       <c r="G48" t="n">
-        <v>1760.6</v>
+        <v>1690.266666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="C49" t="n">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="D49" t="n">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="E49" t="n">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="F49" t="n">
-        <v>191.976</v>
+        <v>16.8583</v>
       </c>
       <c r="G49" t="n">
-        <v>1763.2</v>
+        <v>1692.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C50" t="n">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="D50" t="n">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="E50" t="n">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="F50" t="n">
-        <v>35.8784</v>
+        <v>191.976</v>
       </c>
       <c r="G50" t="n">
-        <v>1765.6</v>
+        <v>1694.533333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>1762</v>
+      </c>
+      <c r="C51" t="n">
         <v>1763</v>
       </c>
-      <c r="C51" t="n">
-        <v>1779</v>
-      </c>
       <c r="D51" t="n">
-        <v>1779</v>
+        <v>1763</v>
       </c>
       <c r="E51" t="n">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3</v>
+        <v>35.8784</v>
       </c>
       <c r="G51" t="n">
-        <v>1766</v>
+        <v>1696.75</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1756</v>
+        <v>1763</v>
       </c>
       <c r="C52" t="n">
-        <v>1754</v>
+        <v>1779</v>
       </c>
       <c r="D52" t="n">
-        <v>1756</v>
+        <v>1779</v>
       </c>
       <c r="E52" t="n">
-        <v>1754</v>
+        <v>1763</v>
       </c>
       <c r="F52" t="n">
-        <v>309.7846</v>
+        <v>0.3</v>
       </c>
       <c r="G52" t="n">
-        <v>1764.2</v>
+        <v>1699.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1747</v>
+        <v>1756</v>
       </c>
       <c r="C53" t="n">
-        <v>1747</v>
+        <v>1754</v>
       </c>
       <c r="D53" t="n">
-        <v>1747</v>
+        <v>1756</v>
       </c>
       <c r="E53" t="n">
-        <v>1747</v>
+        <v>1754</v>
       </c>
       <c r="F53" t="n">
-        <v>18.4149</v>
+        <v>309.7846</v>
       </c>
       <c r="G53" t="n">
-        <v>1760.8</v>
+        <v>1701.016666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1758</v>
+        <v>1747</v>
       </c>
       <c r="C54" t="n">
-        <v>1758</v>
+        <v>1747</v>
       </c>
       <c r="D54" t="n">
-        <v>1758</v>
+        <v>1747</v>
       </c>
       <c r="E54" t="n">
-        <v>1758</v>
+        <v>1747</v>
       </c>
       <c r="F54" t="n">
-        <v>265.2625</v>
+        <v>18.4149</v>
       </c>
       <c r="G54" t="n">
-        <v>1760.2</v>
+        <v>1702.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C55" t="n">
-        <v>1779</v>
+        <v>1758</v>
       </c>
       <c r="D55" t="n">
-        <v>1779</v>
+        <v>1758</v>
       </c>
       <c r="E55" t="n">
         <v>1758</v>
       </c>
       <c r="F55" t="n">
-        <v>75.3425</v>
+        <v>265.2625</v>
       </c>
       <c r="G55" t="n">
-        <v>1763.4</v>
+        <v>1705.033333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1779</v>
+        <v>1759</v>
       </c>
       <c r="C56" t="n">
         <v>1779</v>
@@ -2332,13 +2332,13 @@
         <v>1779</v>
       </c>
       <c r="E56" t="n">
-        <v>1779</v>
+        <v>1758</v>
       </c>
       <c r="F56" t="n">
-        <v>5.6211</v>
+        <v>75.3425</v>
       </c>
       <c r="G56" t="n">
-        <v>1763.4</v>
+        <v>1707.366666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>1779</v>
       </c>
       <c r="C57" t="n">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D57" t="n">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E57" t="n">
         <v>1779</v>
       </c>
       <c r="F57" t="n">
-        <v>65.44</v>
+        <v>5.6211</v>
       </c>
       <c r="G57" t="n">
-        <v>1768.6</v>
+        <v>1709.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>1779</v>
       </c>
       <c r="C58" t="n">
-        <v>1793</v>
+        <v>1780</v>
       </c>
       <c r="D58" t="n">
-        <v>1793</v>
+        <v>1780</v>
       </c>
       <c r="E58" t="n">
         <v>1779</v>
       </c>
       <c r="F58" t="n">
-        <v>276.731</v>
+        <v>65.44</v>
       </c>
       <c r="G58" t="n">
-        <v>1777.8</v>
+        <v>1712.033333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="C59" t="n">
-        <v>1771</v>
+        <v>1793</v>
       </c>
       <c r="D59" t="n">
-        <v>1771</v>
+        <v>1793</v>
       </c>
       <c r="E59" t="n">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>276.731</v>
       </c>
       <c r="G59" t="n">
-        <v>1780.4</v>
+        <v>1714.566666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1789</v>
+        <v>1771</v>
       </c>
       <c r="C60" t="n">
-        <v>1789</v>
+        <v>1771</v>
       </c>
       <c r="D60" t="n">
-        <v>1789</v>
+        <v>1771</v>
       </c>
       <c r="E60" t="n">
-        <v>1789</v>
+        <v>1771</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>1782.4</v>
+        <v>1716.733333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1774</v>
+        <v>1789</v>
       </c>
       <c r="C61" t="n">
-        <v>1723</v>
+        <v>1789</v>
       </c>
       <c r="D61" t="n">
-        <v>1774</v>
+        <v>1789</v>
       </c>
       <c r="E61" t="n">
-        <v>1723</v>
+        <v>1789</v>
       </c>
       <c r="F61" t="n">
-        <v>6000</v>
+        <v>0.1</v>
       </c>
       <c r="G61" t="n">
-        <v>1771.2</v>
+        <v>1719.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1788</v>
+        <v>1774</v>
       </c>
       <c r="C62" t="n">
-        <v>1788</v>
+        <v>1723</v>
       </c>
       <c r="D62" t="n">
-        <v>1788</v>
+        <v>1774</v>
       </c>
       <c r="E62" t="n">
-        <v>1788</v>
+        <v>1723</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1</v>
+        <v>6000</v>
       </c>
       <c r="G62" t="n">
-        <v>1772.8</v>
+        <v>1720.533333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2571,19 +2571,19 @@
         <v>1788</v>
       </c>
       <c r="C63" t="n">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D63" t="n">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="E63" t="n">
-        <v>1761</v>
+        <v>1788</v>
       </c>
       <c r="F63" t="n">
-        <v>948.1545</v>
+        <v>0.1</v>
       </c>
       <c r="G63" t="n">
-        <v>1772</v>
+        <v>1722.916666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1761</v>
+        <v>1788</v>
       </c>
       <c r="C64" t="n">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D64" t="n">
         <v>1790</v>
@@ -2615,10 +2615,10 @@
         <v>1761</v>
       </c>
       <c r="F64" t="n">
-        <v>1131.9405</v>
+        <v>948.1545</v>
       </c>
       <c r="G64" t="n">
-        <v>1775.8</v>
+        <v>1725.183333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1768</v>
+        <v>1761</v>
       </c>
       <c r="C65" t="n">
-        <v>1768</v>
+        <v>1790</v>
       </c>
       <c r="D65" t="n">
-        <v>1768</v>
+        <v>1790</v>
       </c>
       <c r="E65" t="n">
-        <v>1768</v>
+        <v>1761</v>
       </c>
       <c r="F65" t="n">
-        <v>18.6053</v>
+        <v>1131.9405</v>
       </c>
       <c r="G65" t="n">
-        <v>1771.6</v>
+        <v>1727.516666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="C66" t="n">
-        <v>1785</v>
+        <v>1768</v>
       </c>
       <c r="D66" t="n">
-        <v>1785</v>
+        <v>1768</v>
       </c>
       <c r="E66" t="n">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="F66" t="n">
-        <v>58.7914</v>
+        <v>18.6053</v>
       </c>
       <c r="G66" t="n">
-        <v>1784</v>
+        <v>1729.15</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1788</v>
+        <v>1777</v>
       </c>
       <c r="C67" t="n">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="D67" t="n">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="E67" t="n">
-        <v>1788</v>
+        <v>1777</v>
       </c>
       <c r="F67" t="n">
-        <v>306.8218</v>
+        <v>58.7914</v>
       </c>
       <c r="G67" t="n">
-        <v>1784.2</v>
+        <v>1731.366666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>1788</v>
+      </c>
+      <c r="C68" t="n">
         <v>1789</v>
       </c>
-      <c r="C68" t="n">
-        <v>1790</v>
-      </c>
       <c r="D68" t="n">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="E68" t="n">
         <v>1788</v>
       </c>
       <c r="F68" t="n">
-        <v>571.1276</v>
+        <v>306.8218</v>
       </c>
       <c r="G68" t="n">
-        <v>1784.4</v>
+        <v>1733.416666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>1789</v>
+      </c>
+      <c r="C69" t="n">
         <v>1790</v>
       </c>
-      <c r="C69" t="n">
-        <v>1793</v>
-      </c>
       <c r="D69" t="n">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="E69" t="n">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F69" t="n">
-        <v>752.0524</v>
+        <v>571.1276</v>
       </c>
       <c r="G69" t="n">
-        <v>1785</v>
+        <v>1735.933333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="C70" t="n">
-        <v>1814</v>
+        <v>1793</v>
       </c>
       <c r="D70" t="n">
-        <v>1814</v>
+        <v>1793</v>
       </c>
       <c r="E70" t="n">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="F70" t="n">
-        <v>20</v>
+        <v>752.0524</v>
       </c>
       <c r="G70" t="n">
-        <v>1794.2</v>
+        <v>1738.233333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1812</v>
+        <v>1800</v>
       </c>
       <c r="C71" t="n">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="D71" t="n">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="E71" t="n">
-        <v>1812</v>
+        <v>1800</v>
       </c>
       <c r="F71" t="n">
-        <v>819.6887417200001</v>
+        <v>20</v>
       </c>
       <c r="G71" t="n">
-        <v>1799.6</v>
+        <v>1740.85</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1791</v>
+        <v>1812</v>
       </c>
       <c r="C72" t="n">
-        <v>1790</v>
+        <v>1812</v>
       </c>
       <c r="D72" t="n">
-        <v>1791</v>
+        <v>1812</v>
       </c>
       <c r="E72" t="n">
-        <v>1790</v>
+        <v>1812</v>
       </c>
       <c r="F72" t="n">
-        <v>297.8321</v>
+        <v>819.6887417200001</v>
       </c>
       <c r="G72" t="n">
-        <v>1799.8</v>
+        <v>1743.683333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C73" t="n">
         <v>1790</v>
       </c>
       <c r="D73" t="n">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="E73" t="n">
         <v>1790</v>
       </c>
       <c r="F73" t="n">
-        <v>570.13</v>
+        <v>297.8321</v>
       </c>
       <c r="G73" t="n">
-        <v>1799.8</v>
+        <v>1745.933333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="C74" t="n">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D74" t="n">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="E74" t="n">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="F74" t="n">
-        <v>17.594</v>
+        <v>570.13</v>
       </c>
       <c r="G74" t="n">
-        <v>1799</v>
+        <v>1748.166666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>1789</v>
       </c>
       <c r="F75" t="n">
-        <v>128.8211</v>
+        <v>17.594</v>
       </c>
       <c r="G75" t="n">
-        <v>1794</v>
+        <v>1750.383333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1759</v>
+        <v>1789</v>
       </c>
       <c r="C76" t="n">
-        <v>1759</v>
+        <v>1789</v>
       </c>
       <c r="D76" t="n">
-        <v>1759</v>
+        <v>1789</v>
       </c>
       <c r="E76" t="n">
-        <v>1759</v>
+        <v>1789</v>
       </c>
       <c r="F76" t="n">
-        <v>18.4091</v>
+        <v>128.8211</v>
       </c>
       <c r="G76" t="n">
-        <v>1783.4</v>
+        <v>1752.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1753</v>
+        <v>1759</v>
       </c>
       <c r="C77" t="n">
-        <v>1752</v>
+        <v>1759</v>
       </c>
       <c r="D77" t="n">
-        <v>1753</v>
+        <v>1759</v>
       </c>
       <c r="E77" t="n">
-        <v>1752</v>
+        <v>1759</v>
       </c>
       <c r="F77" t="n">
-        <v>294.6395</v>
+        <v>18.4091</v>
       </c>
       <c r="G77" t="n">
-        <v>1775.8</v>
+        <v>1754.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1764</v>
+        <v>1753</v>
       </c>
       <c r="C78" t="n">
-        <v>1735</v>
+        <v>1752</v>
       </c>
       <c r="D78" t="n">
-        <v>1764</v>
+        <v>1753</v>
       </c>
       <c r="E78" t="n">
-        <v>1735</v>
+        <v>1752</v>
       </c>
       <c r="F78" t="n">
-        <v>107.6005</v>
+        <v>294.6395</v>
       </c>
       <c r="G78" t="n">
-        <v>1764.8</v>
+        <v>1756.083333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1753</v>
+        <v>1764</v>
       </c>
       <c r="C79" t="n">
-        <v>1756</v>
+        <v>1735</v>
       </c>
       <c r="D79" t="n">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="E79" t="n">
-        <v>1753</v>
+        <v>1735</v>
       </c>
       <c r="F79" t="n">
-        <v>53.6995</v>
+        <v>107.6005</v>
       </c>
       <c r="G79" t="n">
-        <v>1758.2</v>
+        <v>1757.133333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C80" t="n">
         <v>1756</v>
       </c>
-      <c r="C80" t="n">
-        <v>1772</v>
-      </c>
       <c r="D80" t="n">
-        <v>1772</v>
+        <v>1756</v>
       </c>
       <c r="E80" t="n">
-        <v>1736</v>
+        <v>1753</v>
       </c>
       <c r="F80" t="n">
-        <v>303.1239</v>
+        <v>53.6995</v>
       </c>
       <c r="G80" t="n">
-        <v>1754.8</v>
+        <v>1758.733333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1744</v>
+        <v>1756</v>
       </c>
       <c r="C81" t="n">
-        <v>1744</v>
+        <v>1772</v>
       </c>
       <c r="D81" t="n">
-        <v>1744</v>
+        <v>1772</v>
       </c>
       <c r="E81" t="n">
-        <v>1744</v>
+        <v>1736</v>
       </c>
       <c r="F81" t="n">
-        <v>121.0562</v>
+        <v>303.1239</v>
       </c>
       <c r="G81" t="n">
-        <v>1751.8</v>
+        <v>1760.366666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1770</v>
+        <v>1744</v>
       </c>
       <c r="C82" t="n">
-        <v>1770</v>
+        <v>1744</v>
       </c>
       <c r="D82" t="n">
-        <v>1770</v>
+        <v>1744</v>
       </c>
       <c r="E82" t="n">
-        <v>1770</v>
+        <v>1744</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1</v>
+        <v>121.0562</v>
       </c>
       <c r="G82" t="n">
-        <v>1755.4</v>
+        <v>1761.15</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="C83" t="n">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D83" t="n">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="E83" t="n">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="F83" t="n">
-        <v>559.0925999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G83" t="n">
-        <v>1762.6</v>
+        <v>1762.283333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>1769</v>
+      </c>
+      <c r="C84" t="n">
         <v>1771</v>
       </c>
-      <c r="C84" t="n">
-        <v>1790</v>
-      </c>
       <c r="D84" t="n">
-        <v>1790</v>
+        <v>1771</v>
       </c>
       <c r="E84" t="n">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="F84" t="n">
-        <v>1264.7988</v>
+        <v>559.0925999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>1769.4</v>
+        <v>1763.283333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1787</v>
+        <v>1771</v>
       </c>
       <c r="C85" t="n">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="D85" t="n">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="E85" t="n">
-        <v>1787</v>
+        <v>1771</v>
       </c>
       <c r="F85" t="n">
-        <v>1.4994</v>
+        <v>1264.7988</v>
       </c>
       <c r="G85" t="n">
-        <v>1772.4</v>
+        <v>1764.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C86" t="n">
-        <v>1764</v>
+        <v>1787</v>
       </c>
       <c r="D86" t="n">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E86" t="n">
-        <v>1764</v>
+        <v>1787</v>
       </c>
       <c r="F86" t="n">
-        <v>272.342</v>
+        <v>1.4994</v>
       </c>
       <c r="G86" t="n">
-        <v>1776.4</v>
+        <v>1765.616666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="C87" t="n">
-        <v>1786</v>
+        <v>1764</v>
       </c>
       <c r="D87" t="n">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="E87" t="n">
-        <v>1786</v>
+        <v>1764</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1</v>
+        <v>272.342</v>
       </c>
       <c r="G87" t="n">
-        <v>1779.6</v>
+        <v>1766.35</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="C88" t="n">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="D88" t="n">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="E88" t="n">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="F88" t="n">
         <v>0.1</v>
       </c>
       <c r="G88" t="n">
-        <v>1783.6</v>
+        <v>1767.033333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1749</v>
+        <v>1791</v>
       </c>
       <c r="C89" t="n">
-        <v>1780</v>
+        <v>1791</v>
       </c>
       <c r="D89" t="n">
-        <v>1780</v>
+        <v>1791</v>
       </c>
       <c r="E89" t="n">
-        <v>1748</v>
+        <v>1791</v>
       </c>
       <c r="F89" t="n">
-        <v>36.8854</v>
+        <v>0.1</v>
       </c>
       <c r="G89" t="n">
-        <v>1781.6</v>
+        <v>1767.733333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1779</v>
+        <v>1749</v>
       </c>
       <c r="C90" t="n">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="D90" t="n">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="E90" t="n">
-        <v>1779</v>
+        <v>1748</v>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>36.8854</v>
       </c>
       <c r="G90" t="n">
-        <v>1780</v>
+        <v>1768.183333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1750</v>
+        <v>1779</v>
       </c>
       <c r="C91" t="n">
-        <v>1750</v>
+        <v>1779</v>
       </c>
       <c r="D91" t="n">
-        <v>1750</v>
+        <v>1779</v>
       </c>
       <c r="E91" t="n">
-        <v>1750</v>
+        <v>1779</v>
       </c>
       <c r="F91" t="n">
-        <v>17.7951</v>
+        <v>20</v>
       </c>
       <c r="G91" t="n">
-        <v>1777.2</v>
+        <v>1768.633333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="C92" t="n">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="D92" t="n">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="E92" t="n">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="F92" t="n">
-        <v>268.5931</v>
+        <v>17.7951</v>
       </c>
       <c r="G92" t="n">
-        <v>1770.4</v>
+        <v>1768.583333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1766</v>
+        <v>1752</v>
       </c>
       <c r="C93" t="n">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="D93" t="n">
-        <v>1766</v>
+        <v>1752</v>
       </c>
       <c r="E93" t="n">
-        <v>1732</v>
+        <v>1752</v>
       </c>
       <c r="F93" t="n">
-        <v>23.9703</v>
+        <v>268.5931</v>
       </c>
       <c r="G93" t="n">
-        <v>1758.6</v>
+        <v>1768.566666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1757</v>
+        <v>1766</v>
       </c>
       <c r="C94" t="n">
-        <v>1723</v>
+        <v>1732</v>
       </c>
       <c r="D94" t="n">
-        <v>1757</v>
+        <v>1766</v>
       </c>
       <c r="E94" t="n">
-        <v>1723</v>
+        <v>1732</v>
       </c>
       <c r="F94" t="n">
-        <v>56.2379</v>
+        <v>23.9703</v>
       </c>
       <c r="G94" t="n">
-        <v>1747.2</v>
+        <v>1768.233333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>1757</v>
+      </c>
+      <c r="C95" t="n">
         <v>1723</v>
       </c>
-      <c r="C95" t="n">
-        <v>1722</v>
-      </c>
       <c r="D95" t="n">
+        <v>1757</v>
+      </c>
+      <c r="E95" t="n">
         <v>1723</v>
       </c>
-      <c r="E95" t="n">
-        <v>1722</v>
-      </c>
       <c r="F95" t="n">
-        <v>325.7534</v>
+        <v>56.2379</v>
       </c>
       <c r="G95" t="n">
-        <v>1735.8</v>
+        <v>1767.75</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>1723</v>
+      </c>
+      <c r="C96" t="n">
         <v>1722</v>
       </c>
-      <c r="C96" t="n">
-        <v>1734</v>
-      </c>
       <c r="D96" t="n">
-        <v>1734</v>
+        <v>1723</v>
       </c>
       <c r="E96" t="n">
-        <v>1700</v>
+        <v>1722</v>
       </c>
       <c r="F96" t="n">
-        <v>716.7692</v>
+        <v>325.7534</v>
       </c>
       <c r="G96" t="n">
-        <v>1732.6</v>
+        <v>1767.25</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1703</v>
+        <v>1722</v>
       </c>
       <c r="C97" t="n">
-        <v>1703</v>
+        <v>1734</v>
       </c>
       <c r="D97" t="n">
-        <v>1703</v>
+        <v>1734</v>
       </c>
       <c r="E97" t="n">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="F97" t="n">
-        <v>226.85</v>
+        <v>716.7692</v>
       </c>
       <c r="G97" t="n">
-        <v>1722.8</v>
+        <v>1767.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1715</v>
+        <v>1703</v>
       </c>
       <c r="C98" t="n">
-        <v>1715</v>
+        <v>1703</v>
       </c>
       <c r="D98" t="n">
-        <v>1715</v>
+        <v>1703</v>
       </c>
       <c r="E98" t="n">
-        <v>1715</v>
+        <v>1703</v>
       </c>
       <c r="F98" t="n">
-        <v>0.118</v>
+        <v>226.85</v>
       </c>
       <c r="G98" t="n">
-        <v>1719.4</v>
+        <v>1766.566666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="C99" t="n">
-        <v>1703</v>
+        <v>1715</v>
       </c>
       <c r="D99" t="n">
-        <v>1705</v>
+        <v>1715</v>
       </c>
       <c r="E99" t="n">
-        <v>1703</v>
+        <v>1715</v>
       </c>
       <c r="F99" t="n">
-        <v>268.3366</v>
+        <v>0.118</v>
       </c>
       <c r="G99" t="n">
-        <v>1715.4</v>
+        <v>1765.933333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1729</v>
+        <v>1705</v>
       </c>
       <c r="C100" t="n">
-        <v>1729</v>
+        <v>1703</v>
       </c>
       <c r="D100" t="n">
-        <v>1729</v>
+        <v>1705</v>
       </c>
       <c r="E100" t="n">
-        <v>1729</v>
+        <v>1703</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1</v>
+        <v>268.3366</v>
       </c>
       <c r="G100" t="n">
-        <v>1716.8</v>
+        <v>1765.233333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1703</v>
+        <v>1729</v>
       </c>
       <c r="C101" t="n">
-        <v>1703</v>
+        <v>1729</v>
       </c>
       <c r="D101" t="n">
-        <v>1703</v>
+        <v>1729</v>
       </c>
       <c r="E101" t="n">
-        <v>1703</v>
+        <v>1729</v>
       </c>
       <c r="F101" t="n">
-        <v>43.7</v>
+        <v>0.1</v>
       </c>
       <c r="G101" t="n">
-        <v>1710.6</v>
+        <v>1765.266666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1717</v>
+        <v>1703</v>
       </c>
       <c r="C102" t="n">
-        <v>1712</v>
+        <v>1703</v>
       </c>
       <c r="D102" t="n">
-        <v>1717</v>
+        <v>1703</v>
       </c>
       <c r="E102" t="n">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="F102" t="n">
-        <v>545.88</v>
+        <v>43.7</v>
       </c>
       <c r="G102" t="n">
-        <v>1712.4</v>
+        <v>1764.833333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1701</v>
+        <v>1717</v>
       </c>
       <c r="C103" t="n">
-        <v>1701</v>
+        <v>1712</v>
       </c>
       <c r="D103" t="n">
-        <v>1712</v>
+        <v>1717</v>
       </c>
       <c r="E103" t="n">
         <v>1701</v>
       </c>
       <c r="F103" t="n">
-        <v>606.0074</v>
+        <v>545.88</v>
       </c>
       <c r="G103" t="n">
-        <v>1709.6</v>
+        <v>1763.733333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="C104" t="n">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="D104" t="n">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="E104" t="n">
         <v>1701</v>
       </c>
       <c r="F104" t="n">
-        <v>1117.9699</v>
+        <v>606.0074</v>
       </c>
       <c r="G104" t="n">
-        <v>1710.4</v>
+        <v>1762.833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>1709</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1707</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1709</v>
+      </c>
+      <c r="E105" t="n">
         <v>1701</v>
       </c>
-      <c r="C105" t="n">
-        <v>1704</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1705</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1700</v>
-      </c>
       <c r="F105" t="n">
-        <v>844.638</v>
+        <v>1117.9699</v>
       </c>
       <c r="G105" t="n">
-        <v>1705.4</v>
+        <v>1762.15</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C106" t="n">
-        <v>1724</v>
+        <v>1704</v>
       </c>
       <c r="D106" t="n">
-        <v>1724</v>
+        <v>1705</v>
       </c>
       <c r="E106" t="n">
         <v>1700</v>
       </c>
       <c r="F106" t="n">
-        <v>109.5178</v>
+        <v>844.638</v>
       </c>
       <c r="G106" t="n">
-        <v>1709.6</v>
+        <v>1761.366666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4111,19 @@
         <v>1700</v>
       </c>
       <c r="C107" t="n">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="D107" t="n">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="E107" t="n">
         <v>1700</v>
       </c>
       <c r="F107" t="n">
-        <v>357.2476</v>
+        <v>109.5178</v>
       </c>
       <c r="G107" t="n">
-        <v>1711.2</v>
+        <v>1760.483333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C108" t="n">
         <v>1720</v>
       </c>
       <c r="D108" t="n">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="E108" t="n">
         <v>1700</v>
       </c>
       <c r="F108" t="n">
-        <v>573.9686</v>
+        <v>357.2476</v>
       </c>
       <c r="G108" t="n">
-        <v>1715</v>
+        <v>1759.766666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C109" t="n">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="D109" t="n">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="E109" t="n">
         <v>1700</v>
       </c>
       <c r="F109" t="n">
-        <v>617.9861</v>
+        <v>573.9686</v>
       </c>
       <c r="G109" t="n">
-        <v>1717</v>
+        <v>1759.033333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>1700</v>
       </c>
       <c r="F110" t="n">
-        <v>40.8</v>
+        <v>617.9861</v>
       </c>
       <c r="G110" t="n">
-        <v>1719.6</v>
+        <v>1758.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4251,19 +4251,19 @@
         <v>1700</v>
       </c>
       <c r="C111" t="n">
-        <v>1708</v>
+        <v>1717</v>
       </c>
       <c r="D111" t="n">
-        <v>1708</v>
+        <v>1717</v>
       </c>
       <c r="E111" t="n">
         <v>1700</v>
       </c>
       <c r="F111" t="n">
-        <v>617.9084</v>
+        <v>40.8</v>
       </c>
       <c r="G111" t="n">
-        <v>1716.4</v>
+        <v>1757.533333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4286,19 +4286,19 @@
         <v>1700</v>
       </c>
       <c r="C112" t="n">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="D112" t="n">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="E112" t="n">
         <v>1700</v>
       </c>
       <c r="F112" t="n">
-        <v>87.5407</v>
+        <v>617.9084</v>
       </c>
       <c r="G112" t="n">
-        <v>1713.6</v>
+        <v>1756.35</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,32 +4318,38 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1715</v>
+        <v>1700</v>
       </c>
       <c r="C113" t="n">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="D113" t="n">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="E113" t="n">
-        <v>1715</v>
+        <v>1700</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1</v>
+        <v>87.5407</v>
       </c>
       <c r="G113" t="n">
-        <v>1712.6</v>
+        <v>1755.55</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1708</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,32 +4359,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1701</v>
+        <v>1715</v>
       </c>
       <c r="C114" t="n">
-        <v>1700</v>
+        <v>1715</v>
       </c>
       <c r="D114" t="n">
-        <v>1701</v>
+        <v>1715</v>
       </c>
       <c r="E114" t="n">
-        <v>1700</v>
+        <v>1715</v>
       </c>
       <c r="F114" t="n">
-        <v>2549.4176</v>
+        <v>0.1</v>
       </c>
       <c r="G114" t="n">
-        <v>1709.2</v>
+        <v>1755.016666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1706</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4391,29 +4403,35 @@
         <v>1701</v>
       </c>
       <c r="C115" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D115" t="n">
         <v>1701</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1702</v>
       </c>
       <c r="E115" t="n">
         <v>1700</v>
       </c>
       <c r="F115" t="n">
-        <v>1189.6241</v>
+        <v>2549.4176</v>
       </c>
       <c r="G115" t="n">
-        <v>1706</v>
+        <v>1754.05</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1715</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4423,32 +4441,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="C116" t="n">
+        <v>1701</v>
+      </c>
+      <c r="D116" t="n">
         <v>1702</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1703</v>
       </c>
       <c r="E116" t="n">
         <v>1700</v>
       </c>
       <c r="F116" t="n">
-        <v>324.9299</v>
+        <v>1189.6241</v>
       </c>
       <c r="G116" t="n">
-        <v>1704.8</v>
+        <v>1752.75</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1700</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4461,19 +4485,19 @@
         <v>1700</v>
       </c>
       <c r="C117" t="n">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="D117" t="n">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="E117" t="n">
         <v>1700</v>
       </c>
       <c r="F117" t="n">
-        <v>3023.7526</v>
+        <v>324.9299</v>
       </c>
       <c r="G117" t="n">
-        <v>1703.6</v>
+        <v>1751.466666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,7 +4507,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,32 +4521,38 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="C118" t="n">
-        <v>1685</v>
+        <v>1700</v>
       </c>
       <c r="D118" t="n">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="E118" t="n">
-        <v>1685</v>
+        <v>1700</v>
       </c>
       <c r="F118" t="n">
-        <v>5.9415</v>
+        <v>3023.7526</v>
       </c>
       <c r="G118" t="n">
-        <v>1697.6</v>
+        <v>1750.133333333333</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1702</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,32 +4562,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>1690</v>
+      </c>
+      <c r="C119" t="n">
         <v>1685</v>
       </c>
-      <c r="C119" t="n">
-        <v>1680</v>
-      </c>
       <c r="D119" t="n">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="E119" t="n">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="F119" t="n">
-        <v>47.0124</v>
+        <v>5.9415</v>
       </c>
       <c r="G119" t="n">
-        <v>1693.6</v>
+        <v>1748.333333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1700</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,22 +4603,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>1685</v>
+      </c>
+      <c r="C120" t="n">
         <v>1680</v>
       </c>
-      <c r="C120" t="n">
-        <v>1675</v>
-      </c>
       <c r="D120" t="n">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="E120" t="n">
-        <v>1675</v>
+        <v>1680</v>
       </c>
       <c r="F120" t="n">
-        <v>10.2</v>
+        <v>47.0124</v>
       </c>
       <c r="G120" t="n">
-        <v>1688.4</v>
+        <v>1746.816666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4588,7 +4628,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4598,32 +4642,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C121" t="n">
         <v>1675</v>
       </c>
-      <c r="C121" t="n">
-        <v>1670</v>
-      </c>
       <c r="D121" t="n">
+        <v>1689</v>
+      </c>
+      <c r="E121" t="n">
         <v>1675</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1670</v>
       </c>
       <c r="F121" t="n">
         <v>10.2</v>
       </c>
       <c r="G121" t="n">
-        <v>1682</v>
+        <v>1744.916666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1680</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4633,32 +4683,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>1675</v>
+      </c>
+      <c r="C122" t="n">
         <v>1670</v>
       </c>
-      <c r="C122" t="n">
-        <v>1652</v>
-      </c>
       <c r="D122" t="n">
+        <v>1675</v>
+      </c>
+      <c r="E122" t="n">
         <v>1670</v>
       </c>
-      <c r="E122" t="n">
-        <v>1652</v>
-      </c>
       <c r="F122" t="n">
-        <v>1652.4204</v>
+        <v>10.2</v>
       </c>
       <c r="G122" t="n">
-        <v>1672.4</v>
+        <v>1744.033333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1675</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4668,22 +4724,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="C123" t="n">
-        <v>1679</v>
+        <v>1652</v>
       </c>
       <c r="D123" t="n">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="E123" t="n">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="F123" t="n">
-        <v>204.2556</v>
+        <v>1652.4204</v>
       </c>
       <c r="G123" t="n">
-        <v>1671.2</v>
+        <v>1741.766666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4693,7 +4749,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +4763,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1721</v>
+        <v>1678</v>
       </c>
       <c r="C124" t="n">
-        <v>1661</v>
+        <v>1679</v>
       </c>
       <c r="D124" t="n">
-        <v>1721</v>
+        <v>1679</v>
       </c>
       <c r="E124" t="n">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="F124" t="n">
-        <v>161.5895</v>
+        <v>204.2556</v>
       </c>
       <c r="G124" t="n">
-        <v>1667.4</v>
+        <v>1739.933333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4728,7 +4788,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +4802,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1683</v>
+        <v>1721</v>
       </c>
       <c r="C125" t="n">
         <v>1661</v>
       </c>
       <c r="D125" t="n">
-        <v>1683</v>
+        <v>1721</v>
       </c>
       <c r="E125" t="n">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="F125" t="n">
-        <v>90.70999999999999</v>
+        <v>161.5895</v>
       </c>
       <c r="G125" t="n">
-        <v>1664.6</v>
+        <v>1737.783333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4763,7 +4827,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4773,22 +4841,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="C126" t="n">
-        <v>1687</v>
+        <v>1661</v>
       </c>
       <c r="D126" t="n">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="E126" t="n">
-        <v>1687</v>
+        <v>1661</v>
       </c>
       <c r="F126" t="n">
-        <v>37.44</v>
+        <v>90.70999999999999</v>
       </c>
       <c r="G126" t="n">
-        <v>1668</v>
+        <v>1736</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4798,7 +4866,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4811,19 +4883,19 @@
         <v>1687</v>
       </c>
       <c r="C127" t="n">
-        <v>1670</v>
+        <v>1687</v>
       </c>
       <c r="D127" t="n">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="E127" t="n">
-        <v>1666</v>
+        <v>1687</v>
       </c>
       <c r="F127" t="n">
-        <v>91.65000000000001</v>
+        <v>37.44</v>
       </c>
       <c r="G127" t="n">
-        <v>1671.6</v>
+        <v>1734.366666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4833,7 +4905,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4843,22 +4919,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1714</v>
+        <v>1687</v>
       </c>
       <c r="C128" t="n">
-        <v>1714</v>
+        <v>1670</v>
       </c>
       <c r="D128" t="n">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="E128" t="n">
-        <v>1714</v>
+        <v>1666</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>1678.6</v>
+        <v>1732.383333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4868,7 +4944,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4878,36 +4958,36 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1676</v>
+        <v>1714</v>
       </c>
       <c r="C129" t="n">
-        <v>1676</v>
+        <v>1714</v>
       </c>
       <c r="D129" t="n">
-        <v>1676</v>
+        <v>1714</v>
       </c>
       <c r="E129" t="n">
-        <v>1676</v>
+        <v>1714</v>
       </c>
       <c r="F129" t="n">
         <v>0.1</v>
       </c>
       <c r="G129" t="n">
-        <v>1681.6</v>
+        <v>1731.116666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1714</v>
-      </c>
-      <c r="K129" t="n">
-        <v>1714</v>
-      </c>
-      <c r="L129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4917,38 +4997,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1692</v>
+        <v>1676</v>
       </c>
       <c r="C130" t="n">
-        <v>1684</v>
+        <v>1676</v>
       </c>
       <c r="D130" t="n">
-        <v>1692</v>
+        <v>1676</v>
       </c>
       <c r="E130" t="n">
-        <v>1684</v>
+        <v>1676</v>
       </c>
       <c r="F130" t="n">
-        <v>66.0065</v>
+        <v>0.1</v>
       </c>
       <c r="G130" t="n">
-        <v>1686.2</v>
+        <v>1729.166666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1676</v>
-      </c>
-      <c r="K130" t="n">
-        <v>1714</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -4960,35 +5036,31 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="C131" t="n">
         <v>1684</v>
       </c>
       <c r="D131" t="n">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="E131" t="n">
         <v>1684</v>
       </c>
       <c r="F131" t="n">
-        <v>44.3725</v>
+        <v>66.0065</v>
       </c>
       <c r="G131" t="n">
-        <v>1685.6</v>
+        <v>1727</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1684</v>
-      </c>
-      <c r="K131" t="n">
-        <v>1714</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5003,35 +5075,31 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1711</v>
+        <v>1687</v>
       </c>
       <c r="C132" t="n">
-        <v>1711</v>
+        <v>1684</v>
       </c>
       <c r="D132" t="n">
-        <v>1711</v>
+        <v>1687</v>
       </c>
       <c r="E132" t="n">
-        <v>1711</v>
+        <v>1684</v>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>44.3725</v>
       </c>
       <c r="G132" t="n">
-        <v>1693.8</v>
+        <v>1724.866666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1684</v>
-      </c>
-      <c r="K132" t="n">
-        <v>1714</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5046,35 +5114,31 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C133" t="n">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D133" t="n">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="E133" t="n">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="F133" t="n">
-        <v>17.8869</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>1693.6</v>
+        <v>1723.55</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>1711</v>
-      </c>
-      <c r="K133" t="n">
-        <v>1714</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5089,35 +5153,31 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1697</v>
+        <v>1713</v>
       </c>
       <c r="C134" t="n">
-        <v>1697</v>
+        <v>1713</v>
       </c>
       <c r="D134" t="n">
-        <v>1697</v>
+        <v>1713</v>
       </c>
       <c r="E134" t="n">
-        <v>1697</v>
+        <v>1713</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1</v>
+        <v>17.8869</v>
       </c>
       <c r="G134" t="n">
-        <v>1697.8</v>
+        <v>1722.266666666667</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>1713</v>
-      </c>
-      <c r="K134" t="n">
-        <v>1714</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5132,22 +5192,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1708</v>
+        <v>1697</v>
       </c>
       <c r="C135" t="n">
-        <v>1711</v>
+        <v>1697</v>
       </c>
       <c r="D135" t="n">
-        <v>1711</v>
+        <v>1697</v>
       </c>
       <c r="E135" t="n">
-        <v>1708</v>
+        <v>1697</v>
       </c>
       <c r="F135" t="n">
-        <v>355</v>
+        <v>0.1</v>
       </c>
       <c r="G135" t="n">
-        <v>1703.2</v>
+        <v>1720.733333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5156,9 +5216,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5173,22 +5231,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="C136" t="n">
-        <v>1700</v>
+        <v>1711</v>
       </c>
       <c r="D136" t="n">
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="E136" t="n">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="F136" t="n">
-        <v>2400.1</v>
+        <v>355</v>
       </c>
       <c r="G136" t="n">
-        <v>1706.4</v>
+        <v>1719.433333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5197,9 +5255,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5214,22 +5270,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="C137" t="n">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="D137" t="n">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="E137" t="n">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="F137" t="n">
-        <v>28.25</v>
+        <v>2400.1</v>
       </c>
       <c r="G137" t="n">
-        <v>1708.4</v>
+        <v>1718.45</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5238,9 +5294,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5267,10 +5321,10 @@
         <v>1721</v>
       </c>
       <c r="F138" t="n">
-        <v>214.2306</v>
+        <v>28.25</v>
       </c>
       <c r="G138" t="n">
-        <v>1710</v>
+        <v>1717.933333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5279,9 +5333,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5296,22 +5348,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="C139" t="n">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="D139" t="n">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="E139" t="n">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="F139" t="n">
-        <v>9.4383</v>
+        <v>214.2306</v>
       </c>
       <c r="G139" t="n">
-        <v>1716.6</v>
+        <v>1717.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5320,9 +5372,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5337,22 +5387,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1742</v>
+        <v>1730</v>
       </c>
       <c r="C140" t="n">
-        <v>1742</v>
+        <v>1730</v>
       </c>
       <c r="D140" t="n">
-        <v>1742</v>
+        <v>1730</v>
       </c>
       <c r="E140" t="n">
-        <v>1742</v>
+        <v>1730</v>
       </c>
       <c r="F140" t="n">
-        <v>54.3339</v>
+        <v>9.4383</v>
       </c>
       <c r="G140" t="n">
-        <v>1722.8</v>
+        <v>1717.266666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5361,9 +5411,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5378,22 +5426,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C141" t="n">
-        <v>1750</v>
+        <v>1742</v>
       </c>
       <c r="D141" t="n">
-        <v>1750</v>
+        <v>1742</v>
       </c>
       <c r="E141" t="n">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="F141" t="n">
-        <v>590.9261</v>
+        <v>54.3339</v>
       </c>
       <c r="G141" t="n">
-        <v>1732.8</v>
+        <v>1716.766666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5402,9 +5450,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5419,22 +5465,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="C142" t="n">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D142" t="n">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E142" t="n">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="F142" t="n">
-        <v>679.0454</v>
+        <v>590.9261</v>
       </c>
       <c r="G142" t="n">
-        <v>1738.8</v>
+        <v>1716.866666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5443,9 +5489,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5463,19 +5507,19 @@
         <v>1751</v>
       </c>
       <c r="C143" t="n">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="D143" t="n">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="E143" t="n">
         <v>1751</v>
       </c>
       <c r="F143" t="n">
-        <v>2167.9546</v>
+        <v>679.0454</v>
       </c>
       <c r="G143" t="n">
-        <v>1748</v>
+        <v>1716.55</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5484,9 +5528,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5501,22 +5543,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1745</v>
+        <v>1751</v>
       </c>
       <c r="C144" t="n">
-        <v>1744</v>
+        <v>1767</v>
       </c>
       <c r="D144" t="n">
-        <v>1745</v>
+        <v>1767</v>
       </c>
       <c r="E144" t="n">
-        <v>1744</v>
+        <v>1751</v>
       </c>
       <c r="F144" t="n">
-        <v>53.1129</v>
+        <v>2167.9546</v>
       </c>
       <c r="G144" t="n">
-        <v>1750.8</v>
+        <v>1716.483333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5525,9 +5567,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,22 +5582,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1764</v>
+        <v>1745</v>
       </c>
       <c r="C145" t="n">
-        <v>1764</v>
+        <v>1744</v>
       </c>
       <c r="D145" t="n">
-        <v>1764</v>
+        <v>1745</v>
       </c>
       <c r="E145" t="n">
-        <v>1764</v>
+        <v>1744</v>
       </c>
       <c r="F145" t="n">
-        <v>0.11</v>
+        <v>53.1129</v>
       </c>
       <c r="G145" t="n">
-        <v>1755.2</v>
+        <v>1715.716666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5566,9 +5606,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5583,22 +5621,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1742</v>
+        <v>1764</v>
       </c>
       <c r="C146" t="n">
-        <v>1742</v>
+        <v>1764</v>
       </c>
       <c r="D146" t="n">
-        <v>1742</v>
+        <v>1764</v>
       </c>
       <c r="E146" t="n">
-        <v>1742</v>
+        <v>1764</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G146" t="n">
-        <v>1753.6</v>
+        <v>1715.333333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5607,9 +5645,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5624,22 +5660,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1733</v>
+        <v>1742</v>
       </c>
       <c r="C147" t="n">
-        <v>1733</v>
+        <v>1742</v>
       </c>
       <c r="D147" t="n">
-        <v>1733</v>
+        <v>1742</v>
       </c>
       <c r="E147" t="n">
-        <v>1733</v>
+        <v>1742</v>
       </c>
       <c r="F147" t="n">
         <v>0.1</v>
       </c>
       <c r="G147" t="n">
-        <v>1750</v>
+        <v>1714.966666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5648,9 +5684,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5665,22 +5699,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="C148" t="n">
-        <v>1768</v>
+        <v>1733</v>
       </c>
       <c r="D148" t="n">
-        <v>1768</v>
+        <v>1733</v>
       </c>
       <c r="E148" t="n">
-        <v>1740</v>
+        <v>1733</v>
       </c>
       <c r="F148" t="n">
-        <v>1976.394</v>
+        <v>0.1</v>
       </c>
       <c r="G148" t="n">
-        <v>1750.2</v>
+        <v>1714.083333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5689,9 +5723,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5706,22 +5738,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1758</v>
+        <v>1741</v>
       </c>
       <c r="C149" t="n">
-        <v>1758</v>
+        <v>1768</v>
       </c>
       <c r="D149" t="n">
-        <v>1758</v>
+        <v>1768</v>
       </c>
       <c r="E149" t="n">
-        <v>1758</v>
+        <v>1740</v>
       </c>
       <c r="F149" t="n">
-        <v>18.1784</v>
+        <v>1976.394</v>
       </c>
       <c r="G149" t="n">
-        <v>1753</v>
+        <v>1713.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5730,9 +5762,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5747,22 +5777,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1749</v>
+        <v>1758</v>
       </c>
       <c r="C150" t="n">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="D150" t="n">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="E150" t="n">
-        <v>1749</v>
+        <v>1758</v>
       </c>
       <c r="F150" t="n">
-        <v>431.011</v>
+        <v>18.1784</v>
       </c>
       <c r="G150" t="n">
-        <v>1753.4</v>
+        <v>1713.333333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5771,9 +5801,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5788,7 +5816,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1766</v>
+        <v>1749</v>
       </c>
       <c r="C151" t="n">
         <v>1766</v>
@@ -5797,13 +5825,13 @@
         <v>1766</v>
       </c>
       <c r="E151" t="n">
-        <v>1766</v>
+        <v>1749</v>
       </c>
       <c r="F151" t="n">
-        <v>226.4431</v>
+        <v>431.011</v>
       </c>
       <c r="G151" t="n">
-        <v>1758.2</v>
+        <v>1713.116666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5812,9 +5840,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5829,22 +5855,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C152" t="n">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D152" t="n">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E152" t="n">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1284</v>
+        <v>226.4431</v>
       </c>
       <c r="G152" t="n">
-        <v>1765</v>
+        <v>1713.383333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5853,9 +5879,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5873,19 +5897,19 @@
         <v>1767</v>
       </c>
       <c r="C153" t="n">
-        <v>1751</v>
+        <v>1767</v>
       </c>
       <c r="D153" t="n">
         <v>1767</v>
       </c>
       <c r="E153" t="n">
-        <v>1751</v>
+        <v>1767</v>
       </c>
       <c r="F153" t="n">
-        <v>284.9894</v>
+        <v>0.1284</v>
       </c>
       <c r="G153" t="n">
-        <v>1761.6</v>
+        <v>1713.633333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5894,9 +5918,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5911,22 +5933,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1754</v>
+        <v>1767</v>
       </c>
       <c r="C154" t="n">
-        <v>1769</v>
+        <v>1751</v>
       </c>
       <c r="D154" t="n">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="E154" t="n">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="F154" t="n">
-        <v>211.2599</v>
+        <v>284.9894</v>
       </c>
       <c r="G154" t="n">
-        <v>1763.8</v>
+        <v>1713.95</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5935,9 +5957,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5952,22 +5972,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1780</v>
+        <v>1754</v>
       </c>
       <c r="C155" t="n">
-        <v>1779</v>
+        <v>1769</v>
       </c>
       <c r="D155" t="n">
-        <v>1782</v>
+        <v>1769</v>
       </c>
       <c r="E155" t="n">
-        <v>1779</v>
+        <v>1754</v>
       </c>
       <c r="F155" t="n">
-        <v>865.66936223</v>
+        <v>211.2599</v>
       </c>
       <c r="G155" t="n">
-        <v>1766.4</v>
+        <v>1714.716666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5976,9 +5996,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5993,22 +6011,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C156" t="n">
         <v>1779</v>
       </c>
       <c r="D156" t="n">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="E156" t="n">
         <v>1779</v>
       </c>
       <c r="F156" t="n">
-        <v>33.6124</v>
+        <v>865.66936223</v>
       </c>
       <c r="G156" t="n">
-        <v>1769</v>
+        <v>1715.666666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6017,9 +6035,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,10 +6062,10 @@
         <v>1779</v>
       </c>
       <c r="F157" t="n">
-        <v>15.0347</v>
+        <v>33.6124</v>
       </c>
       <c r="G157" t="n">
-        <v>1771.4</v>
+        <v>1716.416666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6058,9 +6074,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6078,19 +6092,19 @@
         <v>1779</v>
       </c>
       <c r="C158" t="n">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="D158" t="n">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="E158" t="n">
         <v>1779</v>
       </c>
       <c r="F158" t="n">
-        <v>357.3047</v>
+        <v>15.0347</v>
       </c>
       <c r="G158" t="n">
-        <v>1777.6</v>
+        <v>1717.683333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6099,9 +6113,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6119,19 +6131,19 @@
         <v>1779</v>
       </c>
       <c r="C159" t="n">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="D159" t="n">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="E159" t="n">
         <v>1779</v>
       </c>
       <c r="F159" t="n">
-        <v>159.9593</v>
+        <v>357.3047</v>
       </c>
       <c r="G159" t="n">
-        <v>1779.6</v>
+        <v>1718.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6140,9 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6157,22 +6167,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C160" t="n">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D160" t="n">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="E160" t="n">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="F160" t="n">
-        <v>63.2134</v>
+        <v>159.9593</v>
       </c>
       <c r="G160" t="n">
-        <v>1779.8</v>
+        <v>1720.066666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6181,9 +6191,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6198,22 +6206,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="C161" t="n">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="D161" t="n">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="E161" t="n">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F161" t="n">
-        <v>270</v>
+        <v>63.2134</v>
       </c>
       <c r="G161" t="n">
-        <v>1780.4</v>
+        <v>1720.916666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6222,9 +6230,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6239,22 +6245,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="C162" t="n">
-        <v>1777</v>
+        <v>1782</v>
       </c>
       <c r="D162" t="n">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E162" t="n">
-        <v>1745</v>
+        <v>1782</v>
       </c>
       <c r="F162" t="n">
-        <v>520.5526</v>
+        <v>270</v>
       </c>
       <c r="G162" t="n">
-        <v>1780</v>
+        <v>1722.233333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6263,9 +6269,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6280,22 +6284,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1748</v>
+        <v>1778</v>
       </c>
       <c r="C163" t="n">
-        <v>1748</v>
+        <v>1777</v>
       </c>
       <c r="D163" t="n">
-        <v>1748</v>
+        <v>1778</v>
       </c>
       <c r="E163" t="n">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="F163" t="n">
-        <v>37.82</v>
+        <v>520.5526</v>
       </c>
       <c r="G163" t="n">
-        <v>1773.2</v>
+        <v>1723.316666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6304,9 +6308,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6321,22 +6323,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="C164" t="n">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="D164" t="n">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="E164" t="n">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="F164" t="n">
-        <v>17.319</v>
+        <v>37.82</v>
       </c>
       <c r="G164" t="n">
-        <v>1768</v>
+        <v>1724.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6345,9 +6347,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6362,22 +6362,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1743</v>
+        <v>1753</v>
       </c>
       <c r="C165" t="n">
-        <v>1738</v>
+        <v>1753</v>
       </c>
       <c r="D165" t="n">
-        <v>1743</v>
+        <v>1753</v>
       </c>
       <c r="E165" t="n">
-        <v>1738</v>
+        <v>1753</v>
       </c>
       <c r="F165" t="n">
-        <v>226.6715</v>
+        <v>17.319</v>
       </c>
       <c r="G165" t="n">
-        <v>1759.6</v>
+        <v>1724.866666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6386,9 +6386,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6403,22 +6401,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1755</v>
+        <v>1743</v>
       </c>
       <c r="C166" t="n">
-        <v>1761</v>
+        <v>1738</v>
       </c>
       <c r="D166" t="n">
-        <v>1761</v>
+        <v>1743</v>
       </c>
       <c r="E166" t="n">
-        <v>1755</v>
+        <v>1738</v>
       </c>
       <c r="F166" t="n">
-        <v>140.7717</v>
+        <v>226.6715</v>
       </c>
       <c r="G166" t="n">
-        <v>1755.4</v>
+        <v>1725.433333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6427,9 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6444,22 +6440,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1750</v>
+        <v>1755</v>
       </c>
       <c r="C167" t="n">
-        <v>1750</v>
+        <v>1761</v>
       </c>
       <c r="D167" t="n">
-        <v>1750</v>
+        <v>1761</v>
       </c>
       <c r="E167" t="n">
-        <v>1750</v>
+        <v>1755</v>
       </c>
       <c r="F167" t="n">
-        <v>27.5149</v>
+        <v>140.7717</v>
       </c>
       <c r="G167" t="n">
-        <v>1750</v>
+        <v>1726.05</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6468,9 +6464,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6485,22 +6479,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C168" t="n">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D168" t="n">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="E168" t="n">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F168" t="n">
-        <v>0.118</v>
+        <v>27.5149</v>
       </c>
       <c r="G168" t="n">
-        <v>1750.6</v>
+        <v>1726.55</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6509,9 +6503,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6526,22 +6518,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="C169" t="n">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="D169" t="n">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="E169" t="n">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="F169" t="n">
-        <v>22.8694</v>
+        <v>0.118</v>
       </c>
       <c r="G169" t="n">
-        <v>1749.8</v>
+        <v>1727.066666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6550,9 +6542,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6567,22 +6557,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1732</v>
+        <v>1749</v>
       </c>
       <c r="C170" t="n">
-        <v>1732</v>
+        <v>1749</v>
       </c>
       <c r="D170" t="n">
-        <v>1732</v>
+        <v>1749</v>
       </c>
       <c r="E170" t="n">
-        <v>1732</v>
+        <v>1749</v>
       </c>
       <c r="F170" t="n">
-        <v>14.4804</v>
+        <v>22.8694</v>
       </c>
       <c r="G170" t="n">
-        <v>1748.6</v>
+        <v>1727.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6591,9 +6581,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6608,22 +6596,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1747</v>
+        <v>1732</v>
       </c>
       <c r="C171" t="n">
-        <v>1749</v>
+        <v>1732</v>
       </c>
       <c r="D171" t="n">
-        <v>1749</v>
+        <v>1732</v>
       </c>
       <c r="E171" t="n">
-        <v>1747</v>
+        <v>1732</v>
       </c>
       <c r="F171" t="n">
-        <v>65.11799999999999</v>
+        <v>14.4804</v>
       </c>
       <c r="G171" t="n">
-        <v>1746.2</v>
+        <v>1727.85</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6632,9 +6620,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6649,22 +6635,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1715</v>
+        <v>1747</v>
       </c>
       <c r="C172" t="n">
-        <v>1715</v>
+        <v>1749</v>
       </c>
       <c r="D172" t="n">
-        <v>1715</v>
+        <v>1749</v>
       </c>
       <c r="E172" t="n">
-        <v>1715</v>
+        <v>1747</v>
       </c>
       <c r="F172" t="n">
-        <v>0.1</v>
+        <v>65.11799999999999</v>
       </c>
       <c r="G172" t="n">
-        <v>1739.2</v>
+        <v>1728.533333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6673,9 +6659,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6690,22 +6674,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1732</v>
+        <v>1715</v>
       </c>
       <c r="C173" t="n">
-        <v>1729</v>
+        <v>1715</v>
       </c>
       <c r="D173" t="n">
-        <v>1732</v>
+        <v>1715</v>
       </c>
       <c r="E173" t="n">
-        <v>1729</v>
+        <v>1715</v>
       </c>
       <c r="F173" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="G173" t="n">
-        <v>1734.8</v>
+        <v>1728.683333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6714,9 +6698,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6731,22 +6713,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C174" t="n">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="D174" t="n">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="E174" t="n">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="F174" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="G174" t="n">
-        <v>1731.6</v>
+        <v>1728.916666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6755,9 +6737,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6772,22 +6752,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C175" t="n">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="D175" t="n">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="E175" t="n">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="F175" t="n">
-        <v>464.9773</v>
+        <v>0.1</v>
       </c>
       <c r="G175" t="n">
-        <v>1730.2</v>
+        <v>1729.466666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6796,9 +6776,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6813,22 +6791,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="C176" t="n">
-        <v>1747</v>
+        <v>1725</v>
       </c>
       <c r="D176" t="n">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="E176" t="n">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="F176" t="n">
-        <v>6686.3522</v>
+        <v>464.9773</v>
       </c>
       <c r="G176" t="n">
-        <v>1729.8</v>
+        <v>1729.866666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6837,9 +6815,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6854,22 +6830,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="C177" t="n">
         <v>1747</v>
       </c>
       <c r="D177" t="n">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="E177" t="n">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="F177" t="n">
-        <v>1521.7094</v>
+        <v>6686.3522</v>
       </c>
       <c r="G177" t="n">
-        <v>1736.2</v>
+        <v>1730.616666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6878,9 +6854,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6907,10 +6881,10 @@
         <v>1747</v>
       </c>
       <c r="F178" t="n">
-        <v>229.1346</v>
+        <v>1521.7094</v>
       </c>
       <c r="G178" t="n">
-        <v>1739.8</v>
+        <v>1731.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6919,9 +6893,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6948,10 +6920,10 @@
         <v>1747</v>
       </c>
       <c r="F179" t="n">
-        <v>69.83150000000001</v>
+        <v>229.1346</v>
       </c>
       <c r="G179" t="n">
-        <v>1742.6</v>
+        <v>1732.433333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6960,9 +6932,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6977,22 +6947,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1741</v>
+        <v>1747</v>
       </c>
       <c r="C180" t="n">
-        <v>1741</v>
+        <v>1747</v>
       </c>
       <c r="D180" t="n">
-        <v>1741</v>
+        <v>1747</v>
       </c>
       <c r="E180" t="n">
-        <v>1741</v>
+        <v>1747</v>
       </c>
       <c r="F180" t="n">
-        <v>16.983</v>
+        <v>69.83150000000001</v>
       </c>
       <c r="G180" t="n">
-        <v>1745.8</v>
+        <v>1733.55</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7001,9 +6971,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7018,22 +6986,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="C181" t="n">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="D181" t="n">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="E181" t="n">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="F181" t="n">
-        <v>316.983</v>
+        <v>16.983</v>
       </c>
       <c r="G181" t="n">
-        <v>1746</v>
+        <v>1734.65</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7042,9 +7010,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7059,22 +7025,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="C182" t="n">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="D182" t="n">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="E182" t="n">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="F182" t="n">
-        <v>0.1</v>
+        <v>316.983</v>
       </c>
       <c r="G182" t="n">
-        <v>1745.4</v>
+        <v>1735.95</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7083,9 +7049,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7100,22 +7064,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="C183" t="n">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="D183" t="n">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="E183" t="n">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="F183" t="n">
-        <v>500</v>
+        <v>0.1</v>
       </c>
       <c r="G183" t="n">
-        <v>1745.6</v>
+        <v>1737.483333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7124,9 +7088,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7141,7 +7103,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C184" t="n">
         <v>1748</v>
@@ -7150,13 +7112,13 @@
         <v>1748</v>
       </c>
       <c r="E184" t="n">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F184" t="n">
-        <v>1993.57</v>
+        <v>500</v>
       </c>
       <c r="G184" t="n">
-        <v>1745.8</v>
+        <v>1738.633333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7165,9 +7127,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7182,22 +7142,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C185" t="n">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D185" t="n">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="E185" t="n">
         <v>1748</v>
       </c>
       <c r="F185" t="n">
-        <v>693.6130000000001</v>
+        <v>1993.57</v>
       </c>
       <c r="G185" t="n">
-        <v>1747.4</v>
+        <v>1740.083333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7206,9 +7166,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7223,22 +7181,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="C186" t="n">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="D186" t="n">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="E186" t="n">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="F186" t="n">
-        <v>0.1</v>
+        <v>693.6130000000001</v>
       </c>
       <c r="G186" t="n">
-        <v>1746.8</v>
+        <v>1741.55</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7247,9 +7205,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7264,22 +7220,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1780</v>
+        <v>1745</v>
       </c>
       <c r="C187" t="n">
-        <v>1780</v>
+        <v>1745</v>
       </c>
       <c r="D187" t="n">
-        <v>1780</v>
+        <v>1745</v>
       </c>
       <c r="E187" t="n">
-        <v>1780</v>
+        <v>1745</v>
       </c>
       <c r="F187" t="n">
         <v>0.1</v>
       </c>
       <c r="G187" t="n">
-        <v>1754</v>
+        <v>1742.516666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7288,9 +7244,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7305,22 +7259,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1745</v>
+        <v>1780</v>
       </c>
       <c r="C188" t="n">
-        <v>1745</v>
+        <v>1780</v>
       </c>
       <c r="D188" t="n">
-        <v>1745</v>
+        <v>1780</v>
       </c>
       <c r="E188" t="n">
-        <v>1745</v>
+        <v>1780</v>
       </c>
       <c r="F188" t="n">
-        <v>28.6532</v>
+        <v>0.1</v>
       </c>
       <c r="G188" t="n">
-        <v>1753.4</v>
+        <v>1744.35</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7329,9 +7283,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7358,10 +7310,10 @@
         <v>1745</v>
       </c>
       <c r="F189" t="n">
-        <v>12.5</v>
+        <v>28.6532</v>
       </c>
       <c r="G189" t="n">
-        <v>1752.8</v>
+        <v>1744.866666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7370,9 +7322,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7387,7 +7337,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="C190" t="n">
         <v>1745</v>
@@ -7396,13 +7346,13 @@
         <v>1745</v>
       </c>
       <c r="E190" t="n">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="F190" t="n">
-        <v>53.2738</v>
+        <v>12.5</v>
       </c>
       <c r="G190" t="n">
-        <v>1752</v>
+        <v>1746.016666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7411,9 +7361,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7431,19 +7379,19 @@
         <v>1742</v>
       </c>
       <c r="C191" t="n">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="D191" t="n">
+        <v>1745</v>
+      </c>
+      <c r="E191" t="n">
         <v>1742</v>
       </c>
-      <c r="E191" t="n">
-        <v>1741</v>
-      </c>
       <c r="F191" t="n">
-        <v>846.0661</v>
+        <v>53.2738</v>
       </c>
       <c r="G191" t="n">
-        <v>1751.2</v>
+        <v>1747.033333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7452,9 +7400,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7469,22 +7415,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>1742</v>
+      </c>
+      <c r="C192" t="n">
         <v>1741</v>
       </c>
-      <c r="C192" t="n">
+      <c r="D192" t="n">
         <v>1742</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1769</v>
       </c>
       <c r="E192" t="n">
         <v>1741</v>
       </c>
       <c r="F192" t="n">
-        <v>880.6771</v>
+        <v>846.0661</v>
       </c>
       <c r="G192" t="n">
-        <v>1743.6</v>
+        <v>1747.983333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7493,9 +7439,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7510,22 +7454,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C193" t="n">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="D193" t="n">
-        <v>1744</v>
+        <v>1769</v>
       </c>
       <c r="E193" t="n">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="F193" t="n">
-        <v>50.7399</v>
+        <v>880.6771</v>
       </c>
       <c r="G193" t="n">
-        <v>1743.4</v>
+        <v>1748.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7534,9 +7478,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7551,22 +7493,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C194" t="n">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="D194" t="n">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="E194" t="n">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="F194" t="n">
-        <v>777.6748</v>
+        <v>50.7399</v>
       </c>
       <c r="G194" t="n">
-        <v>1742.6</v>
+        <v>1749.016666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7575,9 +7517,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7592,22 +7532,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="C195" t="n">
         <v>1741</v>
       </c>
       <c r="D195" t="n">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="E195" t="n">
         <v>1741</v>
       </c>
       <c r="F195" t="n">
-        <v>32.4689</v>
+        <v>777.6748</v>
       </c>
       <c r="G195" t="n">
-        <v>1741.8</v>
+        <v>1749.75</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7616,9 +7556,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7633,22 +7571,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="C196" t="n">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="D196" t="n">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="E196" t="n">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="F196" t="n">
-        <v>151.2998</v>
+        <v>32.4689</v>
       </c>
       <c r="G196" t="n">
-        <v>1742.8</v>
+        <v>1750.25</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7657,9 +7595,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7674,22 +7610,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="C197" t="n">
-        <v>1741</v>
+        <v>1746</v>
       </c>
       <c r="D197" t="n">
-        <v>1741</v>
+        <v>1746</v>
       </c>
       <c r="E197" t="n">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="F197" t="n">
-        <v>18.6296</v>
+        <v>151.2998</v>
       </c>
       <c r="G197" t="n">
-        <v>1742.6</v>
+        <v>1751.016666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7698,9 +7634,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7727,10 +7661,10 @@
         <v>1741</v>
       </c>
       <c r="F198" t="n">
-        <v>26.9381</v>
+        <v>18.6296</v>
       </c>
       <c r="G198" t="n">
-        <v>1742</v>
+        <v>1751.35</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7739,9 +7673,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7756,22 +7688,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1719</v>
+        <v>1741</v>
       </c>
       <c r="C199" t="n">
-        <v>1715</v>
+        <v>1741</v>
       </c>
       <c r="D199" t="n">
-        <v>1719</v>
+        <v>1741</v>
       </c>
       <c r="E199" t="n">
-        <v>1715</v>
+        <v>1741</v>
       </c>
       <c r="F199" t="n">
-        <v>17.834</v>
+        <v>26.9381</v>
       </c>
       <c r="G199" t="n">
-        <v>1736.8</v>
+        <v>1751.683333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7780,9 +7712,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7797,22 +7727,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1731</v>
+        <v>1719</v>
       </c>
       <c r="C200" t="n">
-        <v>1730</v>
+        <v>1715</v>
       </c>
       <c r="D200" t="n">
-        <v>1731</v>
+        <v>1719</v>
       </c>
       <c r="E200" t="n">
-        <v>1730</v>
+        <v>1715</v>
       </c>
       <c r="F200" t="n">
-        <v>46.1</v>
+        <v>17.834</v>
       </c>
       <c r="G200" t="n">
-        <v>1734.6</v>
+        <v>1751.433333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7821,9 +7751,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7838,22 +7766,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="C201" t="n">
-        <v>1721</v>
+        <v>1730</v>
       </c>
       <c r="D201" t="n">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="E201" t="n">
-        <v>1721</v>
+        <v>1730</v>
       </c>
       <c r="F201" t="n">
-        <v>0.1</v>
+        <v>46.1</v>
       </c>
       <c r="G201" t="n">
-        <v>1729.6</v>
+        <v>1751.233333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7862,9 +7790,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7879,22 +7805,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="C202" t="n">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="D202" t="n">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="E202" t="n">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="F202" t="n">
         <v>0.1</v>
       </c>
       <c r="G202" t="n">
-        <v>1728</v>
+        <v>1750.75</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7903,9 +7829,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7920,22 +7844,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1721</v>
+        <v>1733</v>
       </c>
       <c r="C203" t="n">
-        <v>1721</v>
+        <v>1733</v>
       </c>
       <c r="D203" t="n">
-        <v>1721</v>
+        <v>1733</v>
       </c>
       <c r="E203" t="n">
-        <v>1721</v>
+        <v>1733</v>
       </c>
       <c r="F203" t="n">
-        <v>24.5656</v>
+        <v>0.1</v>
       </c>
       <c r="G203" t="n">
-        <v>1724</v>
+        <v>1750.45</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7944,9 +7868,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7964,19 +7886,19 @@
         <v>1721</v>
       </c>
       <c r="C204" t="n">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D204" t="n">
-        <v>1732</v>
+        <v>1721</v>
       </c>
       <c r="E204" t="n">
         <v>1721</v>
       </c>
       <c r="F204" t="n">
-        <v>47.8266</v>
+        <v>24.5656</v>
       </c>
       <c r="G204" t="n">
-        <v>1725.4</v>
+        <v>1749.683333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7985,9 +7907,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8005,19 +7925,19 @@
         <v>1721</v>
       </c>
       <c r="C205" t="n">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="D205" t="n">
-        <v>1721</v>
+        <v>1732</v>
       </c>
       <c r="E205" t="n">
         <v>1721</v>
       </c>
       <c r="F205" t="n">
-        <v>0.1</v>
+        <v>47.8266</v>
       </c>
       <c r="G205" t="n">
-        <v>1723.6</v>
+        <v>1749.316666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8026,9 +7946,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8055,10 +7973,10 @@
         <v>1721</v>
       </c>
       <c r="F206" t="n">
-        <v>75.2385</v>
+        <v>0.1</v>
       </c>
       <c r="G206" t="n">
-        <v>1723.6</v>
+        <v>1748.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8067,9 +7985,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8096,10 +8012,10 @@
         <v>1721</v>
       </c>
       <c r="F207" t="n">
-        <v>143.3888</v>
+        <v>75.2385</v>
       </c>
       <c r="G207" t="n">
-        <v>1721.2</v>
+        <v>1748.25</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8108,9 +8024,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8128,19 +8042,19 @@
         <v>1721</v>
       </c>
       <c r="C208" t="n">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="D208" t="n">
         <v>1721</v>
       </c>
       <c r="E208" t="n">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="F208" t="n">
-        <v>335.1085</v>
+        <v>143.3888</v>
       </c>
       <c r="G208" t="n">
-        <v>1721</v>
+        <v>1748.05</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8149,9 +8063,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8166,22 +8078,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C209" t="n">
         <v>1720</v>
       </c>
       <c r="D209" t="n">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="E209" t="n">
         <v>1720</v>
       </c>
       <c r="F209" t="n">
-        <v>498.1493</v>
+        <v>335.1085</v>
       </c>
       <c r="G209" t="n">
-        <v>1720.6</v>
+        <v>1747.25</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8190,9 +8102,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8219,10 +8129,10 @@
         <v>1720</v>
       </c>
       <c r="F210" t="n">
-        <v>47.5914</v>
+        <v>498.1493</v>
       </c>
       <c r="G210" t="n">
-        <v>1720.4</v>
+        <v>1746.616666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8231,9 +8141,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8260,10 +8168,10 @@
         <v>1720</v>
       </c>
       <c r="F211" t="n">
-        <v>33.9</v>
+        <v>47.5914</v>
       </c>
       <c r="G211" t="n">
-        <v>1720.2</v>
+        <v>1745.85</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8272,9 +8180,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8301,10 +8207,10 @@
         <v>1720</v>
       </c>
       <c r="F212" t="n">
-        <v>128.9</v>
+        <v>33.9</v>
       </c>
       <c r="G212" t="n">
-        <v>1720</v>
+        <v>1745.083333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8313,9 +8219,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8342,10 +8246,10 @@
         <v>1720</v>
       </c>
       <c r="F213" t="n">
-        <v>408.3587</v>
+        <v>128.9</v>
       </c>
       <c r="G213" t="n">
-        <v>1720</v>
+        <v>1744.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8354,9 +8258,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8383,10 +8285,10 @@
         <v>1720</v>
       </c>
       <c r="F214" t="n">
-        <v>38.1107</v>
+        <v>408.3587</v>
       </c>
       <c r="G214" t="n">
-        <v>1720</v>
+        <v>1743.783333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8395,9 +8297,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8424,10 +8324,10 @@
         <v>1720</v>
       </c>
       <c r="F215" t="n">
-        <v>661.0821</v>
+        <v>38.1107</v>
       </c>
       <c r="G215" t="n">
-        <v>1720</v>
+        <v>1742.966666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8436,9 +8336,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8465,10 +8363,10 @@
         <v>1720</v>
       </c>
       <c r="F216" t="n">
-        <v>666</v>
+        <v>661.0821</v>
       </c>
       <c r="G216" t="n">
-        <v>1720</v>
+        <v>1741.983333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8477,9 +8375,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8497,19 +8393,19 @@
         <v>1720</v>
       </c>
       <c r="C217" t="n">
-        <v>1714</v>
+        <v>1720</v>
       </c>
       <c r="D217" t="n">
         <v>1720</v>
       </c>
       <c r="E217" t="n">
-        <v>1714</v>
+        <v>1720</v>
       </c>
       <c r="F217" t="n">
-        <v>327.6781</v>
+        <v>666</v>
       </c>
       <c r="G217" t="n">
-        <v>1718.8</v>
+        <v>1741</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8518,9 +8414,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8535,22 +8429,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
+        <v>1720</v>
+      </c>
+      <c r="C218" t="n">
         <v>1714</v>
       </c>
-      <c r="C218" t="n">
-        <v>1697</v>
-      </c>
       <c r="D218" t="n">
+        <v>1720</v>
+      </c>
+      <c r="E218" t="n">
         <v>1714</v>
       </c>
-      <c r="E218" t="n">
-        <v>1697</v>
-      </c>
       <c r="F218" t="n">
-        <v>939.3985</v>
+        <v>327.6781</v>
       </c>
       <c r="G218" t="n">
-        <v>1714.2</v>
+        <v>1739.916666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8559,9 +8453,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8576,22 +8468,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1700</v>
+        <v>1714</v>
       </c>
       <c r="C219" t="n">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="D219" t="n">
-        <v>1700</v>
+        <v>1714</v>
       </c>
       <c r="E219" t="n">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="F219" t="n">
-        <v>3.7303</v>
+        <v>939.3985</v>
       </c>
       <c r="G219" t="n">
-        <v>1710.2</v>
+        <v>1738.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8600,9 +8492,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8629,10 +8519,10 @@
         <v>1700</v>
       </c>
       <c r="F220" t="n">
-        <v>11.9744</v>
+        <v>3.7303</v>
       </c>
       <c r="G220" t="n">
-        <v>1706.2</v>
+        <v>1737.183333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8641,9 +8531,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8670,10 +8558,10 @@
         <v>1700</v>
       </c>
       <c r="F221" t="n">
-        <v>5.0551</v>
+        <v>11.9744</v>
       </c>
       <c r="G221" t="n">
-        <v>1702.2</v>
+        <v>1735.85</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8682,9 +8570,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8699,22 +8585,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="C222" t="n">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="D222" t="n">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="E222" t="n">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="F222" t="n">
-        <v>0.1</v>
+        <v>5.0551</v>
       </c>
       <c r="G222" t="n">
-        <v>1698.6</v>
+        <v>1734.483333333333</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8723,9 +8609,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8740,22 +8624,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="C223" t="n">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="D223" t="n">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="E223" t="n">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="F223" t="n">
         <v>0.1</v>
       </c>
       <c r="G223" t="n">
-        <v>1698</v>
+        <v>1733.133333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8764,9 +8648,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8781,35 +8663,31 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1707</v>
+        <v>1694</v>
       </c>
       <c r="C224" t="n">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D224" t="n">
-        <v>1707</v>
+        <v>1694</v>
       </c>
       <c r="E224" t="n">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="F224" t="n">
-        <v>15.1</v>
+        <v>0.1</v>
       </c>
       <c r="G224" t="n">
-        <v>1696.6</v>
+        <v>1732.233333333333</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>1694</v>
-      </c>
-      <c r="K224" t="n">
-        <v>1714</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8824,22 +8702,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="C225" t="n">
-        <v>1715</v>
+        <v>1693</v>
       </c>
       <c r="D225" t="n">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="E225" t="n">
-        <v>1715</v>
+        <v>1693</v>
       </c>
       <c r="F225" t="n">
-        <v>90.2192</v>
+        <v>15.1</v>
       </c>
       <c r="G225" t="n">
-        <v>1699.6</v>
+        <v>1731.233333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8848,9 +8726,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8865,22 +8741,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1698</v>
+        <v>1715</v>
       </c>
       <c r="C226" t="n">
-        <v>1698</v>
+        <v>1715</v>
       </c>
       <c r="D226" t="n">
-        <v>1698</v>
+        <v>1715</v>
       </c>
       <c r="E226" t="n">
-        <v>1698</v>
+        <v>1715</v>
       </c>
       <c r="F226" t="n">
-        <v>0.1</v>
+        <v>90.2192</v>
       </c>
       <c r="G226" t="n">
-        <v>1699.2</v>
+        <v>1730.85</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8889,9 +8765,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8906,22 +8780,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C227" t="n">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="D227" t="n">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="E227" t="n">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="F227" t="n">
         <v>0.1</v>
       </c>
       <c r="G227" t="n">
-        <v>1699.4</v>
+        <v>1729.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8930,9 +8804,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8947,22 +8819,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C228" t="n">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="D228" t="n">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="E228" t="n">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="F228" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G228" t="n">
-        <v>1699.8</v>
+        <v>1728.916666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8971,9 +8843,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8988,22 +8858,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1723</v>
+        <v>1696</v>
       </c>
       <c r="C229" t="n">
-        <v>1723</v>
+        <v>1696</v>
       </c>
       <c r="D229" t="n">
-        <v>1723</v>
+        <v>1696</v>
       </c>
       <c r="E229" t="n">
-        <v>1723</v>
+        <v>1696</v>
       </c>
       <c r="F229" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G229" t="n">
-        <v>1705.8</v>
+        <v>1728</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -9012,9 +8882,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9029,22 +8897,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1695</v>
+        <v>1723</v>
       </c>
       <c r="C230" t="n">
-        <v>1695</v>
+        <v>1723</v>
       </c>
       <c r="D230" t="n">
-        <v>1695</v>
+        <v>1723</v>
       </c>
       <c r="E230" t="n">
-        <v>1695</v>
+        <v>1723</v>
       </c>
       <c r="F230" t="n">
         <v>0.1</v>
       </c>
       <c r="G230" t="n">
-        <v>1701.8</v>
+        <v>1727.566666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9053,9 +8921,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9082,10 +8948,10 @@
         <v>1695</v>
       </c>
       <c r="F231" t="n">
-        <v>105.2596</v>
+        <v>0.1</v>
       </c>
       <c r="G231" t="n">
-        <v>1701.2</v>
+        <v>1726.95</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9094,9 +8960,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9111,22 +8975,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C232" t="n">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="D232" t="n">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="E232" t="n">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="F232" t="n">
-        <v>0.1</v>
+        <v>105.2596</v>
       </c>
       <c r="G232" t="n">
-        <v>1700.6</v>
+        <v>1726.05</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9135,9 +8999,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9152,35 +9014,31 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="C233" t="n">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="D233" t="n">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="E233" t="n">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="F233" t="n">
         <v>0.1</v>
       </c>
       <c r="G233" t="n">
-        <v>1699.8</v>
+        <v>1725.7</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>1694</v>
-      </c>
-      <c r="K233" t="n">
-        <v>1714</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9207,10 +9065,10 @@
         <v>1692</v>
       </c>
       <c r="F234" t="n">
-        <v>35.36</v>
+        <v>0.1</v>
       </c>
       <c r="G234" t="n">
-        <v>1693.6</v>
+        <v>1725.083333333333</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9219,9 +9077,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9236,22 +9092,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C235" t="n">
-        <v>1681</v>
+        <v>1692</v>
       </c>
       <c r="D235" t="n">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="E235" t="n">
-        <v>1681</v>
+        <v>1692</v>
       </c>
       <c r="F235" t="n">
-        <v>100.4577</v>
+        <v>35.36</v>
       </c>
       <c r="G235" t="n">
-        <v>1690.8</v>
+        <v>1724.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9260,9 +9116,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9277,22 +9131,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="C236" t="n">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="D236" t="n">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="E236" t="n">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="F236" t="n">
-        <v>25.137</v>
+        <v>100.4577</v>
       </c>
       <c r="G236" t="n">
-        <v>1689.4</v>
+        <v>1723.666666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9301,9 +9155,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9318,22 +9170,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="C237" t="n">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="D237" t="n">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="E237" t="n">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="F237" t="n">
-        <v>0.1</v>
+        <v>25.137</v>
       </c>
       <c r="G237" t="n">
-        <v>1690</v>
+        <v>1722.683333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9342,9 +9194,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9359,22 +9209,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="C238" t="n">
-        <v>1686</v>
+        <v>1697</v>
       </c>
       <c r="D238" t="n">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="E238" t="n">
-        <v>1686</v>
+        <v>1697</v>
       </c>
       <c r="F238" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G238" t="n">
-        <v>1688.8</v>
+        <v>1721.85</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9383,9 +9233,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9400,22 +9248,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1683</v>
+        <v>1704</v>
       </c>
       <c r="C239" t="n">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="D239" t="n">
-        <v>1683</v>
+        <v>1704</v>
       </c>
       <c r="E239" t="n">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="F239" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G239" t="n">
-        <v>1687</v>
+        <v>1720.833333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9424,9 +9272,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9441,22 +9287,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="C240" t="n">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="D240" t="n">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="E240" t="n">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="F240" t="n">
-        <v>5.9</v>
+        <v>0.1</v>
       </c>
       <c r="G240" t="n">
-        <v>1687</v>
+        <v>1719.766666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9465,9 +9311,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9482,22 +9326,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1662</v>
+        <v>1681</v>
       </c>
       <c r="C241" t="n">
-        <v>1659</v>
+        <v>1681</v>
       </c>
       <c r="D241" t="n">
-        <v>1662</v>
+        <v>1681</v>
       </c>
       <c r="E241" t="n">
-        <v>1659</v>
+        <v>1681</v>
       </c>
       <c r="F241" t="n">
-        <v>166.0029</v>
+        <v>5.9</v>
       </c>
       <c r="G241" t="n">
-        <v>1681.2</v>
+        <v>1718.766666666667</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9506,9 +9350,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>1714</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9523,39 +9365,76 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
+        <v>1662</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1659</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1662</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1659</v>
+      </c>
+      <c r="F242" t="n">
+        <v>166.0029</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1717.283333333333</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
         <v>1665</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C243" t="n">
         <v>1665</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D243" t="n">
         <v>1665</v>
       </c>
-      <c r="E242" t="n">
+      <c r="E243" t="n">
         <v>1665</v>
       </c>
-      <c r="F242" t="n">
+      <c r="F243" t="n">
         <v>32.59</v>
       </c>
-      <c r="G242" t="n">
-        <v>1674.8</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>1714</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
+      <c r="G243" t="n">
+        <v>1715.966666666667</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest HC.xlsx
+++ b/BackTest/2019-10-26 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N311"/>
+  <dimension ref="A1:M311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>8341.5782</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>8341.5782</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1610</v>
       </c>
       <c r="J3" t="n">
         <v>1610</v>
       </c>
-      <c r="K3" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>8341.5782</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1610</v>
       </c>
       <c r="J4" t="n">
         <v>1610</v>
       </c>
-      <c r="K4" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>8341.5782</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1610</v>
       </c>
       <c r="J5" t="n">
         <v>1610</v>
       </c>
-      <c r="K5" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>8341.5782</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1610</v>
       </c>
       <c r="J6" t="n">
         <v>1610</v>
       </c>
-      <c r="K6" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>8341.5782</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1610</v>
       </c>
       <c r="J7" t="n">
         <v>1610</v>
       </c>
-      <c r="K7" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,23 @@
         <v>8342.5782</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1610</v>
       </c>
       <c r="J8" t="n">
         <v>1610</v>
       </c>
-      <c r="K8" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,26 +722,23 @@
         <v>8475.618399999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1612</v>
       </c>
       <c r="J9" t="n">
-        <v>1612</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,26 +763,23 @@
         <v>8475.7184</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1614</v>
       </c>
       <c r="J10" t="n">
-        <v>1614</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,26 +804,23 @@
         <v>8446.181699999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1618</v>
       </c>
       <c r="J11" t="n">
-        <v>1618</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -880,26 +845,23 @@
         <v>8446.361699999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1604</v>
       </c>
       <c r="J12" t="n">
-        <v>1604</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -924,26 +886,23 @@
         <v>8446.4797</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1635</v>
       </c>
       <c r="J13" t="n">
-        <v>1635</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -968,26 +927,23 @@
         <v>8446.4797</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1638</v>
       </c>
       <c r="J14" t="n">
-        <v>1638</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1012,26 +968,21 @@
         <v>8446.5797</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>1638</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1056,26 +1007,21 @@
         <v>8415.0753</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>1643</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1100,26 +1046,21 @@
         <v>8415.175300000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>1637</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1144,26 +1085,21 @@
         <v>8399.616</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>1639</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1188,26 +1124,21 @@
         <v>8233.3477</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>1612</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1232,26 +1163,21 @@
         <v>8233.5177</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>1610</v>
       </c>
-      <c r="K20" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1276,26 +1202,21 @@
         <v>8233.617700000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>1618</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1320,26 +1241,21 @@
         <v>8233.737700000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1364,26 +1280,21 @@
         <v>7158.737700000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>1631</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1408,26 +1319,21 @@
         <v>7179.200400000002</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>1617</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1452,26 +1358,21 @@
         <v>7179.340400000002</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>1622</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1498,22 +1399,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1540,22 +1438,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1582,22 +1477,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1624,22 +1516,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1666,22 +1555,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1708,22 +1594,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1750,22 +1633,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1792,22 +1672,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1834,22 +1711,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1876,22 +1750,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1918,22 +1789,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1960,22 +1828,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2002,22 +1867,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2044,22 +1906,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2086,22 +1945,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2128,22 +1984,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2170,22 +2023,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2212,22 +2062,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2254,22 +2101,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2296,22 +2140,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2338,22 +2179,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2380,22 +2218,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2422,22 +2257,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2464,22 +2296,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2506,22 +2335,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2548,22 +2374,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2590,22 +2413,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2632,22 +2452,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2674,22 +2491,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2716,22 +2530,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2758,22 +2569,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2800,22 +2608,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2842,22 +2647,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2884,22 +2686,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2926,22 +2725,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2968,22 +2764,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3010,22 +2803,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3052,22 +2842,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3094,22 +2881,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3136,22 +2920,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3178,22 +2959,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3220,22 +2998,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3262,22 +3037,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3304,22 +3076,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3346,22 +3115,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3388,22 +3154,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3430,22 +3193,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3472,22 +3232,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3514,22 +3271,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3556,22 +3310,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3598,22 +3349,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3640,22 +3388,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3682,22 +3427,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3724,22 +3466,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3766,22 +3505,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3808,22 +3544,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3848,24 +3581,23 @@
         <v>9146.562900000008</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L82" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="L82" t="n">
+        <v>1.057732919254659</v>
+      </c>
       <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>1.008695652173913</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3890,24 +3622,15 @@
         <v>9179.662000000008</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3932,24 +3655,15 @@
         <v>9299.521900000007</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3974,24 +3688,15 @@
         <v>9299.521900000007</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4016,24 +3721,15 @@
         <v>9299.621900000007</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4058,24 +3754,15 @@
         <v>9564.920800000007</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4100,24 +3787,15 @@
         <v>10490.54570000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4142,24 +3820,15 @@
         <v>10372.37290000001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4184,24 +3853,15 @@
         <v>10372.47290000001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4226,24 +3886,15 @@
         <v>10372.47290000001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4268,26 +3919,15 @@
         <v>9951.013300000008</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>1610</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1.083198757763975</v>
-      </c>
-      <c r="N92" t="n">
-        <v>1.008695652173913</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4312,18 +3952,15 @@
         <v>9951.013300000008</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4348,18 +3985,15 @@
         <v>9951.013300000008</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4384,18 +4018,15 @@
         <v>9945.475100000007</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4420,18 +4051,15 @@
         <v>10503.38550000001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4456,18 +4084,15 @@
         <v>10503.38550000001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4492,18 +4117,15 @@
         <v>10371.42170000001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4530,16 +4152,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4566,16 +4185,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4600,18 +4216,15 @@
         <v>10133.91230000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4638,16 +4251,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4674,16 +4284,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4710,16 +4317,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4744,18 +4348,15 @@
         <v>10774.95450000001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4782,16 +4383,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4818,16 +4416,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4854,16 +4449,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4888,18 +4480,15 @@
         <v>10559.03460000001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4926,16 +4515,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4960,18 +4546,15 @@
         <v>10249.55000000001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4998,16 +4581,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5034,16 +4614,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5070,16 +4647,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5106,16 +4680,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5142,16 +4713,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5178,16 +4746,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5214,16 +4779,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5250,16 +4812,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5286,16 +4845,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5322,16 +4878,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5358,16 +4911,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5394,16 +4944,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5430,16 +4977,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5466,16 +5010,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5502,16 +5043,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5536,18 +5074,15 @@
         <v>7902.34160000001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5574,16 +5109,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5610,16 +5142,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5646,16 +5175,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5682,16 +5208,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5718,16 +5241,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5754,16 +5274,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5788,18 +5305,15 @@
         <v>7539.27915828001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5826,16 +5340,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5862,16 +5373,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5898,16 +5406,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5934,16 +5439,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5970,16 +5472,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6006,16 +5505,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6042,16 +5538,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6078,16 +5571,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6114,16 +5604,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6150,16 +5637,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6186,16 +5670,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6222,16 +5703,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6258,16 +5736,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6294,16 +5769,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6330,16 +5802,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6366,16 +5835,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6402,16 +5868,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6438,16 +5901,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6474,16 +5934,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6510,16 +5967,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6546,16 +6000,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6582,16 +6033,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6618,16 +6066,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6654,16 +6099,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6690,16 +6132,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6726,16 +6165,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6762,16 +6198,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6798,16 +6231,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6834,16 +6264,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6870,16 +6297,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6906,16 +6330,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6942,16 +6363,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6978,16 +6396,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7014,16 +6429,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7050,16 +6462,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7084,18 +6493,15 @@
         <v>7600.379058280007</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7120,18 +6526,15 @@
         <v>7512.838358280007</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7156,18 +6559,15 @@
         <v>7512.938358280007</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7192,18 +6592,15 @@
         <v>4963.520758280007</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7228,18 +6625,15 @@
         <v>6153.144858280007</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7264,18 +6658,15 @@
         <v>6478.074758280007</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7300,18 +6691,15 @@
         <v>3454.322158280007</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7336,18 +6724,15 @@
         <v>3448.380658280007</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7372,18 +6757,15 @@
         <v>3401.368258280007</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7408,18 +6790,15 @@
         <v>3391.168258280007</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7444,18 +6823,15 @@
         <v>3380.968258280007</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7480,18 +6856,15 @@
         <v>1728.547858280007</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7518,16 +6891,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7554,16 +6924,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7588,18 +6955,15 @@
         <v>1771.213958280007</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7626,16 +6990,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7662,16 +7023,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7698,16 +7056,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7734,16 +7089,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7770,16 +7122,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7806,16 +7155,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7842,16 +7188,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7878,16 +7221,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7914,16 +7254,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7950,16 +7287,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7986,16 +7320,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8022,16 +7353,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8058,16 +7386,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8094,16 +7419,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8130,16 +7452,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8166,16 +7485,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8202,16 +7518,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8238,16 +7551,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8274,16 +7584,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8310,16 +7617,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8346,16 +7650,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8382,16 +7683,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8418,16 +7716,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8454,16 +7749,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8490,16 +7782,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8526,16 +7815,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8562,16 +7848,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8598,16 +7881,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8634,16 +7914,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8670,16 +7947,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8706,16 +7980,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8742,16 +8013,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8778,16 +8046,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8814,16 +8079,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8850,16 +8112,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8886,16 +8145,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8922,16 +8178,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8958,16 +8211,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8994,16 +8244,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9030,16 +8277,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9066,16 +8310,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9102,16 +8343,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9138,16 +8376,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9174,16 +8409,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9210,16 +8442,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9246,16 +8475,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9282,16 +8508,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9318,16 +8541,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9354,16 +8574,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9390,16 +8607,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9426,16 +8640,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9462,16 +8673,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9498,16 +8706,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9534,16 +8739,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9570,16 +8772,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9606,16 +8805,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9642,16 +8838,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9678,16 +8871,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9714,16 +8904,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9750,16 +8937,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9786,16 +8970,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9822,16 +9003,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9858,16 +9036,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9894,16 +9069,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9930,16 +9102,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9966,16 +9135,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10002,16 +9168,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10038,16 +9201,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10074,16 +9234,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10110,16 +9267,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10146,16 +9300,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10182,16 +9333,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10218,16 +9366,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10254,16 +9399,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10290,16 +9432,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10326,16 +9465,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10362,16 +9498,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10398,16 +9531,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10434,16 +9564,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10470,16 +9597,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10506,16 +9630,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10542,16 +9663,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10578,16 +9696,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10614,16 +9729,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10650,16 +9762,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10686,16 +9795,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10722,16 +9828,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10758,16 +9861,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10794,16 +9894,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10830,16 +9927,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10866,16 +9960,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10902,16 +9993,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10938,16 +10026,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10974,16 +10059,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11010,16 +10092,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11046,16 +10125,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11082,16 +10158,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11118,16 +10191,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11154,16 +10224,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11190,16 +10257,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11226,16 +10290,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11262,16 +10323,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11298,16 +10356,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11334,16 +10389,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11370,16 +10422,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11406,16 +10455,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11442,16 +10488,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11478,16 +10521,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11514,16 +10554,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11550,16 +10587,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11586,16 +10620,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11622,16 +10653,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11658,16 +10686,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11694,16 +10719,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11730,16 +10752,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11766,16 +10785,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11802,16 +10818,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11838,16 +10851,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11874,16 +10884,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11910,16 +10917,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11946,16 +10950,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11982,16 +10983,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12018,16 +11016,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12054,16 +11049,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12090,16 +11082,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12126,16 +11115,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12162,18 +11148,15 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest HC.xlsx
+++ b/BackTest/2019-10-26 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8341.5782</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>8341.5782</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1610</v>
@@ -521,7 +521,7 @@
         <v>8341.5782</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1610</v>
@@ -562,7 +562,7 @@
         <v>8341.5782</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1610</v>
@@ -603,7 +603,7 @@
         <v>8341.5782</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1610</v>
@@ -640,7 +640,7 @@
         <v>8341.5782</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1610</v>
@@ -681,7 +681,7 @@
         <v>8342.5782</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1610</v>
@@ -722,7 +722,7 @@
         <v>8475.618399999999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1612</v>
@@ -763,7 +763,7 @@
         <v>8475.7184</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1614</v>
@@ -804,7 +804,7 @@
         <v>8446.181699999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1618</v>
@@ -845,7 +845,7 @@
         <v>8446.361699999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1604</v>
@@ -886,7 +886,7 @@
         <v>8446.4797</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1635</v>
@@ -927,7 +927,7 @@
         <v>8446.4797</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1638</v>
@@ -968,9 +968,11 @@
         <v>8446.5797</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1638</v>
+      </c>
       <c r="J15" t="n">
         <v>1610</v>
       </c>
@@ -1007,9 +1009,11 @@
         <v>8415.0753</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1643</v>
+      </c>
       <c r="J16" t="n">
         <v>1610</v>
       </c>
@@ -1046,9 +1050,11 @@
         <v>8415.175300000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1637</v>
+      </c>
       <c r="J17" t="n">
         <v>1610</v>
       </c>
@@ -1085,9 +1091,11 @@
         <v>8399.616</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1639</v>
+      </c>
       <c r="J18" t="n">
         <v>1610</v>
       </c>
@@ -1124,9 +1132,11 @@
         <v>8233.3477</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1612</v>
+      </c>
       <c r="J19" t="n">
         <v>1610</v>
       </c>
@@ -1163,9 +1173,11 @@
         <v>8233.5177</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1610</v>
+      </c>
       <c r="J20" t="n">
         <v>1610</v>
       </c>
@@ -1202,9 +1214,11 @@
         <v>8233.617700000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1618</v>
+      </c>
       <c r="J21" t="n">
         <v>1610</v>
       </c>
@@ -1241,9 +1255,11 @@
         <v>8233.737700000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1626</v>
+      </c>
       <c r="J22" t="n">
         <v>1610</v>
       </c>
@@ -1280,9 +1296,11 @@
         <v>7158.737700000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1631</v>
+      </c>
       <c r="J23" t="n">
         <v>1610</v>
       </c>
@@ -1319,9 +1337,11 @@
         <v>7179.200400000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1617</v>
+      </c>
       <c r="J24" t="n">
         <v>1610</v>
       </c>
@@ -1358,9 +1378,11 @@
         <v>7179.340400000002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1622</v>
+      </c>
       <c r="J25" t="n">
         <v>1610</v>
       </c>
@@ -1397,9 +1419,11 @@
         <v>7179.450400000002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1642</v>
+      </c>
       <c r="J26" t="n">
         <v>1610</v>
       </c>
@@ -1436,9 +1460,11 @@
         <v>7161.843900000002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1643</v>
+      </c>
       <c r="J27" t="n">
         <v>1610</v>
       </c>
@@ -1475,9 +1501,11 @@
         <v>9661.843900000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1615</v>
+      </c>
       <c r="J28" t="n">
         <v>1610</v>
       </c>
@@ -3581,7 +3609,7 @@
         <v>9146.562900000008</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
@@ -3589,15 +3617,13 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.057732919254659</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.008695652173913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3622,11 +3648,17 @@
         <v>9179.662000000008</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3655,11 +3687,17 @@
         <v>9299.521900000007</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3688,11 +3726,17 @@
         <v>9299.521900000007</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3721,11 +3765,17 @@
         <v>9299.621900000007</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3754,11 +3804,17 @@
         <v>9564.920800000007</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3787,11 +3843,17 @@
         <v>10490.54570000001</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3820,11 +3882,17 @@
         <v>10372.37290000001</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +3921,17 @@
         <v>10372.47290000001</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +3960,17 @@
         <v>10372.47290000001</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3919,11 +3999,17 @@
         <v>9951.013300000008</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3952,11 +4038,17 @@
         <v>9951.013300000008</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3985,11 +4077,17 @@
         <v>9951.013300000008</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4018,11 +4116,17 @@
         <v>9945.475100000007</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4051,11 +4155,17 @@
         <v>10503.38550000001</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4084,11 +4194,17 @@
         <v>10503.38550000001</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4117,11 +4233,17 @@
         <v>10371.42170000001</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4153,8 +4275,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4186,8 +4314,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4216,11 +4350,17 @@
         <v>10133.91230000001</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4252,8 +4392,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4285,8 +4431,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4318,8 +4470,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4348,11 +4506,17 @@
         <v>10774.95450000001</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4384,8 +4548,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4417,8 +4587,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4450,8 +4626,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4480,11 +4662,17 @@
         <v>10559.03460000001</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4516,8 +4704,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4546,11 +4740,17 @@
         <v>10249.55000000001</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4582,8 +4782,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4615,8 +4821,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4648,8 +4860,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4681,8 +4899,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4714,8 +4938,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4747,8 +4977,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4780,8 +5016,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4813,8 +5055,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4843,15 +5091,23 @@
         <v>4904.011100000011</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>1.065186335403727</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1.008695652173913</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4876,7 +5132,7 @@
         <v>4904.111100000011</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4909,7 +5165,7 @@
         <v>5852.265600000011</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4942,7 +5198,7 @@
         <v>6984.20610000001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5041,7 +5297,7 @@
         <v>7331.21400000001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5074,7 +5330,7 @@
         <v>7902.34160000001</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5107,7 +5363,7 @@
         <v>8654.394000000009</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5140,7 +5396,7 @@
         <v>8674.394000000009</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5173,7 +5429,7 @@
         <v>7854.70525828001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5206,7 +5462,7 @@
         <v>7556.87315828001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5239,7 +5495,7 @@
         <v>7556.87315828001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5272,7 +5528,7 @@
         <v>7539.27915828001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5305,7 +5561,7 @@
         <v>7539.27915828001</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5338,7 +5594,7 @@
         <v>7520.87005828001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5371,7 +5627,7 @@
         <v>7226.23055828001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5404,7 +5660,7 @@
         <v>7118.63005828001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5437,7 +5693,7 @@
         <v>7172.32955828001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5470,7 +5726,7 @@
         <v>7475.45345828001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5503,7 +5759,7 @@
         <v>7354.39725828001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5536,7 +5792,7 @@
         <v>7354.49725828001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5569,7 +5825,7 @@
         <v>7913.58985828001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5602,7 +5858,7 @@
         <v>9178.38865828001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5635,7 +5891,7 @@
         <v>9176.889258280009</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5668,7 +5924,7 @@
         <v>8904.547258280008</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5701,7 +5957,7 @@
         <v>8904.647258280009</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5734,7 +5990,7 @@
         <v>8904.747258280009</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6064,7 +6320,7 @@
         <v>9182.735458280011</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6097,7 +6353,7 @@
         <v>8914.39885828001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6130,7 +6386,7 @@
         <v>8914.498858280011</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6163,7 +6419,7 @@
         <v>8870.79885828001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6196,7 +6452,7 @@
         <v>9416.678858280009</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6229,7 +6485,7 @@
         <v>8810.671458280009</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6262,7 +6518,7 @@
         <v>9928.641358280009</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6295,7 +6551,7 @@
         <v>9084.003358280008</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6328,7 +6584,7 @@
         <v>9193.521158280008</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6361,7 +6617,7 @@
         <v>8836.273558280007</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6394,7 +6650,7 @@
         <v>8836.273558280007</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6460,7 +6716,7 @@
         <v>8218.287458280007</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6493,7 +6749,7 @@
         <v>7600.379058280007</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6526,7 +6782,7 @@
         <v>7512.838358280007</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6559,7 +6815,7 @@
         <v>7512.938358280007</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6592,7 +6848,7 @@
         <v>4963.520758280007</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6625,7 +6881,7 @@
         <v>6153.144858280007</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6658,7 +6914,7 @@
         <v>6478.074758280007</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6691,7 +6947,7 @@
         <v>3454.322158280007</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6724,7 +6980,7 @@
         <v>3448.380658280007</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6757,7 +7013,7 @@
         <v>3401.368258280007</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6790,7 +7046,7 @@
         <v>3391.168258280007</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6823,7 +7079,7 @@
         <v>3380.968258280007</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6856,7 +7112,7 @@
         <v>1728.547858280007</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6955,7 +7211,7 @@
         <v>1771.213958280007</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -8968,7 +9224,7 @@
         <v>14044.50222051</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9265,7 +9521,7 @@
         <v>13323.62512051001</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9298,7 +9554,7 @@
         <v>13474.92492051001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9331,7 +9587,7 @@
         <v>13456.29532051001</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9463,7 +9719,7 @@
         <v>13484.46132051</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9496,7 +9752,7 @@
         <v>13484.56132051001</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9529,7 +9785,7 @@
         <v>13459.99572051001</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9562,7 +9818,7 @@
         <v>13507.82232051001</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9595,7 +9851,7 @@
         <v>13507.72232051001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9661,7 +9917,7 @@
         <v>13507.72232051001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9727,7 +9983,7 @@
         <v>13172.61382051001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9760,7 +10016,7 @@
         <v>13172.61382051001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9793,7 +10049,7 @@
         <v>13172.61382051001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9826,7 +10082,7 @@
         <v>13172.61382051001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10090,7 +10346,7 @@
         <v>11909.26752051001</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10123,7 +10379,7 @@
         <v>11909.26752051001</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10156,7 +10412,7 @@
         <v>11909.16752051001</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10189,7 +10445,7 @@
         <v>11909.06752051001</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10486,7 +10742,7 @@
         <v>11983.68672051</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10552,7 +10808,7 @@
         <v>11983.58672051</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10585,7 +10841,7 @@
         <v>11883.12902051</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10618,7 +10874,7 @@
         <v>11908.26602051</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10651,7 +10907,7 @@
         <v>11908.36602051</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10684,7 +10940,7 @@
         <v>11908.16602051</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10717,7 +10973,7 @@
         <v>11908.06602051</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10783,7 +11039,7 @@
         <v>11736.16312051</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10816,7 +11072,7 @@
         <v>11768.75312051</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10849,7 +11105,7 @@
         <v>11768.65312051</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10882,7 +11138,7 @@
         <v>12000.96562051</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11157,6 +11413,6 @@
       <c r="M311" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest HC.xlsx
+++ b/BackTest/2019-10-26 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8341.5782</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>8341.5782</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1610</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -529,11 +525,7 @@
       <c r="J4" t="n">
         <v>1610</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -611,7 +603,11 @@
       <c r="J6" t="n">
         <v>1610</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -648,11 +644,7 @@
       <c r="J7" t="n">
         <v>1610</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -845,11 +837,9 @@
         <v>8446.361699999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1604</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>1610</v>
       </c>
@@ -886,11 +876,9 @@
         <v>8446.4797</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1635</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>1610</v>
       </c>
@@ -927,11 +915,9 @@
         <v>8446.4797</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1638</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>1610</v>
       </c>
@@ -968,11 +954,9 @@
         <v>8446.5797</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1638</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>1610</v>
       </c>
@@ -1009,11 +993,9 @@
         <v>8415.0753</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1643</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>1610</v>
       </c>
@@ -1050,11 +1032,9 @@
         <v>8415.175300000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1637</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>1610</v>
       </c>
@@ -1091,11 +1071,9 @@
         <v>8399.616</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1639</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>1610</v>
       </c>
@@ -1132,21 +1110,19 @@
         <v>8233.3477</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1612</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>1610</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="M19" t="inlineStr"/>
     </row>
@@ -1173,19 +1149,11 @@
         <v>8233.5177</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1610</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1214,19 +1182,11 @@
         <v>8233.617700000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1618</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1255,19 +1215,11 @@
         <v>8233.737700000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1626</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1296,19 +1248,11 @@
         <v>7158.737700000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1631</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1337,19 +1281,11 @@
         <v>7179.200400000002</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1617</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1378,19 +1314,11 @@
         <v>7179.340400000002</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1622</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1419,19 +1347,11 @@
         <v>7179.450400000002</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1642</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1460,19 +1380,11 @@
         <v>7161.843900000002</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1643</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1501,19 +1413,11 @@
         <v>9661.843900000002</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1615</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1542,17 +1446,11 @@
         <v>9661.943900000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1581,17 +1479,11 @@
         <v>9662.123900000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1623,14 +1515,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1662,14 +1548,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1701,14 +1581,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1740,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1779,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1818,14 +1680,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1857,14 +1713,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1896,14 +1746,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1935,14 +1779,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1974,14 +1812,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2013,14 +1845,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2052,14 +1878,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2091,14 +1911,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2130,14 +1944,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2169,14 +1977,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2208,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2247,14 +2043,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2286,14 +2076,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2325,14 +2109,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2364,14 +2142,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2403,14 +2175,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2442,14 +2208,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2481,14 +2241,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2520,14 +2274,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2559,14 +2307,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2598,14 +2340,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2637,14 +2373,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2676,14 +2406,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2715,14 +2439,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2754,14 +2472,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2793,14 +2505,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2832,14 +2538,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2871,14 +2571,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2910,14 +2604,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2949,14 +2637,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2988,14 +2670,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3027,14 +2703,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3066,14 +2736,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3105,14 +2769,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3144,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3183,14 +2835,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3222,14 +2868,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3261,14 +2901,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3300,14 +2934,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3339,14 +2967,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3378,14 +3000,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3417,14 +3033,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3456,14 +3066,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3495,14 +3099,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3534,14 +3132,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3573,14 +3165,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3612,14 +3198,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3648,17 +3228,11 @@
         <v>9179.662000000008</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3687,17 +3261,11 @@
         <v>9299.521900000007</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3726,17 +3294,11 @@
         <v>9299.521900000007</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3765,17 +3327,11 @@
         <v>9299.621900000007</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3804,17 +3360,11 @@
         <v>9564.920800000007</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3843,17 +3393,11 @@
         <v>10490.54570000001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3882,17 +3426,11 @@
         <v>10372.37290000001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3921,17 +3459,11 @@
         <v>10372.47290000001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3963,14 +3495,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4002,14 +3528,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4041,14 +3561,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4080,14 +3594,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4119,14 +3627,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4158,14 +3660,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4197,14 +3693,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4236,14 +3726,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4275,14 +3759,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4314,14 +3792,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4353,14 +3825,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4392,14 +3858,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4431,14 +3891,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4470,14 +3924,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4509,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4548,14 +3990,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4587,14 +4023,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4626,14 +4056,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4665,14 +4089,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4704,14 +4122,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4743,14 +4155,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4782,14 +4188,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4821,14 +4221,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4860,14 +4254,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4899,14 +4287,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4938,14 +4320,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4977,14 +4353,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5016,14 +4386,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5055,14 +4419,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5091,23 +4449,15 @@
         <v>4904.011100000011</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>1.065186335403727</v>
-      </c>
-      <c r="M120" t="n">
-        <v>1.008695652173913</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5132,7 +4482,7 @@
         <v>4904.111100000011</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5165,7 +4515,7 @@
         <v>5852.265600000011</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5198,7 +4548,7 @@
         <v>6984.20610000001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5297,7 +4647,7 @@
         <v>7331.21400000001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5330,7 +4680,7 @@
         <v>7902.34160000001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5363,7 +4713,7 @@
         <v>8654.394000000009</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5396,7 +4746,7 @@
         <v>8674.394000000009</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5429,7 +4779,7 @@
         <v>7854.70525828001</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5462,7 +4812,7 @@
         <v>7556.87315828001</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5495,7 +4845,7 @@
         <v>7556.87315828001</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5528,7 +4878,7 @@
         <v>7539.27915828001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5561,7 +4911,7 @@
         <v>7539.27915828001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5594,7 +4944,7 @@
         <v>7520.87005828001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5627,7 +4977,7 @@
         <v>7226.23055828001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5660,7 +5010,7 @@
         <v>7118.63005828001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5693,7 +5043,7 @@
         <v>7172.32955828001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5726,7 +5076,7 @@
         <v>7475.45345828001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5759,7 +5109,7 @@
         <v>7354.39725828001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5792,7 +5142,7 @@
         <v>7354.49725828001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5825,7 +5175,7 @@
         <v>7913.58985828001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5858,7 +5208,7 @@
         <v>9178.38865828001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5891,7 +5241,7 @@
         <v>9176.889258280009</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5924,7 +5274,7 @@
         <v>8904.547258280008</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5957,7 +5307,7 @@
         <v>8904.647258280009</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5990,7 +5340,7 @@
         <v>8904.747258280009</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6320,7 +5670,7 @@
         <v>9182.735458280011</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6353,7 +5703,7 @@
         <v>8914.39885828001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6386,7 +5736,7 @@
         <v>8914.498858280011</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6419,7 +5769,7 @@
         <v>8870.79885828001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6452,7 +5802,7 @@
         <v>9416.678858280009</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6485,7 +5835,7 @@
         <v>8810.671458280009</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6518,7 +5868,7 @@
         <v>9928.641358280009</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6551,7 +5901,7 @@
         <v>9084.003358280008</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6584,7 +5934,7 @@
         <v>9193.521158280008</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6617,7 +5967,7 @@
         <v>8836.273558280007</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6650,7 +6000,7 @@
         <v>8836.273558280007</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6716,7 +6066,7 @@
         <v>8218.287458280007</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6914,11 +6264,17 @@
         <v>6478.074758280007</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1701</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6951,7 +6307,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6984,7 +6344,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7017,7 +6381,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7050,7 +6418,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7083,7 +6455,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7116,7 +6492,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7145,11 +6525,17 @@
         <v>1932.803458280007</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1652</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7178,11 +6564,17 @@
         <v>1771.213958280007</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1679</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7215,7 +6607,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7244,11 +6640,17 @@
         <v>1808.653958280007</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1661</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7277,11 +6679,17 @@
         <v>1717.003958280007</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1687</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7310,11 +6718,17 @@
         <v>1717.103958280007</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1670</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7347,7 +6761,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7380,7 +6798,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7413,7 +6835,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7446,7 +6872,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7479,7 +6909,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7512,7 +6946,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7541,11 +6979,17 @@
         <v>2165.797358280007</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1697</v>
+      </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7578,7 +7022,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7611,7 +7059,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7644,7 +7096,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7673,11 +7129,17 @@
         <v>-196.6143417199926</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1721</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7710,7 +7172,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7743,7 +7209,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7776,7 +7246,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7809,7 +7283,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7842,7 +7320,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7875,7 +7357,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7908,7 +7394,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7941,7 +7431,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7974,7 +7468,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8007,7 +7505,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8040,7 +7542,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8073,7 +7579,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8106,7 +7616,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8139,7 +7653,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8172,7 +7690,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8205,7 +7727,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8238,7 +7764,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8271,7 +7801,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8304,7 +7838,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8337,7 +7875,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8370,7 +7912,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +7949,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8436,7 +7986,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8469,7 +8023,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8502,7 +8060,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8535,7 +8097,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8568,7 +8134,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8601,7 +8171,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8634,7 +8208,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8667,7 +8245,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8700,7 +8282,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8733,7 +8319,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8766,7 +8356,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8799,7 +8393,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8832,7 +8430,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8865,7 +8467,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8898,7 +8504,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8931,7 +8541,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8964,7 +8578,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8997,7 +8615,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9030,7 +8652,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9063,7 +8689,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9096,7 +8726,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9129,7 +8763,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9162,7 +8800,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9195,7 +8837,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9224,11 +8870,15 @@
         <v>14044.50222051</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9261,7 +8911,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9294,7 +8948,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9327,7 +8985,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9360,7 +9022,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9393,7 +9059,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9426,7 +9096,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9459,7 +9133,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9492,7 +9170,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9521,11 +9203,15 @@
         <v>13323.62512051001</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9554,11 +9240,15 @@
         <v>13474.92492051001</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9587,11 +9277,15 @@
         <v>13456.29532051001</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9624,7 +9318,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9657,7 +9355,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9690,7 +9392,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9719,11 +9425,15 @@
         <v>13484.46132051</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9752,11 +9462,15 @@
         <v>13484.56132051001</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9785,11 +9499,15 @@
         <v>13459.99572051001</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9818,11 +9536,15 @@
         <v>13507.82232051001</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9851,11 +9573,15 @@
         <v>13507.72232051001</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9888,7 +9614,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9917,11 +9647,15 @@
         <v>13507.72232051001</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9954,7 +9688,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9983,11 +9721,15 @@
         <v>13172.61382051001</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10016,11 +9758,15 @@
         <v>13172.61382051001</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10049,11 +9795,15 @@
         <v>13172.61382051001</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10082,11 +9832,15 @@
         <v>13172.61382051001</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10119,7 +9873,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10152,7 +9910,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10185,7 +9947,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10218,7 +9984,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10251,7 +10021,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10284,7 +10058,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10317,7 +10095,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10346,11 +10128,15 @@
         <v>11909.26752051001</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10379,11 +10165,15 @@
         <v>11909.26752051001</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10412,11 +10202,15 @@
         <v>11909.16752051001</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10445,11 +10239,15 @@
         <v>11909.06752051001</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10482,7 +10280,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10515,7 +10317,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10548,7 +10354,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10581,7 +10391,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10614,7 +10428,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10647,7 +10465,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10680,7 +10502,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10713,7 +10539,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10742,11 +10572,15 @@
         <v>11983.68672051</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10779,7 +10613,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10808,11 +10646,15 @@
         <v>11983.58672051</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10841,11 +10683,15 @@
         <v>11883.12902051</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10874,11 +10720,15 @@
         <v>11908.26602051</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10907,11 +10757,15 @@
         <v>11908.36602051</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10940,11 +10794,15 @@
         <v>11908.16602051</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10973,11 +10831,15 @@
         <v>11908.06602051</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11010,7 +10872,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11039,11 +10905,15 @@
         <v>11736.16312051</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11072,11 +10942,15 @@
         <v>11768.75312051</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11105,11 +10979,15 @@
         <v>11768.65312051</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11138,11 +11016,15 @@
         <v>12000.96562051</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11175,7 +11057,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11208,7 +11094,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11241,7 +11131,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11274,7 +11168,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11307,7 +11205,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11340,7 +11242,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11373,7 +11279,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11406,13 +11316,17 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
       <c r="M311" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest HC.xlsx
+++ b/BackTest/2019-10-26 BackTest HC.xlsx
@@ -451,7 +451,7 @@
         <v>8341.5782</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>8341.5782</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1610</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -525,7 +529,11 @@
       <c r="J4" t="n">
         <v>1610</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -603,48 +611,48 @@
       <c r="J6" t="n">
         <v>1610</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1610</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1610</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1610</v>
+      </c>
+      <c r="F7" t="n">
+        <v>248.849</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8341.5782</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1610</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1610</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1610</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1610</v>
-      </c>
-      <c r="F7" t="n">
-        <v>248.849</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8341.5782</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1610</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -837,9 +845,11 @@
         <v>8446.361699999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1604</v>
+      </c>
       <c r="J12" t="n">
         <v>1610</v>
       </c>
@@ -876,7 +886,7 @@
         <v>8446.4797</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
@@ -915,7 +925,7 @@
         <v>8446.4797</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
@@ -954,7 +964,7 @@
         <v>8446.5797</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
@@ -993,7 +1003,7 @@
         <v>8415.0753</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
@@ -1032,7 +1042,7 @@
         <v>8415.175300000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
@@ -1071,7 +1081,7 @@
         <v>8399.616</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
@@ -1110,2892 +1120,3416 @@
         <v>8233.3477</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>1610</v>
       </c>
       <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1618</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1618</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1618</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1618</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8233.5177</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1626</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1626</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1626</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1626</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8233.617700000001</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1631</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1631</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1631</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8233.737700000001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1615</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1617</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1617</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1615</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1075</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7158.737700000001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1622</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1622</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1622</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1622</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20.4627</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7179.200400000002</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1642</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1642</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1642</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1642</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7179.340400000002</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1643</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1643</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1643</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1643</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7179.450400000002</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1615</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1615</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1615</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1615</v>
+      </c>
+      <c r="F27" t="n">
+        <v>17.6065</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7161.843900000002</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1616</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1616</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1616</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1616</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9661.843900000002</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1619</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1619</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1619</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1619</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9661.943900000002</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1632</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1632</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1632</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1632</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9662.123900000002</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1634</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1634</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1634</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1634</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9662.223900000003</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1632</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1632</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1630</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1559.2464</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8102.977500000003</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1642</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1642</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1642</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1642</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8103.087500000002</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1619</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1619</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1619</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1619</v>
+      </c>
+      <c r="F34" t="n">
+        <v>18.2787</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8084.808800000003</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1635</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1635</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1635</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1635</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G35" t="n">
+        <v>8084.988800000003</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1639</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1639</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1639</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8085.088800000003</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1621</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1621</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1621</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1621</v>
+      </c>
+      <c r="F37" t="n">
+        <v>18.585</v>
+      </c>
+      <c r="G37" t="n">
+        <v>8066.503800000003</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1638</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1638</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1638</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1638</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8066.603800000004</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1621</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1638</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1638</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1621</v>
+      </c>
+      <c r="F39" t="n">
+        <v>16.1017</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8066.603800000004</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1616</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1616</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1616</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1616</v>
+      </c>
+      <c r="F40" t="n">
+        <v>16.6685</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8049.935300000004</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1637</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1637</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1637</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1637</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8050.035300000004</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1618</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1618</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1618</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1618</v>
+      </c>
+      <c r="F42" t="n">
+        <v>33.337</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8016.698300000004</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1636</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1636</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1636</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1636</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>8016.798300000004</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1641</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1641</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1641</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1641</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G44" t="n">
+        <v>8016.908300000004</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1635</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1635</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1635</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1635</v>
+      </c>
+      <c r="F45" t="n">
+        <v>16.458</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8000.450300000004</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1640</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1640</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1640</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1640</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8000.568300000004</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1630</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1631</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1630</v>
+      </c>
+      <c r="F47" t="n">
+        <v>766.67</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7233.898300000004</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1638</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1639</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1639</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1638</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7234.108300000004</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1630</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1631</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1630</v>
+      </c>
+      <c r="F49" t="n">
+        <v>906.4425</v>
+      </c>
+      <c r="G49" t="n">
+        <v>6327.665800000004</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1638</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1638</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1638</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1638</v>
+      </c>
+      <c r="F50" t="n">
+        <v>143.3888</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6471.054600000004</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1639</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1639</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1639</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6471.154600000004</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1640</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1640</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1640</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1640</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6471.254600000005</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1624</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1624</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1624</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1624</v>
+      </c>
+      <c r="F53" t="n">
+        <v>27.6131</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6443.641500000005</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1639</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1639</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1639</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6443.751500000005</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1638</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1639</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1639</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1638</v>
+      </c>
+      <c r="F55" t="n">
+        <v>75.34099999999999</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6443.751500000005</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1640</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1640</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1639</v>
+      </c>
+      <c r="F56" t="n">
+        <v>161.6615</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6605.413000000005</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1640</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1641</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1641</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1640</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1656.5618</v>
+      </c>
+      <c r="G57" t="n">
+        <v>8261.974800000005</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1641</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1641</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1641</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1641</v>
+      </c>
+      <c r="F58" t="n">
+        <v>162.6896</v>
+      </c>
+      <c r="G58" t="n">
+        <v>8261.974800000005</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1641</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1641</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1641</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1641</v>
+      </c>
+      <c r="F59" t="n">
+        <v>45.5204</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8261.974800000005</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1643</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1643</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1643</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1643</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>8262.074800000006</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1643</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1645</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1645</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1643</v>
+      </c>
+      <c r="F61" t="n">
+        <v>63.5203</v>
+      </c>
+      <c r="G61" t="n">
+        <v>8325.595100000006</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1647</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1653</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1653</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1647</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G62" t="n">
+        <v>8330.195100000006</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1651</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1698</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3373.4672</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4956.727900000006</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1670</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1670</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F64" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4976.827900000007</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1652</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1652</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1652</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1652</v>
+      </c>
+      <c r="F65" t="n">
+        <v>17.3367</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4959.491200000007</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1666</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1666</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1666</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1666</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4959.591200000007</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1639</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1639</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1639</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1639</v>
+      </c>
+      <c r="F67" t="n">
+        <v>17.246</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4942.345200000007</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1655</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1655</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1655</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1655</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4942.525200000007</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1657</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1657</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1657</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1657</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4942.635200000007</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1645</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1642</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1645</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1642</v>
+      </c>
+      <c r="F70" t="n">
+        <v>500</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4442.635200000007</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1655</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1655</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1655</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1655</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4442.815200000007</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1656</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1656</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1656</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1656</v>
+      </c>
+      <c r="F72" t="n">
+        <v>11.3806</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4454.195800000008</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1656</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1656</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1656</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1656</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.6194</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4454.195800000008</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1656</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1656</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1656</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1656</v>
+      </c>
+      <c r="F74" t="n">
+        <v>22.5071</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4454.195800000008</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1645</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1645</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1645</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1645</v>
+      </c>
+      <c r="F75" t="n">
+        <v>24.0349</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4430.160900000008</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1657</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1657</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1657</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1657</v>
+      </c>
+      <c r="F76" t="n">
+        <v>113.8458</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4544.006700000008</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1672</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1672</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1672</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1672</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4544.116700000008</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1660</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1660</v>
+      </c>
+      <c r="F78" t="n">
+        <v>21.5323</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4522.584400000008</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1674</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1674</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1674</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1674</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="G79" t="n">
+        <v>4522.702400000008</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1697</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1697</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1680</v>
+      </c>
+      <c r="F80" t="n">
+        <v>20</v>
+      </c>
+      <c r="G80" t="n">
+        <v>4542.702400000008</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1697</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1702</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1702</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1697</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1082.5127</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5625.215100000009</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1691</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1711</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3521.3478</v>
+      </c>
+      <c r="G82" t="n">
+        <v>9146.562900000008</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1717</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1717</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1717</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1717</v>
+      </c>
+      <c r="F83" t="n">
+        <v>33.0991</v>
+      </c>
+      <c r="G83" t="n">
+        <v>9179.662000000008</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1719</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1720</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1719</v>
+      </c>
+      <c r="F84" t="n">
+        <v>119.8599</v>
+      </c>
+      <c r="G84" t="n">
+        <v>9299.521900000007</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1720</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1720</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F85" t="n">
+        <v>125.4557</v>
+      </c>
+      <c r="G85" t="n">
+        <v>9299.521900000007</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1720</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1745</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1745</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>9299.621900000007</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1722</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1749</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1749</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1722</v>
+      </c>
+      <c r="F87" t="n">
+        <v>265.2989</v>
+      </c>
+      <c r="G87" t="n">
+        <v>9564.920800000007</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1749</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1753</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1753</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1749</v>
+      </c>
+      <c r="F88" t="n">
+        <v>925.6249</v>
+      </c>
+      <c r="G88" t="n">
+        <v>10490.54570000001</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1752</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1752</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F89" t="n">
+        <v>118.1728</v>
+      </c>
+      <c r="G89" t="n">
+        <v>10372.37290000001</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1753</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1753</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1753</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>10372.47290000001</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1753</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1753</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F91" t="n">
+        <v>341.2227</v>
+      </c>
+      <c r="G91" t="n">
+        <v>10372.47290000001</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1751</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1752</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1752</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1751</v>
+      </c>
+      <c r="F92" t="n">
+        <v>421.4596</v>
+      </c>
+      <c r="G92" t="n">
+        <v>9951.013300000008</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1752</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1752</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F93" t="n">
+        <v>443.0247</v>
+      </c>
+      <c r="G93" t="n">
+        <v>9951.013300000008</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1752</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1752</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F94" t="n">
+        <v>413.1396</v>
+      </c>
+      <c r="G94" t="n">
+        <v>9951.013300000008</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1725</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1725</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5.5382</v>
+      </c>
+      <c r="G95" t="n">
+        <v>9945.475100000007</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1753</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1753</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1725</v>
+      </c>
+      <c r="F96" t="n">
+        <v>557.9104</v>
+      </c>
+      <c r="G96" t="n">
+        <v>10503.38550000001</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1753</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1753</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F97" t="n">
+        <v>455</v>
+      </c>
+      <c r="G97" t="n">
+        <v>10503.38550000001</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1744</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1745</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1745</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1744</v>
+      </c>
+      <c r="F98" t="n">
+        <v>131.9638</v>
+      </c>
+      <c r="G98" t="n">
+        <v>10371.42170000001</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1755</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1726</v>
+      </c>
+      <c r="F99" t="n">
+        <v>528.1994</v>
+      </c>
+      <c r="G99" t="n">
+        <v>9843.222300000009</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1729</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1729</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1729</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1729</v>
+      </c>
+      <c r="F100" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="G100" t="n">
+        <v>9873.912300000009</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1778</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1778</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1753</v>
+      </c>
+      <c r="F101" t="n">
+        <v>260</v>
+      </c>
+      <c r="G101" t="n">
+        <v>10133.91230000001</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1755</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1755</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1755</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1755</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100</v>
+      </c>
+      <c r="G102" t="n">
+        <v>10033.91230000001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1748</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1750</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1748</v>
+      </c>
+      <c r="F103" t="n">
+        <v>91.1999</v>
+      </c>
+      <c r="G103" t="n">
+        <v>9942.712400000009</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1768</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1751</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1768</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1751</v>
+      </c>
+      <c r="F104" t="n">
+        <v>253.8615</v>
+      </c>
+      <c r="G104" t="n">
+        <v>10196.57390000001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1777</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1777</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1778</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1777</v>
+      </c>
+      <c r="F105" t="n">
+        <v>578.3806</v>
+      </c>
+      <c r="G105" t="n">
+        <v>10774.95450000001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1777</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1763</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1777</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1762</v>
+      </c>
+      <c r="F106" t="n">
+        <v>76.6806</v>
+      </c>
+      <c r="G106" t="n">
+        <v>10698.27390000001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1610</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1618</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1618</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1618</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1618</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8233.5177</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1626</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1626</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1626</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1626</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>8233.617700000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1631</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1631</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1631</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1631</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G22" t="n">
-        <v>8233.737700000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1615</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1617</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1617</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1615</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1075</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7158.737700000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1622</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1622</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1622</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1622</v>
-      </c>
-      <c r="F24" t="n">
-        <v>20.4627</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7179.200400000002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1642</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1642</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1642</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1642</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7179.340400000002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1643</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1643</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1643</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1643</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G26" t="n">
-        <v>7179.450400000002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1615</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1615</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1615</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1615</v>
-      </c>
-      <c r="F27" t="n">
-        <v>17.6065</v>
-      </c>
-      <c r="G27" t="n">
-        <v>7161.843900000002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1616</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1616</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1616</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1616</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G28" t="n">
-        <v>9661.843900000002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1619</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1619</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1619</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1619</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>9661.943900000002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1632</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1632</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1632</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1632</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="G30" t="n">
-        <v>9662.123900000002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1634</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1634</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1634</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1634</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>9662.223900000003</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1630</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1632</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1632</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1630</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1559.2464</v>
-      </c>
-      <c r="G32" t="n">
-        <v>8102.977500000003</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1642</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1642</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1642</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1642</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G33" t="n">
-        <v>8103.087500000002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1619</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1619</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1619</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1619</v>
-      </c>
-      <c r="F34" t="n">
-        <v>18.2787</v>
-      </c>
-      <c r="G34" t="n">
-        <v>8084.808800000003</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1635</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1635</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1635</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1635</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="G35" t="n">
-        <v>8084.988800000003</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1639</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1639</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1639</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1639</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>8085.088800000003</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1621</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1621</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1621</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1621</v>
-      </c>
-      <c r="F37" t="n">
-        <v>18.585</v>
-      </c>
-      <c r="G37" t="n">
-        <v>8066.503800000003</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1638</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1638</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1638</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1638</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>8066.603800000004</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1621</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1638</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1638</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1621</v>
-      </c>
-      <c r="F39" t="n">
-        <v>16.1017</v>
-      </c>
-      <c r="G39" t="n">
-        <v>8066.603800000004</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1616</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1616</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1616</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1616</v>
-      </c>
-      <c r="F40" t="n">
-        <v>16.6685</v>
-      </c>
-      <c r="G40" t="n">
-        <v>8049.935300000004</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1637</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1637</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1637</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1637</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>8050.035300000004</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1618</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1618</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1618</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1618</v>
-      </c>
-      <c r="F42" t="n">
-        <v>33.337</v>
-      </c>
-      <c r="G42" t="n">
-        <v>8016.698300000004</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1636</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1636</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1636</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1636</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G43" t="n">
-        <v>8016.798300000004</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1641</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1641</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1641</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1641</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G44" t="n">
-        <v>8016.908300000004</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1635</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1635</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1635</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1635</v>
-      </c>
-      <c r="F45" t="n">
-        <v>16.458</v>
-      </c>
-      <c r="G45" t="n">
-        <v>8000.450300000004</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1640</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1640</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1640</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1640</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="G46" t="n">
-        <v>8000.568300000004</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1631</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1630</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1631</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1630</v>
-      </c>
-      <c r="F47" t="n">
-        <v>766.67</v>
-      </c>
-      <c r="G47" t="n">
-        <v>7233.898300000004</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1638</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1639</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1639</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1638</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="G48" t="n">
-        <v>7234.108300000004</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1631</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1630</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1631</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1630</v>
-      </c>
-      <c r="F49" t="n">
-        <v>906.4425</v>
-      </c>
-      <c r="G49" t="n">
-        <v>6327.665800000004</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1638</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1638</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1638</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1638</v>
-      </c>
-      <c r="F50" t="n">
-        <v>143.3888</v>
-      </c>
-      <c r="G50" t="n">
-        <v>6471.054600000004</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1639</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1639</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1639</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1639</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>6471.154600000004</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1640</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1640</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1640</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1640</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>6471.254600000005</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>1624</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1624</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1624</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1624</v>
-      </c>
-      <c r="F53" t="n">
-        <v>27.6131</v>
-      </c>
-      <c r="G53" t="n">
-        <v>6443.641500000005</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1639</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1639</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1639</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1639</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G54" t="n">
-        <v>6443.751500000005</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>1638</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1639</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1639</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1638</v>
-      </c>
-      <c r="F55" t="n">
-        <v>75.34099999999999</v>
-      </c>
-      <c r="G55" t="n">
-        <v>6443.751500000005</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1639</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1640</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1640</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1639</v>
-      </c>
-      <c r="F56" t="n">
-        <v>161.6615</v>
-      </c>
-      <c r="G56" t="n">
-        <v>6605.413000000005</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>1640</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1641</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1641</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1640</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1656.5618</v>
-      </c>
-      <c r="G57" t="n">
-        <v>8261.974800000005</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1641</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1641</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1641</v>
-      </c>
-      <c r="E58" t="n">
-        <v>1641</v>
-      </c>
-      <c r="F58" t="n">
-        <v>162.6896</v>
-      </c>
-      <c r="G58" t="n">
-        <v>8261.974800000005</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1641</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1641</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1641</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1641</v>
-      </c>
-      <c r="F59" t="n">
-        <v>45.5204</v>
-      </c>
-      <c r="G59" t="n">
-        <v>8261.974800000005</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1643</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1643</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1643</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1643</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G60" t="n">
-        <v>8262.074800000006</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1643</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1645</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1645</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1643</v>
-      </c>
-      <c r="F61" t="n">
-        <v>63.5203</v>
-      </c>
-      <c r="G61" t="n">
-        <v>8325.595100000006</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1647</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1653</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1653</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1647</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G62" t="n">
-        <v>8330.195100000006</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1651</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1650</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1698</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1650</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3373.4672</v>
-      </c>
-      <c r="G63" t="n">
-        <v>4956.727900000006</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1650</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1670</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1670</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1650</v>
-      </c>
-      <c r="F64" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="G64" t="n">
-        <v>4976.827900000007</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1652</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1652</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1652</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1652</v>
-      </c>
-      <c r="F65" t="n">
-        <v>17.3367</v>
-      </c>
-      <c r="G65" t="n">
-        <v>4959.491200000007</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1666</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1666</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1666</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1666</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G66" t="n">
-        <v>4959.591200000007</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1639</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1639</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1639</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1639</v>
-      </c>
-      <c r="F67" t="n">
-        <v>17.246</v>
-      </c>
-      <c r="G67" t="n">
-        <v>4942.345200000007</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1655</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1655</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1655</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1655</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="G68" t="n">
-        <v>4942.525200000007</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1657</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1657</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1657</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1657</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G69" t="n">
-        <v>4942.635200000007</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1645</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1642</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1645</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1642</v>
-      </c>
-      <c r="F70" t="n">
-        <v>500</v>
-      </c>
-      <c r="G70" t="n">
-        <v>4442.635200000007</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1655</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1655</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1655</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1655</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="G71" t="n">
-        <v>4442.815200000007</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1656</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1656</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1656</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1656</v>
-      </c>
-      <c r="F72" t="n">
-        <v>11.3806</v>
-      </c>
-      <c r="G72" t="n">
-        <v>4454.195800000008</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1656</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1656</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1656</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1656</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.6194</v>
-      </c>
-      <c r="G73" t="n">
-        <v>4454.195800000008</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1656</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1656</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1656</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1656</v>
-      </c>
-      <c r="F74" t="n">
-        <v>22.5071</v>
-      </c>
-      <c r="G74" t="n">
-        <v>4454.195800000008</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1645</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1645</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1645</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1645</v>
-      </c>
-      <c r="F75" t="n">
-        <v>24.0349</v>
-      </c>
-      <c r="G75" t="n">
-        <v>4430.160900000008</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1657</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1657</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1657</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1657</v>
-      </c>
-      <c r="F76" t="n">
-        <v>113.8458</v>
-      </c>
-      <c r="G76" t="n">
-        <v>4544.006700000008</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1672</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1672</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1672</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1672</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G77" t="n">
-        <v>4544.116700000008</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1660</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1660</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1660</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1660</v>
-      </c>
-      <c r="F78" t="n">
-        <v>21.5323</v>
-      </c>
-      <c r="G78" t="n">
-        <v>4522.584400000008</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1674</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1674</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1674</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1674</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="G79" t="n">
-        <v>4522.702400000008</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1680</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1697</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1697</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1680</v>
-      </c>
-      <c r="F80" t="n">
-        <v>20</v>
-      </c>
-      <c r="G80" t="n">
-        <v>4542.702400000008</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1697</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1702</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1702</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1697</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1082.5127</v>
-      </c>
-      <c r="G81" t="n">
-        <v>5625.215100000009</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1691</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1711</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1711</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1691</v>
-      </c>
-      <c r="F82" t="n">
-        <v>3521.3478</v>
-      </c>
-      <c r="G82" t="n">
-        <v>9146.562900000008</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1717</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1717</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1717</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1717</v>
-      </c>
-      <c r="F83" t="n">
-        <v>33.0991</v>
-      </c>
-      <c r="G83" t="n">
-        <v>9179.662000000008</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1719</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1720</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1720</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1719</v>
-      </c>
-      <c r="F84" t="n">
-        <v>119.8599</v>
-      </c>
-      <c r="G84" t="n">
-        <v>9299.521900000007</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1720</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1720</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1720</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1720</v>
-      </c>
-      <c r="F85" t="n">
-        <v>125.4557</v>
-      </c>
-      <c r="G85" t="n">
-        <v>9299.521900000007</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1720</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1745</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1745</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1720</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G86" t="n">
-        <v>9299.621900000007</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1722</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1749</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1749</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1722</v>
-      </c>
-      <c r="F87" t="n">
-        <v>265.2989</v>
-      </c>
-      <c r="G87" t="n">
-        <v>9564.920800000007</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1749</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1753</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1753</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1749</v>
-      </c>
-      <c r="F88" t="n">
-        <v>925.6249</v>
-      </c>
-      <c r="G88" t="n">
-        <v>10490.54570000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1752</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1752</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1752</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1752</v>
-      </c>
-      <c r="F89" t="n">
-        <v>118.1728</v>
-      </c>
-      <c r="G89" t="n">
-        <v>10372.37290000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1753</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1753</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1753</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1753</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G90" t="n">
-        <v>10372.47290000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1752</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1753</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1753</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1752</v>
-      </c>
-      <c r="F91" t="n">
-        <v>341.2227</v>
-      </c>
-      <c r="G91" t="n">
-        <v>10372.47290000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1751</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1752</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1752</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1751</v>
-      </c>
-      <c r="F92" t="n">
-        <v>421.4596</v>
-      </c>
-      <c r="G92" t="n">
-        <v>9951.013300000008</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1752</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1752</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1752</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1752</v>
-      </c>
-      <c r="F93" t="n">
-        <v>443.0247</v>
-      </c>
-      <c r="G93" t="n">
-        <v>9951.013300000008</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1752</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1752</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1752</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1752</v>
-      </c>
-      <c r="F94" t="n">
-        <v>413.1396</v>
-      </c>
-      <c r="G94" t="n">
-        <v>9951.013300000008</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1725</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1725</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1725</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1725</v>
-      </c>
-      <c r="F95" t="n">
-        <v>5.5382</v>
-      </c>
-      <c r="G95" t="n">
-        <v>9945.475100000007</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1725</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1753</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1753</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1725</v>
-      </c>
-      <c r="F96" t="n">
-        <v>557.9104</v>
-      </c>
-      <c r="G96" t="n">
-        <v>10503.38550000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1752</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1753</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1753</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1752</v>
-      </c>
-      <c r="F97" t="n">
-        <v>455</v>
-      </c>
-      <c r="G97" t="n">
-        <v>10503.38550000001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1744</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1745</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1745</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1744</v>
-      </c>
-      <c r="F98" t="n">
-        <v>131.9638</v>
-      </c>
-      <c r="G98" t="n">
-        <v>10371.42170000001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1753</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1755</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1726</v>
-      </c>
-      <c r="F99" t="n">
-        <v>528.1994</v>
-      </c>
-      <c r="G99" t="n">
-        <v>9843.222300000009</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1729</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1729</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1729</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1729</v>
-      </c>
-      <c r="F100" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="G100" t="n">
-        <v>9873.912300000009</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1753</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1778</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1778</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1753</v>
-      </c>
-      <c r="F101" t="n">
-        <v>260</v>
-      </c>
-      <c r="G101" t="n">
-        <v>10133.91230000001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1755</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1755</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1755</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1755</v>
-      </c>
-      <c r="F102" t="n">
-        <v>100</v>
-      </c>
-      <c r="G102" t="n">
-        <v>10033.91230000001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1750</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1748</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1750</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1748</v>
-      </c>
-      <c r="F103" t="n">
-        <v>91.1999</v>
-      </c>
-      <c r="G103" t="n">
-        <v>9942.712400000009</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1768</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1751</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1768</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1751</v>
-      </c>
-      <c r="F104" t="n">
-        <v>253.8615</v>
-      </c>
-      <c r="G104" t="n">
-        <v>10196.57390000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1777</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1777</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1778</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1777</v>
-      </c>
-      <c r="F105" t="n">
-        <v>578.3806</v>
-      </c>
-      <c r="G105" t="n">
-        <v>10774.95450000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1777</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1763</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1777</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1762</v>
-      </c>
-      <c r="F106" t="n">
-        <v>76.6806</v>
-      </c>
-      <c r="G106" t="n">
-        <v>10698.27390000001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>1.090031055900621</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1.008695652173913</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4020,7 +4554,7 @@
         <v>10715.13220000001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4053,7 +4587,7 @@
         <v>10523.15620000001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4086,7 +4620,7 @@
         <v>10559.03460000001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4119,7 +4653,7 @@
         <v>10559.33460000001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4152,7 +4686,7 @@
         <v>10249.55000000001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4185,7 +4719,7 @@
         <v>10231.13510000001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4218,7 +4752,7 @@
         <v>10496.39760000001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4251,7 +4785,7 @@
         <v>10571.74010000001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4284,7 +4818,7 @@
         <v>10571.74010000001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4317,7 +4851,7 @@
         <v>10637.18010000001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4350,7 +4884,7 @@
         <v>10913.91110000001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4383,7 +4917,7 @@
         <v>10903.91110000001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4416,7 +4950,7 @@
         <v>10904.01110000001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4449,7 +4983,7 @@
         <v>4904.011100000011</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4482,7 +5016,7 @@
         <v>4904.111100000011</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4515,7 +5049,7 @@
         <v>5852.265600000011</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4548,7 +5082,7 @@
         <v>6984.20610000001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4812,7 +5346,7 @@
         <v>7556.87315828001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -6264,17 +6798,11 @@
         <v>6478.074758280007</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1701</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6307,11 +6835,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6344,11 +6868,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6381,11 +6901,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6418,11 +6934,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6455,11 +6967,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6492,11 +7000,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6525,17 +7029,11 @@
         <v>1932.803458280007</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6564,17 +7062,11 @@
         <v>1771.213958280007</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6607,11 +7099,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6640,17 +7128,11 @@
         <v>1808.653958280007</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6679,17 +7161,11 @@
         <v>1717.003958280007</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6718,17 +7194,11 @@
         <v>1717.103958280007</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6761,11 +7231,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6798,11 +7264,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6835,11 +7297,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6872,11 +7330,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6909,11 +7363,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6946,11 +7396,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6979,17 +7425,11 @@
         <v>2165.797358280007</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1697</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7022,11 +7462,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7059,11 +7495,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7096,11 +7528,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7129,17 +7557,11 @@
         <v>-196.6143417199926</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1721</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7172,11 +7594,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7209,11 +7627,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7246,11 +7660,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7283,11 +7693,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7320,11 +7726,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7357,11 +7759,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7394,11 +7792,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7431,11 +7825,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7468,11 +7858,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7505,11 +7891,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7542,11 +7924,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7957,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7616,11 +7990,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7653,11 +8023,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7690,11 +8056,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7727,11 +8089,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7764,11 +8122,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7801,11 +8155,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7838,11 +8188,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7875,11 +8221,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7912,11 +8254,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7949,11 +8287,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7986,11 +8320,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8023,11 +8353,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8060,11 +8386,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8097,11 +8419,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8134,11 +8452,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8171,11 +8485,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8208,11 +8518,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8245,11 +8551,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8282,11 +8584,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8319,11 +8617,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8356,11 +8650,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8393,11 +8683,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8430,11 +8716,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8467,11 +8749,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8504,11 +8782,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8541,11 +8815,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8578,11 +8848,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8615,11 +8881,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8652,11 +8914,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8689,11 +8947,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8726,11 +8980,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8763,11 +9013,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +9046,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8837,11 +9079,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8874,11 +9112,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8911,11 +9145,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8948,11 +9178,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8985,11 +9211,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9022,11 +9244,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9059,11 +9277,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9096,11 +9310,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9133,11 +9343,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9170,11 +9376,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9207,11 +9409,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9244,11 +9442,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9281,11 +9475,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9318,11 +9508,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9355,11 +9541,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9392,11 +9574,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9429,11 +9607,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9466,11 +9640,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9503,11 +9673,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9540,11 +9706,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9577,11 +9739,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9614,11 +9772,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9651,11 +9805,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9688,11 +9838,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9725,11 +9871,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9762,11 +9904,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9799,11 +9937,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9836,11 +9970,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9873,11 +10003,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9910,11 +10036,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9947,11 +10069,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9984,11 +10102,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10135,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10058,11 +10168,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10095,11 +10201,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10132,11 +10234,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10169,11 +10267,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10206,11 +10300,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10243,11 +10333,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10280,11 +10366,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10317,11 +10399,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10354,11 +10432,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10391,11 +10465,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10428,11 +10498,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10465,11 +10531,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10502,11 +10564,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10539,11 +10597,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10576,11 +10630,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10613,11 +10663,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10650,11 +10696,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10687,11 +10729,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10724,11 +10762,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10761,11 +10795,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10798,11 +10828,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10835,11 +10861,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10872,11 +10894,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10909,11 +10927,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10946,11 +10960,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10983,11 +10993,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11020,11 +11026,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11057,11 +11059,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11094,11 +11092,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11131,11 +11125,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11168,11 +11158,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11205,11 +11191,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11224,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11279,11 +11257,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11316,11 +11290,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest HC.xlsx
+++ b/BackTest/2019-10-26 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M311"/>
+  <dimension ref="A1:L311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>46.9755</v>
       </c>
       <c r="G2" t="n">
-        <v>8341.5782</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>5.3077</v>
       </c>
       <c r="G3" t="n">
-        <v>8341.5782</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>1610</v>
       </c>
       <c r="I3" t="n">
         <v>1610</v>
       </c>
-      <c r="J3" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>17.8099</v>
       </c>
       <c r="G4" t="n">
-        <v>8341.5782</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>1610</v>
       </c>
       <c r="I4" t="n">
         <v>1610</v>
       </c>
-      <c r="J4" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>25.3796</v>
       </c>
       <c r="G5" t="n">
-        <v>8341.5782</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>1610</v>
       </c>
       <c r="I5" t="n">
         <v>1610</v>
       </c>
-      <c r="J5" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>10.1067</v>
       </c>
       <c r="G6" t="n">
-        <v>8341.5782</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>1610</v>
       </c>
       <c r="I6" t="n">
         <v>1610</v>
       </c>
-      <c r="J6" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>248.849</v>
       </c>
       <c r="G7" t="n">
-        <v>8341.5782</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>1610</v>
       </c>
       <c r="I7" t="n">
         <v>1610</v>
       </c>
-      <c r="J7" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +655,23 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>8342.5782</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>1610</v>
       </c>
       <c r="I8" t="n">
         <v>1610</v>
       </c>
-      <c r="J8" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,26 +693,23 @@
         <v>133.0402</v>
       </c>
       <c r="G9" t="n">
-        <v>8475.618399999999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>1612</v>
       </c>
       <c r="I9" t="n">
-        <v>1612</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K9" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,26 +731,23 @@
         <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>8475.7184</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>1614</v>
       </c>
       <c r="I10" t="n">
-        <v>1614</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K10" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,26 +769,23 @@
         <v>29.5367</v>
       </c>
       <c r="G11" t="n">
-        <v>8446.181699999999</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>1618</v>
       </c>
       <c r="I11" t="n">
-        <v>1618</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K11" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,26 +807,23 @@
         <v>0.18</v>
       </c>
       <c r="G12" t="n">
-        <v>8446.361699999999</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>1604</v>
       </c>
       <c r="I12" t="n">
-        <v>1604</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K12" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -883,24 +845,21 @@
         <v>0.118</v>
       </c>
       <c r="G13" t="n">
-        <v>8446.4797</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -922,24 +881,21 @@
         <v>28.5851</v>
       </c>
       <c r="G14" t="n">
-        <v>8446.4797</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -961,24 +917,21 @@
         <v>0.1</v>
       </c>
       <c r="G15" t="n">
-        <v>8446.5797</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1000,24 +953,21 @@
         <v>31.5044</v>
       </c>
       <c r="G16" t="n">
-        <v>8415.0753</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1039,24 +989,21 @@
         <v>0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>8415.175300000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1078,24 +1025,21 @@
         <v>15.5593</v>
       </c>
       <c r="G18" t="n">
-        <v>8399.616</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1117,24 +1061,23 @@
         <v>166.2683</v>
       </c>
       <c r="G19" t="n">
-        <v>8233.3477</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K19" t="inlineStr">
+        <v>1612</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1156,24 +1099,23 @@
         <v>0.17</v>
       </c>
       <c r="G20" t="n">
-        <v>8233.5177</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K20" t="inlineStr">
+        <v>1610</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1195,24 +1137,21 @@
         <v>0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>8233.617700000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1234,24 +1173,21 @@
         <v>0.12</v>
       </c>
       <c r="G22" t="n">
-        <v>8233.737700000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1273,24 +1209,21 @@
         <v>1075</v>
       </c>
       <c r="G23" t="n">
-        <v>7158.737700000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1312,24 +1245,21 @@
         <v>20.4627</v>
       </c>
       <c r="G24" t="n">
-        <v>7179.200400000002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1351,24 +1281,21 @@
         <v>0.14</v>
       </c>
       <c r="G25" t="n">
-        <v>7179.340400000002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1390,24 +1317,21 @@
         <v>0.11</v>
       </c>
       <c r="G26" t="n">
-        <v>7179.450400000002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1429,24 +1353,21 @@
         <v>17.6065</v>
       </c>
       <c r="G27" t="n">
-        <v>7161.843900000002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1468,24 +1389,21 @@
         <v>2500</v>
       </c>
       <c r="G28" t="n">
-        <v>9661.843900000002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1507,24 +1425,21 @@
         <v>0.1</v>
       </c>
       <c r="G29" t="n">
-        <v>9661.943900000002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1546,24 +1461,21 @@
         <v>0.18</v>
       </c>
       <c r="G30" t="n">
-        <v>9662.123900000002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1585,24 +1497,21 @@
         <v>0.1</v>
       </c>
       <c r="G31" t="n">
-        <v>9662.223900000003</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1624,24 +1533,21 @@
         <v>1559.2464</v>
       </c>
       <c r="G32" t="n">
-        <v>8102.977500000003</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1663,24 +1569,21 @@
         <v>0.11</v>
       </c>
       <c r="G33" t="n">
-        <v>8103.087500000002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1702,24 +1605,21 @@
         <v>18.2787</v>
       </c>
       <c r="G34" t="n">
-        <v>8084.808800000003</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1741,24 +1641,21 @@
         <v>0.18</v>
       </c>
       <c r="G35" t="n">
-        <v>8084.988800000003</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1780,24 +1677,21 @@
         <v>0.1</v>
       </c>
       <c r="G36" t="n">
-        <v>8085.088800000003</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1819,24 +1713,21 @@
         <v>18.585</v>
       </c>
       <c r="G37" t="n">
-        <v>8066.503800000003</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1858,24 +1749,21 @@
         <v>0.1</v>
       </c>
       <c r="G38" t="n">
-        <v>8066.603800000004</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1897,24 +1785,21 @@
         <v>16.1017</v>
       </c>
       <c r="G39" t="n">
-        <v>8066.603800000004</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1936,24 +1821,21 @@
         <v>16.6685</v>
       </c>
       <c r="G40" t="n">
-        <v>8049.935300000004</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1975,24 +1857,21 @@
         <v>0.1</v>
       </c>
       <c r="G41" t="n">
-        <v>8050.035300000004</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2014,24 +1893,21 @@
         <v>33.337</v>
       </c>
       <c r="G42" t="n">
-        <v>8016.698300000004</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2053,24 +1929,21 @@
         <v>0.1</v>
       </c>
       <c r="G43" t="n">
-        <v>8016.798300000004</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2092,24 +1965,21 @@
         <v>0.11</v>
       </c>
       <c r="G44" t="n">
-        <v>8016.908300000004</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2131,24 +2001,21 @@
         <v>16.458</v>
       </c>
       <c r="G45" t="n">
-        <v>8000.450300000004</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2170,24 +2037,21 @@
         <v>0.118</v>
       </c>
       <c r="G46" t="n">
-        <v>8000.568300000004</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2209,24 +2073,21 @@
         <v>766.67</v>
       </c>
       <c r="G47" t="n">
-        <v>7233.898300000004</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2248,24 +2109,21 @@
         <v>0.21</v>
       </c>
       <c r="G48" t="n">
-        <v>7234.108300000004</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2287,24 +2145,21 @@
         <v>906.4425</v>
       </c>
       <c r="G49" t="n">
-        <v>6327.665800000004</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2326,24 +2181,21 @@
         <v>143.3888</v>
       </c>
       <c r="G50" t="n">
-        <v>6471.054600000004</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2365,24 +2217,21 @@
         <v>0.1</v>
       </c>
       <c r="G51" t="n">
-        <v>6471.154600000004</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2404,24 +2253,21 @@
         <v>0.1</v>
       </c>
       <c r="G52" t="n">
-        <v>6471.254600000005</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2443,24 +2289,21 @@
         <v>27.6131</v>
       </c>
       <c r="G53" t="n">
-        <v>6443.641500000005</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2482,24 +2325,21 @@
         <v>0.11</v>
       </c>
       <c r="G54" t="n">
-        <v>6443.751500000005</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2521,24 +2361,21 @@
         <v>75.34099999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>6443.751500000005</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2560,24 +2397,21 @@
         <v>161.6615</v>
       </c>
       <c r="G56" t="n">
-        <v>6605.413000000005</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K56" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2599,24 +2433,21 @@
         <v>1656.5618</v>
       </c>
       <c r="G57" t="n">
-        <v>8261.974800000005</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2638,24 +2469,21 @@
         <v>162.6896</v>
       </c>
       <c r="G58" t="n">
-        <v>8261.974800000005</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2677,24 +2505,21 @@
         <v>45.5204</v>
       </c>
       <c r="G59" t="n">
-        <v>8261.974800000005</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K59" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2716,24 +2541,21 @@
         <v>0.1</v>
       </c>
       <c r="G60" t="n">
-        <v>8262.074800000006</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2755,24 +2577,21 @@
         <v>63.5203</v>
       </c>
       <c r="G61" t="n">
-        <v>8325.595100000006</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K61" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2794,24 +2613,21 @@
         <v>4.6</v>
       </c>
       <c r="G62" t="n">
-        <v>8330.195100000006</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K62" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2833,24 +2649,21 @@
         <v>3373.4672</v>
       </c>
       <c r="G63" t="n">
-        <v>4956.727900000006</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K63" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2872,24 +2685,21 @@
         <v>20.1</v>
       </c>
       <c r="G64" t="n">
-        <v>4976.827900000007</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K64" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2911,24 +2721,21 @@
         <v>17.3367</v>
       </c>
       <c r="G65" t="n">
-        <v>4959.491200000007</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K65" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2950,24 +2757,21 @@
         <v>0.1</v>
       </c>
       <c r="G66" t="n">
-        <v>4959.591200000007</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K66" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2989,24 +2793,21 @@
         <v>17.246</v>
       </c>
       <c r="G67" t="n">
-        <v>4942.345200000007</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K67" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3028,24 +2829,21 @@
         <v>0.18</v>
       </c>
       <c r="G68" t="n">
-        <v>4942.525200000007</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K68" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3067,24 +2865,21 @@
         <v>0.11</v>
       </c>
       <c r="G69" t="n">
-        <v>4942.635200000007</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K69" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3106,24 +2901,21 @@
         <v>500</v>
       </c>
       <c r="G70" t="n">
-        <v>4442.635200000007</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K70" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3145,24 +2937,21 @@
         <v>0.18</v>
       </c>
       <c r="G71" t="n">
-        <v>4442.815200000007</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K71" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3184,24 +2973,21 @@
         <v>11.3806</v>
       </c>
       <c r="G72" t="n">
-        <v>4454.195800000008</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K72" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3223,24 +3009,21 @@
         <v>0.6194</v>
       </c>
       <c r="G73" t="n">
-        <v>4454.195800000008</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K73" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3262,24 +3045,21 @@
         <v>22.5071</v>
       </c>
       <c r="G74" t="n">
-        <v>4454.195800000008</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K74" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3301,24 +3081,21 @@
         <v>24.0349</v>
       </c>
       <c r="G75" t="n">
-        <v>4430.160900000008</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K75" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3340,24 +3117,21 @@
         <v>113.8458</v>
       </c>
       <c r="G76" t="n">
-        <v>4544.006700000008</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K76" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3379,24 +3153,21 @@
         <v>0.11</v>
       </c>
       <c r="G77" t="n">
-        <v>4544.116700000008</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K77" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3418,24 +3189,21 @@
         <v>21.5323</v>
       </c>
       <c r="G78" t="n">
-        <v>4522.584400000008</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3457,24 +3225,21 @@
         <v>0.118</v>
       </c>
       <c r="G79" t="n">
-        <v>4522.702400000008</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K79" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3496,24 +3261,21 @@
         <v>20</v>
       </c>
       <c r="G80" t="n">
-        <v>4542.702400000008</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K80" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3535,24 +3297,21 @@
         <v>1082.5127</v>
       </c>
       <c r="G81" t="n">
-        <v>5625.215100000009</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K81" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3574,24 +3333,21 @@
         <v>3521.3478</v>
       </c>
       <c r="G82" t="n">
-        <v>9146.562900000008</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3613,24 +3369,21 @@
         <v>33.0991</v>
       </c>
       <c r="G83" t="n">
-        <v>9179.662000000008</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3652,24 +3405,21 @@
         <v>119.8599</v>
       </c>
       <c r="G84" t="n">
-        <v>9299.521900000007</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K84" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3691,24 +3441,21 @@
         <v>125.4557</v>
       </c>
       <c r="G85" t="n">
-        <v>9299.521900000007</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3730,24 +3477,21 @@
         <v>0.1</v>
       </c>
       <c r="G86" t="n">
-        <v>9299.621900000007</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K86" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3769,24 +3513,21 @@
         <v>265.2989</v>
       </c>
       <c r="G87" t="n">
-        <v>9564.920800000007</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K87" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3808,24 +3549,21 @@
         <v>925.6249</v>
       </c>
       <c r="G88" t="n">
-        <v>10490.54570000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K88" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3847,24 +3585,21 @@
         <v>118.1728</v>
       </c>
       <c r="G89" t="n">
-        <v>10372.37290000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K89" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3886,24 +3621,21 @@
         <v>0.1</v>
       </c>
       <c r="G90" t="n">
-        <v>10372.47290000001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K90" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3925,24 +3657,21 @@
         <v>341.2227</v>
       </c>
       <c r="G91" t="n">
-        <v>10372.47290000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K91" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3964,24 +3693,21 @@
         <v>421.4596</v>
       </c>
       <c r="G92" t="n">
-        <v>9951.013300000008</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K92" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4003,24 +3729,21 @@
         <v>443.0247</v>
       </c>
       <c r="G93" t="n">
-        <v>9951.013300000008</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K93" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4042,24 +3765,21 @@
         <v>413.1396</v>
       </c>
       <c r="G94" t="n">
-        <v>9951.013300000008</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K94" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4081,24 +3801,21 @@
         <v>5.5382</v>
       </c>
       <c r="G95" t="n">
-        <v>9945.475100000007</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K95" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4120,24 +3837,21 @@
         <v>557.9104</v>
       </c>
       <c r="G96" t="n">
-        <v>10503.38550000001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4159,24 +3873,21 @@
         <v>455</v>
       </c>
       <c r="G97" t="n">
-        <v>10503.38550000001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K97" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4198,24 +3909,21 @@
         <v>131.9638</v>
       </c>
       <c r="G98" t="n">
-        <v>10371.42170000001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K98" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4237,24 +3945,21 @@
         <v>528.1994</v>
       </c>
       <c r="G99" t="n">
-        <v>9843.222300000009</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K99" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4276,24 +3981,21 @@
         <v>30.69</v>
       </c>
       <c r="G100" t="n">
-        <v>9873.912300000009</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K100" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4315,24 +4017,21 @@
         <v>260</v>
       </c>
       <c r="G101" t="n">
-        <v>10133.91230000001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4354,24 +4053,21 @@
         <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>10033.91230000001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K102" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4393,24 +4089,21 @@
         <v>91.1999</v>
       </c>
       <c r="G103" t="n">
-        <v>9942.712400000009</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K103" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4432,24 +4125,21 @@
         <v>253.8615</v>
       </c>
       <c r="G104" t="n">
-        <v>10196.57390000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K104" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4471,24 +4161,21 @@
         <v>578.3806</v>
       </c>
       <c r="G105" t="n">
-        <v>10774.95450000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K105" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4510,26 +4197,21 @@
         <v>76.6806</v>
       </c>
       <c r="G106" t="n">
-        <v>10698.27390000001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>1610</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1.090031055900621</v>
-      </c>
-      <c r="M106" t="n">
-        <v>1.008695652173913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4551,18 +4233,23 @@
         <v>16.8583</v>
       </c>
       <c r="G107" t="n">
-        <v>10715.13220000001</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1.090652173913043</v>
+      </c>
       <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>1.008695652173913</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4584,18 +4271,15 @@
         <v>191.976</v>
       </c>
       <c r="G108" t="n">
-        <v>10523.15620000001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4617,18 +4301,15 @@
         <v>35.8784</v>
       </c>
       <c r="G109" t="n">
-        <v>10559.03460000001</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4650,18 +4331,15 @@
         <v>0.3</v>
       </c>
       <c r="G110" t="n">
-        <v>10559.33460000001</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4683,18 +4361,15 @@
         <v>309.7846</v>
       </c>
       <c r="G111" t="n">
-        <v>10249.55000000001</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4716,18 +4391,15 @@
         <v>18.4149</v>
       </c>
       <c r="G112" t="n">
-        <v>10231.13510000001</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4749,18 +4421,15 @@
         <v>265.2625</v>
       </c>
       <c r="G113" t="n">
-        <v>10496.39760000001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4782,18 +4451,15 @@
         <v>75.3425</v>
       </c>
       <c r="G114" t="n">
-        <v>10571.74010000001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4815,18 +4481,15 @@
         <v>5.6211</v>
       </c>
       <c r="G115" t="n">
-        <v>10571.74010000001</v>
-      </c>
-      <c r="H115" t="n">
         <v>2</v>
       </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4848,18 +4511,15 @@
         <v>65.44</v>
       </c>
       <c r="G116" t="n">
-        <v>10637.18010000001</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4881,18 +4541,15 @@
         <v>276.731</v>
       </c>
       <c r="G117" t="n">
-        <v>10913.91110000001</v>
-      </c>
-      <c r="H117" t="n">
         <v>2</v>
       </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4914,18 +4571,15 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>10903.91110000001</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4947,18 +4601,15 @@
         <v>0.1</v>
       </c>
       <c r="G119" t="n">
-        <v>10904.01110000001</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4980,18 +4631,15 @@
         <v>6000</v>
       </c>
       <c r="G120" t="n">
-        <v>4904.011100000011</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5013,18 +4661,15 @@
         <v>0.1</v>
       </c>
       <c r="G121" t="n">
-        <v>4904.111100000011</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5046,18 +4691,15 @@
         <v>948.1545</v>
       </c>
       <c r="G122" t="n">
-        <v>5852.265600000011</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5079,18 +4721,15 @@
         <v>1131.9405</v>
       </c>
       <c r="G123" t="n">
-        <v>6984.20610000001</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5112,18 +4751,15 @@
         <v>18.6053</v>
       </c>
       <c r="G124" t="n">
-        <v>6965.60080000001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5145,18 +4781,15 @@
         <v>58.7914</v>
       </c>
       <c r="G125" t="n">
-        <v>7024.39220000001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5178,18 +4811,15 @@
         <v>306.8218</v>
       </c>
       <c r="G126" t="n">
-        <v>7331.21400000001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5211,18 +4841,15 @@
         <v>571.1276</v>
       </c>
       <c r="G127" t="n">
-        <v>7902.34160000001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5244,18 +4871,15 @@
         <v>752.0524</v>
       </c>
       <c r="G128" t="n">
-        <v>8654.394000000009</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5277,18 +4901,15 @@
         <v>20</v>
       </c>
       <c r="G129" t="n">
-        <v>8674.394000000009</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5310,18 +4931,15 @@
         <v>819.6887417200001</v>
       </c>
       <c r="G130" t="n">
-        <v>7854.70525828001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5343,18 +4961,15 @@
         <v>297.8321</v>
       </c>
       <c r="G131" t="n">
-        <v>7556.87315828001</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5376,18 +4991,15 @@
         <v>570.13</v>
       </c>
       <c r="G132" t="n">
-        <v>7556.87315828001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5409,18 +5021,15 @@
         <v>17.594</v>
       </c>
       <c r="G133" t="n">
-        <v>7539.27915828001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5442,18 +5051,15 @@
         <v>128.8211</v>
       </c>
       <c r="G134" t="n">
-        <v>7539.27915828001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5475,18 +5081,15 @@
         <v>18.4091</v>
       </c>
       <c r="G135" t="n">
-        <v>7520.87005828001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5508,18 +5111,15 @@
         <v>294.6395</v>
       </c>
       <c r="G136" t="n">
-        <v>7226.23055828001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5541,18 +5141,15 @@
         <v>107.6005</v>
       </c>
       <c r="G137" t="n">
-        <v>7118.63005828001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5574,18 +5171,15 @@
         <v>53.6995</v>
       </c>
       <c r="G138" t="n">
-        <v>7172.32955828001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5607,18 +5201,15 @@
         <v>303.1239</v>
       </c>
       <c r="G139" t="n">
-        <v>7475.45345828001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5640,18 +5231,15 @@
         <v>121.0562</v>
       </c>
       <c r="G140" t="n">
-        <v>7354.39725828001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5673,18 +5261,15 @@
         <v>0.1</v>
       </c>
       <c r="G141" t="n">
-        <v>7354.49725828001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5706,18 +5291,15 @@
         <v>559.0925999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>7913.58985828001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5739,18 +5321,15 @@
         <v>1264.7988</v>
       </c>
       <c r="G143" t="n">
-        <v>9178.38865828001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5772,18 +5351,15 @@
         <v>1.4994</v>
       </c>
       <c r="G144" t="n">
-        <v>9176.889258280009</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5805,18 +5381,15 @@
         <v>272.342</v>
       </c>
       <c r="G145" t="n">
-        <v>8904.547258280008</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5838,18 +5411,15 @@
         <v>0.1</v>
       </c>
       <c r="G146" t="n">
-        <v>8904.647258280009</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5871,18 +5441,15 @@
         <v>0.1</v>
       </c>
       <c r="G147" t="n">
-        <v>8904.747258280009</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5904,18 +5471,15 @@
         <v>36.8854</v>
       </c>
       <c r="G148" t="n">
-        <v>8867.86185828001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5937,18 +5501,15 @@
         <v>20</v>
       </c>
       <c r="G149" t="n">
-        <v>8847.86185828001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5970,18 +5531,15 @@
         <v>17.7951</v>
       </c>
       <c r="G150" t="n">
-        <v>8830.066758280011</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6003,18 +5561,15 @@
         <v>268.5931</v>
       </c>
       <c r="G151" t="n">
-        <v>9098.659858280011</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6036,18 +5591,15 @@
         <v>23.9703</v>
       </c>
       <c r="G152" t="n">
-        <v>9074.68955828001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6069,18 +5621,15 @@
         <v>56.2379</v>
       </c>
       <c r="G153" t="n">
-        <v>9018.45165828001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6102,18 +5651,15 @@
         <v>325.7534</v>
       </c>
       <c r="G154" t="n">
-        <v>8692.69825828001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6135,18 +5681,15 @@
         <v>716.7692</v>
       </c>
       <c r="G155" t="n">
-        <v>9409.467458280011</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6168,18 +5711,15 @@
         <v>226.85</v>
       </c>
       <c r="G156" t="n">
-        <v>9182.61745828001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6201,18 +5741,15 @@
         <v>0.118</v>
       </c>
       <c r="G157" t="n">
-        <v>9182.735458280011</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6234,18 +5771,15 @@
         <v>268.3366</v>
       </c>
       <c r="G158" t="n">
-        <v>8914.39885828001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6267,18 +5801,15 @@
         <v>0.1</v>
       </c>
       <c r="G159" t="n">
-        <v>8914.498858280011</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6300,18 +5831,15 @@
         <v>43.7</v>
       </c>
       <c r="G160" t="n">
-        <v>8870.79885828001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6333,18 +5861,15 @@
         <v>545.88</v>
       </c>
       <c r="G161" t="n">
-        <v>9416.678858280009</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6366,18 +5891,15 @@
         <v>606.0074</v>
       </c>
       <c r="G162" t="n">
-        <v>8810.671458280009</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6399,18 +5921,15 @@
         <v>1117.9699</v>
       </c>
       <c r="G163" t="n">
-        <v>9928.641358280009</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6432,18 +5951,15 @@
         <v>844.638</v>
       </c>
       <c r="G164" t="n">
-        <v>9084.003358280008</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6465,18 +5981,15 @@
         <v>109.5178</v>
       </c>
       <c r="G165" t="n">
-        <v>9193.521158280008</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6498,18 +6011,15 @@
         <v>357.2476</v>
       </c>
       <c r="G166" t="n">
-        <v>8836.273558280007</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6531,18 +6041,15 @@
         <v>573.9686</v>
       </c>
       <c r="G167" t="n">
-        <v>8836.273558280007</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6564,18 +6071,15 @@
         <v>617.9861</v>
       </c>
       <c r="G168" t="n">
-        <v>8218.287458280007</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6597,18 +6101,15 @@
         <v>40.8</v>
       </c>
       <c r="G169" t="n">
-        <v>8218.287458280007</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6630,18 +6131,15 @@
         <v>617.9084</v>
       </c>
       <c r="G170" t="n">
-        <v>7600.379058280007</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6663,18 +6161,15 @@
         <v>87.5407</v>
       </c>
       <c r="G171" t="n">
-        <v>7512.838358280007</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6696,18 +6191,15 @@
         <v>0.1</v>
       </c>
       <c r="G172" t="n">
-        <v>7512.938358280007</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6729,18 +6221,15 @@
         <v>2549.4176</v>
       </c>
       <c r="G173" t="n">
-        <v>4963.520758280007</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6762,18 +6251,15 @@
         <v>1189.6241</v>
       </c>
       <c r="G174" t="n">
-        <v>6153.144858280007</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6795,18 +6281,15 @@
         <v>324.9299</v>
       </c>
       <c r="G175" t="n">
-        <v>6478.074758280007</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6828,18 +6311,15 @@
         <v>3023.7526</v>
       </c>
       <c r="G176" t="n">
-        <v>3454.322158280007</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6861,18 +6341,15 @@
         <v>5.9415</v>
       </c>
       <c r="G177" t="n">
-        <v>3448.380658280007</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6894,18 +6371,15 @@
         <v>47.0124</v>
       </c>
       <c r="G178" t="n">
-        <v>3401.368258280007</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6927,18 +6401,15 @@
         <v>10.2</v>
       </c>
       <c r="G179" t="n">
-        <v>3391.168258280007</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6960,18 +6431,15 @@
         <v>10.2</v>
       </c>
       <c r="G180" t="n">
-        <v>3380.968258280007</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6993,18 +6461,15 @@
         <v>1652.4204</v>
       </c>
       <c r="G181" t="n">
-        <v>1728.547858280007</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7026,18 +6491,15 @@
         <v>204.2556</v>
       </c>
       <c r="G182" t="n">
-        <v>1932.803458280007</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7059,18 +6521,15 @@
         <v>161.5895</v>
       </c>
       <c r="G183" t="n">
-        <v>1771.213958280007</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7092,18 +6551,15 @@
         <v>90.70999999999999</v>
       </c>
       <c r="G184" t="n">
-        <v>1771.213958280007</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7125,18 +6581,15 @@
         <v>37.44</v>
       </c>
       <c r="G185" t="n">
-        <v>1808.653958280007</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7158,18 +6611,15 @@
         <v>91.65000000000001</v>
       </c>
       <c r="G186" t="n">
-        <v>1717.003958280007</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7191,18 +6641,15 @@
         <v>0.1</v>
       </c>
       <c r="G187" t="n">
-        <v>1717.103958280007</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7224,18 +6671,15 @@
         <v>0.1</v>
       </c>
       <c r="G188" t="n">
-        <v>1717.003958280007</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7257,18 +6701,15 @@
         <v>66.0065</v>
       </c>
       <c r="G189" t="n">
-        <v>1783.010458280007</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7290,18 +6731,15 @@
         <v>44.3725</v>
       </c>
       <c r="G190" t="n">
-        <v>1783.010458280007</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7323,18 +6761,15 @@
         <v>10</v>
       </c>
       <c r="G191" t="n">
-        <v>1793.010458280007</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7356,18 +6791,15 @@
         <v>17.8869</v>
       </c>
       <c r="G192" t="n">
-        <v>1810.897358280007</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7389,18 +6821,15 @@
         <v>0.1</v>
       </c>
       <c r="G193" t="n">
-        <v>1810.797358280007</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7422,18 +6851,15 @@
         <v>355</v>
       </c>
       <c r="G194" t="n">
-        <v>2165.797358280007</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7455,18 +6881,15 @@
         <v>2400.1</v>
       </c>
       <c r="G195" t="n">
-        <v>-234.3026417199926</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7488,18 +6911,15 @@
         <v>28.25</v>
       </c>
       <c r="G196" t="n">
-        <v>-206.0526417199926</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7521,18 +6941,15 @@
         <v>214.2306</v>
       </c>
       <c r="G197" t="n">
-        <v>-206.0526417199926</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7554,18 +6971,15 @@
         <v>9.4383</v>
       </c>
       <c r="G198" t="n">
-        <v>-196.6143417199926</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7587,18 +7001,15 @@
         <v>54.3339</v>
       </c>
       <c r="G199" t="n">
-        <v>-142.2804417199926</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7620,18 +7031,15 @@
         <v>590.9261</v>
       </c>
       <c r="G200" t="n">
-        <v>448.6456582800074</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7653,18 +7061,15 @@
         <v>679.0454</v>
       </c>
       <c r="G201" t="n">
-        <v>1127.691058280007</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7686,18 +7091,15 @@
         <v>2167.9546</v>
       </c>
       <c r="G202" t="n">
-        <v>3295.645658280007</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7719,18 +7121,15 @@
         <v>53.1129</v>
       </c>
       <c r="G203" t="n">
-        <v>3242.532758280007</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7752,18 +7151,15 @@
         <v>0.11</v>
       </c>
       <c r="G204" t="n">
-        <v>3242.642758280007</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7785,18 +7181,15 @@
         <v>0.1</v>
       </c>
       <c r="G205" t="n">
-        <v>3242.542758280008</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7818,18 +7211,15 @@
         <v>0.1</v>
       </c>
       <c r="G206" t="n">
-        <v>3242.442758280008</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7851,18 +7241,15 @@
         <v>1976.394</v>
       </c>
       <c r="G207" t="n">
-        <v>5218.836758280007</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7884,18 +7271,15 @@
         <v>18.1784</v>
       </c>
       <c r="G208" t="n">
-        <v>5200.658358280008</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7917,18 +7301,15 @@
         <v>431.011</v>
       </c>
       <c r="G209" t="n">
-        <v>5631.669358280008</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7950,18 +7331,15 @@
         <v>226.4431</v>
       </c>
       <c r="G210" t="n">
-        <v>5631.669358280008</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7983,18 +7361,15 @@
         <v>0.1284</v>
       </c>
       <c r="G211" t="n">
-        <v>5631.797758280008</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8016,18 +7391,15 @@
         <v>284.9894</v>
       </c>
       <c r="G212" t="n">
-        <v>5346.808358280007</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8049,18 +7421,15 @@
         <v>211.2599</v>
       </c>
       <c r="G213" t="n">
-        <v>5558.068258280007</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8082,18 +7451,15 @@
         <v>865.66936223</v>
       </c>
       <c r="G214" t="n">
-        <v>6423.737620510007</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8115,18 +7481,15 @@
         <v>33.6124</v>
       </c>
       <c r="G215" t="n">
-        <v>6423.737620510007</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8148,18 +7511,15 @@
         <v>15.0347</v>
       </c>
       <c r="G216" t="n">
-        <v>6423.737620510007</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8181,18 +7541,15 @@
         <v>357.3047</v>
       </c>
       <c r="G217" t="n">
-        <v>6781.042320510007</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8214,18 +7571,15 @@
         <v>159.9593</v>
       </c>
       <c r="G218" t="n">
-        <v>6621.083020510006</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8247,18 +7601,15 @@
         <v>63.2134</v>
       </c>
       <c r="G219" t="n">
-        <v>6684.296420510006</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8280,18 +7631,15 @@
         <v>270</v>
       </c>
       <c r="G220" t="n">
-        <v>6954.296420510006</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8313,18 +7661,15 @@
         <v>520.5526</v>
       </c>
       <c r="G221" t="n">
-        <v>6433.743820510006</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8346,18 +7691,15 @@
         <v>37.82</v>
       </c>
       <c r="G222" t="n">
-        <v>6395.923820510006</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8379,18 +7721,15 @@
         <v>17.319</v>
       </c>
       <c r="G223" t="n">
-        <v>6413.242820510007</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8412,18 +7751,15 @@
         <v>226.6715</v>
       </c>
       <c r="G224" t="n">
-        <v>6186.571320510006</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8445,18 +7781,15 @@
         <v>140.7717</v>
       </c>
       <c r="G225" t="n">
-        <v>6327.343020510007</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8478,18 +7811,15 @@
         <v>27.5149</v>
       </c>
       <c r="G226" t="n">
-        <v>6299.828120510007</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8511,18 +7841,15 @@
         <v>0.118</v>
       </c>
       <c r="G227" t="n">
-        <v>6299.946120510007</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8544,18 +7871,15 @@
         <v>22.8694</v>
       </c>
       <c r="G228" t="n">
-        <v>6277.076720510007</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8577,18 +7901,15 @@
         <v>14.4804</v>
       </c>
       <c r="G229" t="n">
-        <v>6262.596320510007</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8610,18 +7931,15 @@
         <v>65.11799999999999</v>
       </c>
       <c r="G230" t="n">
-        <v>6327.714320510007</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8643,18 +7961,15 @@
         <v>0.1</v>
       </c>
       <c r="G231" t="n">
-        <v>6327.614320510007</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8676,18 +7991,15 @@
         <v>2</v>
       </c>
       <c r="G232" t="n">
-        <v>6329.614320510007</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8709,18 +8021,15 @@
         <v>0.1</v>
       </c>
       <c r="G233" t="n">
-        <v>6329.714320510007</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8742,18 +8051,15 @@
         <v>464.9773</v>
       </c>
       <c r="G234" t="n">
-        <v>5864.737020510007</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8775,18 +8081,15 @@
         <v>6686.3522</v>
       </c>
       <c r="G235" t="n">
-        <v>12551.08922051001</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8808,18 +8111,15 @@
         <v>1521.7094</v>
       </c>
       <c r="G236" t="n">
-        <v>12551.08922051001</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8841,18 +8141,15 @@
         <v>229.1346</v>
       </c>
       <c r="G237" t="n">
-        <v>12551.08922051001</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8874,18 +8171,15 @@
         <v>69.83150000000001</v>
       </c>
       <c r="G238" t="n">
-        <v>12551.08922051001</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8907,18 +8201,15 @@
         <v>16.983</v>
       </c>
       <c r="G239" t="n">
-        <v>12534.10622051001</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8940,18 +8231,15 @@
         <v>316.983</v>
       </c>
       <c r="G240" t="n">
-        <v>12851.08922051001</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8973,18 +8261,15 @@
         <v>0.1</v>
       </c>
       <c r="G241" t="n">
-        <v>12850.98922051001</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9006,18 +8291,15 @@
         <v>500</v>
       </c>
       <c r="G242" t="n">
-        <v>13350.98922051001</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9039,18 +8321,15 @@
         <v>1993.57</v>
       </c>
       <c r="G243" t="n">
-        <v>13350.98922051001</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9072,18 +8351,15 @@
         <v>693.6130000000001</v>
       </c>
       <c r="G244" t="n">
-        <v>14044.60222051001</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9105,18 +8381,15 @@
         <v>0.1</v>
       </c>
       <c r="G245" t="n">
-        <v>14044.50222051</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9138,18 +8411,15 @@
         <v>0.1</v>
       </c>
       <c r="G246" t="n">
-        <v>14044.60222051001</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9171,18 +8441,15 @@
         <v>28.6532</v>
       </c>
       <c r="G247" t="n">
-        <v>14015.94902051</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9204,18 +8471,15 @@
         <v>12.5</v>
       </c>
       <c r="G248" t="n">
-        <v>14015.94902051</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9237,18 +8501,15 @@
         <v>53.2738</v>
       </c>
       <c r="G249" t="n">
-        <v>14015.94902051</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9270,18 +8531,15 @@
         <v>846.0661</v>
       </c>
       <c r="G250" t="n">
-        <v>13169.88292051</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9303,18 +8561,15 @@
         <v>880.6771</v>
       </c>
       <c r="G251" t="n">
-        <v>14050.56002051001</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9336,18 +8591,15 @@
         <v>50.7399</v>
       </c>
       <c r="G252" t="n">
-        <v>14101.29992051001</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9369,18 +8621,15 @@
         <v>777.6748</v>
       </c>
       <c r="G253" t="n">
-        <v>13323.62512051001</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9402,18 +8651,15 @@
         <v>32.4689</v>
       </c>
       <c r="G254" t="n">
-        <v>13323.62512051001</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9435,18 +8681,15 @@
         <v>151.2998</v>
       </c>
       <c r="G255" t="n">
-        <v>13474.92492051001</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9468,18 +8711,15 @@
         <v>18.6296</v>
       </c>
       <c r="G256" t="n">
-        <v>13456.29532051001</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9501,18 +8741,15 @@
         <v>26.9381</v>
       </c>
       <c r="G257" t="n">
-        <v>13456.29532051001</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9534,18 +8771,15 @@
         <v>17.834</v>
       </c>
       <c r="G258" t="n">
-        <v>13438.46132051</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9567,18 +8801,15 @@
         <v>46.1</v>
       </c>
       <c r="G259" t="n">
-        <v>13484.56132051001</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9600,18 +8831,15 @@
         <v>0.1</v>
       </c>
       <c r="G260" t="n">
-        <v>13484.46132051</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9633,18 +8861,15 @@
         <v>0.1</v>
       </c>
       <c r="G261" t="n">
-        <v>13484.56132051001</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9666,18 +8891,15 @@
         <v>24.5656</v>
       </c>
       <c r="G262" t="n">
-        <v>13459.99572051001</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9699,18 +8921,15 @@
         <v>47.8266</v>
       </c>
       <c r="G263" t="n">
-        <v>13507.82232051001</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9732,18 +8951,15 @@
         <v>0.1</v>
       </c>
       <c r="G264" t="n">
-        <v>13507.72232051001</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9765,18 +8981,15 @@
         <v>75.2385</v>
       </c>
       <c r="G265" t="n">
-        <v>13507.72232051001</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9798,18 +9011,15 @@
         <v>143.3888</v>
       </c>
       <c r="G266" t="n">
-        <v>13507.72232051001</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9831,18 +9041,15 @@
         <v>335.1085</v>
       </c>
       <c r="G267" t="n">
-        <v>13172.61382051001</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9864,18 +9071,15 @@
         <v>498.1493</v>
       </c>
       <c r="G268" t="n">
-        <v>13172.61382051001</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9897,18 +9101,15 @@
         <v>47.5914</v>
       </c>
       <c r="G269" t="n">
-        <v>13172.61382051001</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9930,18 +9131,15 @@
         <v>33.9</v>
       </c>
       <c r="G270" t="n">
-        <v>13172.61382051001</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9963,18 +9161,15 @@
         <v>128.9</v>
       </c>
       <c r="G271" t="n">
-        <v>13172.61382051001</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9996,18 +9191,15 @@
         <v>408.3587</v>
       </c>
       <c r="G272" t="n">
-        <v>13172.61382051001</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10029,18 +9221,15 @@
         <v>38.1107</v>
       </c>
       <c r="G273" t="n">
-        <v>13172.61382051001</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10062,18 +9251,15 @@
         <v>661.0821</v>
       </c>
       <c r="G274" t="n">
-        <v>13172.61382051001</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10095,18 +9281,15 @@
         <v>666</v>
       </c>
       <c r="G275" t="n">
-        <v>13172.61382051001</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10128,18 +9311,15 @@
         <v>327.6781</v>
       </c>
       <c r="G276" t="n">
-        <v>12844.93572051001</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10161,18 +9341,15 @@
         <v>939.3985</v>
       </c>
       <c r="G277" t="n">
-        <v>11905.53722051001</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10194,18 +9371,15 @@
         <v>3.7303</v>
       </c>
       <c r="G278" t="n">
-        <v>11909.26752051001</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10227,18 +9401,15 @@
         <v>11.9744</v>
       </c>
       <c r="G279" t="n">
-        <v>11909.26752051001</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10260,18 +9431,15 @@
         <v>5.0551</v>
       </c>
       <c r="G280" t="n">
-        <v>11909.26752051001</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10293,18 +9461,15 @@
         <v>0.1</v>
       </c>
       <c r="G281" t="n">
-        <v>11909.16752051001</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10326,18 +9491,15 @@
         <v>0.1</v>
       </c>
       <c r="G282" t="n">
-        <v>11909.06752051001</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10359,18 +9521,15 @@
         <v>15.1</v>
       </c>
       <c r="G283" t="n">
-        <v>11893.96752051</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10392,18 +9551,15 @@
         <v>90.2192</v>
       </c>
       <c r="G284" t="n">
-        <v>11984.18672051</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10425,18 +9581,15 @@
         <v>0.1</v>
       </c>
       <c r="G285" t="n">
-        <v>11984.08672051</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10458,18 +9611,15 @@
         <v>0.1</v>
       </c>
       <c r="G286" t="n">
-        <v>11983.98672051</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10491,18 +9641,15 @@
         <v>0.2</v>
       </c>
       <c r="G287" t="n">
-        <v>11983.78672051</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10524,18 +9671,15 @@
         <v>0.1</v>
       </c>
       <c r="G288" t="n">
-        <v>11983.88672051</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10557,18 +9701,15 @@
         <v>0.1</v>
       </c>
       <c r="G289" t="n">
-        <v>11983.78672051</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10590,18 +9731,15 @@
         <v>105.2596</v>
       </c>
       <c r="G290" t="n">
-        <v>11983.78672051</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10623,18 +9761,15 @@
         <v>0.1</v>
       </c>
       <c r="G291" t="n">
-        <v>11983.68672051</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10656,18 +9791,15 @@
         <v>0.1</v>
       </c>
       <c r="G292" t="n">
-        <v>11983.58672051</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10689,18 +9821,15 @@
         <v>35.36</v>
       </c>
       <c r="G293" t="n">
-        <v>11983.58672051</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10722,18 +9851,15 @@
         <v>100.4577</v>
       </c>
       <c r="G294" t="n">
-        <v>11883.12902051</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10755,18 +9881,15 @@
         <v>25.137</v>
       </c>
       <c r="G295" t="n">
-        <v>11908.26602051</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10788,18 +9911,15 @@
         <v>0.1</v>
       </c>
       <c r="G296" t="n">
-        <v>11908.36602051</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10821,18 +9941,15 @@
         <v>0.2</v>
       </c>
       <c r="G297" t="n">
-        <v>11908.16602051</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10854,18 +9971,15 @@
         <v>0.1</v>
       </c>
       <c r="G298" t="n">
-        <v>11908.06602051</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10887,18 +10001,15 @@
         <v>5.9</v>
       </c>
       <c r="G299" t="n">
-        <v>11902.16602051</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10920,18 +10031,15 @@
         <v>166.0029</v>
       </c>
       <c r="G300" t="n">
-        <v>11736.16312051</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10953,18 +10061,15 @@
         <v>32.59</v>
       </c>
       <c r="G301" t="n">
-        <v>11768.75312051</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10986,18 +10091,15 @@
         <v>0.1</v>
       </c>
       <c r="G302" t="n">
-        <v>11768.65312051</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11019,18 +10121,15 @@
         <v>232.3125</v>
       </c>
       <c r="G303" t="n">
-        <v>12000.96562051</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11052,18 +10151,15 @@
         <v>316.5971</v>
       </c>
       <c r="G304" t="n">
-        <v>11684.36852051</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11085,18 +10181,15 @@
         <v>85.37990000000001</v>
       </c>
       <c r="G305" t="n">
-        <v>11684.36852051</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11118,18 +10211,15 @@
         <v>1439.0663</v>
       </c>
       <c r="G306" t="n">
-        <v>10245.30222051</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11151,18 +10241,15 @@
         <v>252.9145</v>
       </c>
       <c r="G307" t="n">
-        <v>9992.38772051</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11184,18 +10271,15 @@
         <v>34.4999</v>
       </c>
       <c r="G308" t="n">
-        <v>9957.887820509999</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11217,18 +10301,15 @@
         <v>430</v>
       </c>
       <c r="G309" t="n">
-        <v>10387.88782051</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11250,18 +10331,15 @@
         <v>16.5586</v>
       </c>
       <c r="G310" t="n">
-        <v>10371.32922051</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11283,18 +10361,15 @@
         <v>464.4918</v>
       </c>
       <c r="G311" t="n">
-        <v>9906.837420509999</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
